--- a/The_Long_Dark_Save_Editor_2.xlsx
+++ b/The_Long_Dark_Save_Editor_2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fgc01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\idm\TheLongDarkSaveEditorTranslate-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="1120">
   <si>
     <t>About</t>
   </si>
@@ -3296,6 +3296,117 @@
   <si>
     <t>The Long Dark 漫漫长夜 (v.1.05) 存档编辑器中文版 汉化：Chasel</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒芜据点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惬意山谷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山沟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘湖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝望沼泽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crumbling Highway</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000ml水瓶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500ml水瓶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制好的玫瑰果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制好的灵芝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行保险箱钥匙 (#13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行保险箱钥匙 Key (#20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行保险箱钥匙 (#7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行保险箱钥匙 (#15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岸公路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林狼雪玲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎物，第一部分</t>
+  </si>
+  <si>
+    <t>猎物，第二部分</t>
+  </si>
+  <si>
+    <t>流浪者</t>
+  </si>
+  <si>
+    <t>无望的救援</t>
+  </si>
+  <si>
+    <t>白雪茫茫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入侵者</t>
+  </si>
+  <si>
+    <t>朝圣者</t>
+  </si>
+  <si>
+    <t>潜行者</t>
+  </si>
+  <si>
+    <t>故事模式</t>
+  </si>
+  <si>
+    <t>航行者</t>
   </si>
 </sst>
 </file>
@@ -3703,8 +3814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K420"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E423" sqref="E423"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4617,7 +4728,7 @@
         <v>661</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>662</v>
+        <v>1107</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="2" t="str">
@@ -4747,7 +4858,7 @@
         <v>665</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>666</v>
+        <v>1108</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="2" t="str">
@@ -4851,7 +4962,7 @@
         <v>669</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>670</v>
+        <v>1109</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="2" t="str">
@@ -4877,7 +4988,7 @@
         <v>671</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>672</v>
+        <v>1110</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="2" t="str">
@@ -4903,7 +5014,7 @@
         <v>673</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>674</v>
+        <v>1111</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="2" t="str">
@@ -4929,7 +5040,7 @@
         <v>675</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>676</v>
+        <v>1112</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="2" t="str">
@@ -4955,7 +5066,7 @@
         <v>677</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>678</v>
+        <v>1113</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="2" t="str">
@@ -4981,7 +5092,7 @@
         <v>679</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>680</v>
+        <v>1114</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="2" t="str">
@@ -5007,7 +5118,7 @@
         <v>681</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>682</v>
+        <v>1115</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="2" t="str">
@@ -5033,7 +5144,7 @@
         <v>683</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>684</v>
+        <v>1116</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="2" t="str">
@@ -5059,7 +5170,7 @@
         <v>685</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>686</v>
+        <v>1117</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="2" t="str">
@@ -5085,7 +5196,7 @@
         <v>687</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>688</v>
+        <v>1118</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="2" t="str">
@@ -5111,7 +5222,7 @@
         <v>689</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>690</v>
+        <v>1119</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="2" t="str">
@@ -8309,7 +8420,7 @@
         <v>818</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>819</v>
+        <v>1106</v>
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="2" t="str">
@@ -10597,7 +10708,7 @@
         <v>931</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>932</v>
+        <v>1105</v>
       </c>
       <c r="F265" s="1"/>
       <c r="G265" s="2" t="str">
@@ -10623,7 +10734,7 @@
         <v>933</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>934</v>
+        <v>1103</v>
       </c>
       <c r="F266" s="1"/>
       <c r="G266" s="2" t="str">
@@ -10649,7 +10760,7 @@
         <v>935</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>936</v>
+        <v>1104</v>
       </c>
       <c r="F267" s="1"/>
       <c r="G267" s="2" t="str">
@@ -11689,7 +11800,7 @@
         <v>978</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>979</v>
+        <v>1102</v>
       </c>
       <c r="F307" s="1"/>
       <c r="G307" s="2" t="str">
@@ -12001,7 +12112,7 @@
         <v>991</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>992</v>
+        <v>1101</v>
       </c>
       <c r="F319" s="1"/>
       <c r="G319" s="2" t="str">
@@ -12547,7 +12658,7 @@
         <v>1020</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>1021</v>
+        <v>1099</v>
       </c>
       <c r="F344" s="1"/>
       <c r="G344" s="2" t="str">
@@ -12567,7 +12678,7 @@
         <v>1022</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1021</v>
+        <v>1100</v>
       </c>
       <c r="F345" s="1"/>
       <c r="G345" s="2" t="str">
@@ -13147,7 +13258,7 @@
         <v>1059</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>1060</v>
+        <v>1098</v>
       </c>
       <c r="F374" s="1"/>
       <c r="G374" s="2" t="str">
@@ -13447,7 +13558,7 @@
         <v>1063</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>1064</v>
+        <v>1095</v>
       </c>
       <c r="F389" s="1"/>
       <c r="G389" s="2" t="str">
@@ -13467,7 +13578,7 @@
         <v>1065</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>1065</v>
+        <v>1096</v>
       </c>
       <c r="F390" s="1"/>
       <c r="G390" s="2" t="str">
@@ -13487,7 +13598,7 @@
         <v>1066</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>1067</v>
+        <v>1097</v>
       </c>
       <c r="F391" s="1"/>
       <c r="G391" s="2" t="str">
@@ -13607,7 +13718,7 @@
         <v>1073</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>1073</v>
+        <v>1094</v>
       </c>
       <c r="F397" s="1"/>
       <c r="G397" s="2" t="str">
@@ -13667,7 +13778,7 @@
         <v>1074</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>1075</v>
+        <v>1093</v>
       </c>
       <c r="F400" s="1"/>
       <c r="G400" s="2" t="str">
@@ -13707,7 +13818,7 @@
         <v>1076</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>1076</v>
+        <v>1092</v>
       </c>
       <c r="F402" s="1"/>
       <c r="G402" s="2" t="str">
@@ -13827,7 +13938,7 @@
         <v>1080</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>1081</v>
+        <v>1091</v>
       </c>
       <c r="F408" s="1"/>
       <c r="G408" s="2" t="str">
@@ -14047,7 +14158,7 @@
         <v>1086</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="F419" s="1"/>
       <c r="G419" s="2" t="str">

--- a/The_Long_Dark_Save_Editor_2.xlsx
+++ b/The_Long_Dark_Save_Editor_2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fgc01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\idm\TheLongDarkSaveEditorTranslate-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="1133">
   <si>
     <t>About</t>
   </si>
@@ -1905,9 +1905,6 @@
   </si>
   <si>
     <t>Title</t>
-  </si>
-  <si>
-    <t>The Long Dark 漫漫长夜 (v.388) 存档编辑器中文版 汉化：Duguy1xuan &amp; shiyuwuci</t>
   </si>
   <si>
     <t>Tools</t>
@@ -3295,6 +3292,171 @@
   </si>
   <si>
     <t>The Long Dark 漫漫长夜 (v.1.05) 存档编辑器中文版 汉化：Chasel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒芜据点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惬意山谷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山沟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘湖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝望沼泽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crumbling Highway</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000ml水瓶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500ml水瓶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行保险箱钥匙 (#13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行保险箱钥匙 (#7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岸公路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林狼雪玲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎物，第一部分</t>
+  </si>
+  <si>
+    <t>猎物，第二部分</t>
+  </si>
+  <si>
+    <t>流浪者</t>
+  </si>
+  <si>
+    <t>无望的救援</t>
+  </si>
+  <si>
+    <t>白雪茫茫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入侵者</t>
+  </si>
+  <si>
+    <t>朝圣者</t>
+  </si>
+  <si>
+    <t>潜行者</t>
+  </si>
+  <si>
+    <t>故事模式</t>
+  </si>
+  <si>
+    <t>航行者</t>
+  </si>
+  <si>
+    <t>采集技能点数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老熊的耳朵</t>
+  </si>
+  <si>
+    <t>无边棉帽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木炭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压迫绷带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Long Dark 漫漫长夜 (v.1.05) 存档编辑器中文版 汉化：Chasel  版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制备好的灵芝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制备好的玫瑰果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>书本</t>
+  </si>
+  <si>
+    <t>大坝办公室钥匙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行保险箱钥匙 (#15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡人山谷上锁箱子钥匙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡人山谷农场钥匙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡人山谷商店钥匙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行保险箱钥匙 (#20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合饮用的水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不适合饮用的水</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3302,7 +3464,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3323,6 +3485,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3349,7 +3519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3357,6 +3527,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3703,8 +3876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K420"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E423" sqref="E423"/>
+    <sheetView tabSelected="1" topLeftCell="C396" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E419" sqref="E419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3752,7 +3925,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -3778,7 +3951,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -3830,7 +4003,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -3856,7 +4029,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -3882,7 +4055,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -3908,7 +4081,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -3934,7 +4107,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -3960,7 +4133,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
@@ -3986,7 +4159,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
@@ -4012,7 +4185,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -4038,7 +4211,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -4064,7 +4237,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -4090,7 +4263,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -4116,7 +4289,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -4142,7 +4315,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -4168,7 +4341,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -4194,7 +4367,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -4220,7 +4393,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -4246,7 +4419,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -4272,7 +4445,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
@@ -4298,7 +4471,7 @@
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
@@ -4324,7 +4497,7 @@
         <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
@@ -4376,7 +4549,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
@@ -4402,7 +4575,7 @@
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
@@ -4454,7 +4627,7 @@
         <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
@@ -4532,14 +4705,14 @@
         <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>63</v>
+        <v>1115</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="2" t="str">
@@ -4584,7 +4757,7 @@
         <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
@@ -4607,17 +4780,17 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>662</v>
+        <v>1102</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="2" t="str">
@@ -4636,7 +4809,7 @@
         <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
@@ -4714,7 +4887,7 @@
         <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
@@ -4737,17 +4910,17 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>666</v>
+        <v>1103</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="2" t="str">
@@ -4766,7 +4939,7 @@
         <v>76</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
@@ -4818,7 +4991,7 @@
         <v>80</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
@@ -4841,17 +5014,17 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>670</v>
+        <v>1104</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="2" t="str">
@@ -4867,17 +5040,17 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>672</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>672</v>
+        <v>1105</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="2" t="str">
@@ -4893,17 +5066,17 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>674</v>
+        <v>1106</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="2" t="str">
@@ -4919,17 +5092,17 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>676</v>
+        <v>1107</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="2" t="str">
@@ -4945,17 +5118,17 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>678</v>
+        <v>1108</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="2" t="str">
@@ -4971,17 +5144,17 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>680</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>680</v>
+        <v>1109</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="2" t="str">
@@ -4997,17 +5170,17 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>682</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>682</v>
+        <v>1110</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="2" t="str">
@@ -5023,17 +5196,17 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>684</v>
+        <v>1111</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="2" t="str">
@@ -5049,17 +5222,17 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>686</v>
+        <v>1112</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="2" t="str">
@@ -5075,17 +5248,17 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>687</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>688</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>688</v>
+        <v>1113</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="2" t="str">
@@ -5101,17 +5274,17 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>690</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>690</v>
+        <v>1114</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="2" t="str">
@@ -5156,7 +5329,7 @@
         <v>84</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
@@ -5182,7 +5355,7 @@
         <v>86</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
@@ -5208,7 +5381,7 @@
         <v>88</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
@@ -5260,7 +5433,7 @@
         <v>92</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
@@ -5312,7 +5485,7 @@
         <v>96</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
@@ -5338,7 +5511,7 @@
         <v>98</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
@@ -5364,7 +5537,7 @@
         <v>100</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
@@ -5390,7 +5563,7 @@
         <v>102</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
@@ -5416,7 +5589,7 @@
         <v>104</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
@@ -5442,7 +5615,7 @@
         <v>106</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
@@ -5468,7 +5641,7 @@
         <v>108</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
@@ -5494,7 +5667,7 @@
         <v>110</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
@@ -5517,17 +5690,17 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="2" t="str">
@@ -5543,17 +5716,17 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>703</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>704</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>703</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>704</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="2" t="str">
@@ -5569,17 +5742,17 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="2" t="str">
@@ -5595,14 +5768,14 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>113</v>
@@ -5624,7 +5797,7 @@
         <v>114</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
@@ -5650,7 +5823,7 @@
         <v>116</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
@@ -5676,7 +5849,7 @@
         <v>118</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
@@ -5702,7 +5875,7 @@
         <v>120</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
@@ -5728,14 +5901,14 @@
         <v>122</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>123</v>
+        <v>1117</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="2" t="str">
@@ -5754,7 +5927,7 @@
         <v>124</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
@@ -5777,17 +5950,17 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>1116</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="2" t="str">
@@ -5806,7 +5979,7 @@
         <v>126</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
@@ -5832,7 +6005,7 @@
         <v>128</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
@@ -5855,17 +6028,17 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="2" t="str">
@@ -5884,7 +6057,7 @@
         <v>130</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
@@ -5910,7 +6083,7 @@
         <v>132</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
@@ -5936,7 +6109,7 @@
         <v>134</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
@@ -5962,7 +6135,7 @@
         <v>136</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
@@ -5988,7 +6161,7 @@
         <v>138</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
@@ -6014,7 +6187,7 @@
         <v>140</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
@@ -6040,7 +6213,7 @@
         <v>142</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
@@ -6063,14 +6236,14 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>729</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>145</v>
@@ -6092,14 +6265,14 @@
         <v>146</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>147</v>
+        <v>1124</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="2" t="str">
@@ -6115,17 +6288,17 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>732</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>732</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="2" t="str">
@@ -6144,14 +6317,14 @@
         <v>148</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>147</v>
+        <v>1124</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="2" t="str">
@@ -6167,17 +6340,17 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>730</v>
+        <v>1124</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="2" t="str">
@@ -6196,14 +6369,14 @@
         <v>149</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>147</v>
+        <v>1124</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="2" t="str">
@@ -6222,7 +6395,7 @@
         <v>150</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
@@ -6248,7 +6421,7 @@
         <v>152</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
@@ -6274,14 +6447,14 @@
         <v>154</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
         <v>154</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>147</v>
+        <v>1124</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="2" t="str">
@@ -6300,14 +6473,14 @@
         <v>155</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
         <v>155</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>147</v>
+        <v>1124</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="2" t="str">
@@ -6323,17 +6496,17 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>730</v>
+        <v>1124</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="2" t="str">
@@ -6352,14 +6525,14 @@
         <v>156</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>147</v>
+        <v>1124</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="2" t="str">
@@ -6378,7 +6551,7 @@
         <v>157</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
@@ -6401,17 +6574,17 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>730</v>
+        <v>1124</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="2" t="str">
@@ -6427,17 +6600,17 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>730</v>
+        <v>1124</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="str">
@@ -6453,17 +6626,17 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>730</v>
+        <v>1124</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="2" t="str">
@@ -6479,17 +6652,17 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>730</v>
+        <v>1124</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="2" t="str">
@@ -6505,17 +6678,17 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>730</v>
+        <v>1124</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="2" t="str">
@@ -6534,7 +6707,7 @@
         <v>159</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
@@ -6560,14 +6733,14 @@
         <v>161</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>147</v>
+        <v>1124</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="2" t="str">
@@ -6583,17 +6756,17 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>745</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>745</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="2" t="str">
@@ -6612,7 +6785,7 @@
         <v>164</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
@@ -6638,7 +6811,7 @@
         <v>166</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
@@ -6664,7 +6837,7 @@
         <v>168</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
@@ -6690,7 +6863,7 @@
         <v>170</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
@@ -6716,7 +6889,7 @@
         <v>172</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
@@ -6742,7 +6915,7 @@
         <v>174</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
@@ -6768,7 +6941,7 @@
         <v>176</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
@@ -6794,7 +6967,7 @@
         <v>178</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
@@ -6820,7 +6993,7 @@
         <v>180</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
@@ -6843,17 +7016,17 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>756</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>756</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="2" t="str">
@@ -6869,17 +7042,17 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>758</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>758</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="2" t="str">
@@ -6895,17 +7068,17 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>760</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>760</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="2" t="str">
@@ -6924,7 +7097,7 @@
         <v>182</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1" t="s">
@@ -6950,7 +7123,7 @@
         <v>184</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
@@ -6976,7 +7149,7 @@
         <v>186</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
@@ -7002,7 +7175,7 @@
         <v>188</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1" t="s">
@@ -7028,7 +7201,7 @@
         <v>190</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1" t="s">
@@ -7054,7 +7227,7 @@
         <v>192</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1" t="s">
@@ -7077,17 +7250,17 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>768</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>768</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="2" t="str">
@@ -7106,7 +7279,7 @@
         <v>194</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
@@ -7132,7 +7305,7 @@
         <v>196</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
@@ -7155,17 +7328,17 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="2" t="str">
@@ -7181,17 +7354,17 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>774</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>774</v>
+        <v>1118</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="2" t="str">
@@ -7210,7 +7383,7 @@
         <v>198</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1" t="s">
@@ -7233,14 +7406,14 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>777</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>201</v>
@@ -7262,7 +7435,7 @@
         <v>202</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1" t="s">
@@ -7288,7 +7461,7 @@
         <v>204</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1" t="s">
@@ -7314,7 +7487,7 @@
         <v>206</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
@@ -7340,7 +7513,7 @@
         <v>208</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1" t="s">
@@ -7366,7 +7539,7 @@
         <v>210</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1" t="s">
@@ -7392,7 +7565,7 @@
         <v>212</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1" t="s">
@@ -7418,7 +7591,7 @@
         <v>214</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1" t="s">
@@ -7444,7 +7617,7 @@
         <v>216</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1" t="s">
@@ -7470,7 +7643,7 @@
         <v>217</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
@@ -7496,7 +7669,7 @@
         <v>219</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
@@ -7522,14 +7695,14 @@
         <v>221</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>222</v>
+        <v>1119</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="2" t="str">
@@ -7548,7 +7721,7 @@
         <v>223</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
@@ -7571,17 +7744,17 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>790</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>790</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="2" t="str">
@@ -7600,7 +7773,7 @@
         <v>225</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1" t="s">
@@ -7626,7 +7799,7 @@
         <v>227</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
@@ -7652,7 +7825,7 @@
         <v>229</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
@@ -7678,7 +7851,7 @@
         <v>231</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
@@ -7704,7 +7877,7 @@
         <v>233</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
@@ -7730,7 +7903,7 @@
         <v>235</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
@@ -7756,7 +7929,7 @@
         <v>237</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1" t="s">
@@ -7782,7 +7955,7 @@
         <v>239</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1" t="s">
@@ -7808,7 +7981,7 @@
         <v>241</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
@@ -7834,7 +8007,7 @@
         <v>243</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1" t="s">
@@ -7860,7 +8033,7 @@
         <v>245</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1" t="s">
@@ -7886,7 +8059,7 @@
         <v>247</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1" t="s">
@@ -7912,7 +8085,7 @@
         <v>249</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1" t="s">
@@ -7938,7 +8111,7 @@
         <v>251</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1" t="s">
@@ -7964,7 +8137,7 @@
         <v>253</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1" t="s">
@@ -7990,7 +8163,7 @@
         <v>255</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
@@ -8016,14 +8189,14 @@
         <v>257</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>258</v>
+        <v>1125</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="2" t="str">
@@ -8042,7 +8215,7 @@
         <v>259</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1" t="s">
@@ -8068,7 +8241,7 @@
         <v>261</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1" t="s">
@@ -8094,7 +8267,7 @@
         <v>263</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1" t="s">
@@ -8120,7 +8293,7 @@
         <v>265</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1" t="s">
@@ -8146,7 +8319,7 @@
         <v>267</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
@@ -8172,7 +8345,7 @@
         <v>269</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1" t="s">
@@ -8198,7 +8371,7 @@
         <v>271</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1" t="s">
@@ -8224,7 +8397,7 @@
         <v>273</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1" t="s">
@@ -8250,7 +8423,7 @@
         <v>275</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1" t="s">
@@ -8276,7 +8449,7 @@
         <v>277</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1" t="s">
@@ -8299,17 +8472,17 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>819</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>819</v>
+        <v>1126</v>
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="2" t="str">
@@ -8328,7 +8501,7 @@
         <v>279</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1" t="s">
@@ -8351,14 +8524,14 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>822</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>282</v>
@@ -8380,7 +8553,7 @@
         <v>283</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1" t="s">
@@ -8406,7 +8579,7 @@
         <v>285</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1" t="s">
@@ -8432,7 +8605,7 @@
         <v>287</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1" t="s">
@@ -8455,14 +8628,14 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>827</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>289</v>
@@ -8484,7 +8657,7 @@
         <v>290</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1" t="s">
@@ -8507,17 +8680,17 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>830</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>830</v>
       </c>
       <c r="F185" s="1"/>
       <c r="G185" s="2" t="str">
@@ -8536,7 +8709,7 @@
         <v>292</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1" t="s">
@@ -8559,14 +8732,14 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>833</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>295</v>
@@ -8588,7 +8761,7 @@
         <v>296</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1" t="s">
@@ -8611,17 +8784,17 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>836</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>836</v>
       </c>
       <c r="F189" s="1"/>
       <c r="G189" s="2" t="str">
@@ -8640,7 +8813,7 @@
         <v>298</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1" t="s">
@@ -8666,7 +8839,7 @@
         <v>300</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1" t="s">
@@ -8692,7 +8865,7 @@
         <v>302</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1" t="s">
@@ -8715,17 +8888,17 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>840</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>841</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>840</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>841</v>
       </c>
       <c r="F193" s="1"/>
       <c r="G193" s="2" t="str">
@@ -8741,17 +8914,17 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>843</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>843</v>
       </c>
       <c r="F194" s="1"/>
       <c r="G194" s="2" t="str">
@@ -8767,17 +8940,17 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>844</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>845</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>844</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>845</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="2" t="str">
@@ -8793,17 +8966,17 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>846</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>847</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>846</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>847</v>
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="2" t="str">
@@ -8819,17 +8992,17 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F197" s="1"/>
       <c r="G197" s="2" t="str">
@@ -8845,17 +9018,17 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>850</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>850</v>
       </c>
       <c r="F198" s="1"/>
       <c r="G198" s="2" t="str">
@@ -8874,7 +9047,7 @@
         <v>304</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1" t="s">
@@ -8900,7 +9073,7 @@
         <v>306</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1" t="s">
@@ -8926,7 +9099,7 @@
         <v>308</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1" t="s">
@@ -8952,7 +9125,7 @@
         <v>310</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1" t="s">
@@ -8975,17 +9148,17 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>856</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="E203" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>856</v>
       </c>
       <c r="F203" s="1"/>
       <c r="G203" s="2" t="str">
@@ -9001,17 +9174,17 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>858</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E204" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>858</v>
       </c>
       <c r="F204" s="1"/>
       <c r="G204" s="2" t="str">
@@ -9027,17 +9200,17 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>860</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="E205" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>860</v>
       </c>
       <c r="F205" s="1"/>
       <c r="G205" s="2" t="str">
@@ -9056,7 +9229,7 @@
         <v>312</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1" t="s">
@@ -9082,7 +9255,7 @@
         <v>314</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1" t="s">
@@ -9108,7 +9281,7 @@
         <v>316</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1" t="s">
@@ -9134,7 +9307,7 @@
         <v>318</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1" t="s">
@@ -9157,17 +9330,17 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>866</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>866</v>
       </c>
       <c r="F210" s="1"/>
       <c r="G210" s="2" t="str">
@@ -9183,17 +9356,17 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>868</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E211" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>868</v>
       </c>
       <c r="F211" s="1"/>
       <c r="G211" s="2" t="str">
@@ -9209,17 +9382,17 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>870</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="E212" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>870</v>
       </c>
       <c r="F212" s="1"/>
       <c r="G212" s="2" t="str">
@@ -9238,7 +9411,7 @@
         <v>320</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1" t="s">
@@ -9264,7 +9437,7 @@
         <v>322</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1" t="s">
@@ -9290,7 +9463,7 @@
         <v>324</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1" t="s">
@@ -9316,7 +9489,7 @@
         <v>326</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1" t="s">
@@ -9339,17 +9512,17 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>876</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="E217" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>876</v>
       </c>
       <c r="F217" s="1"/>
       <c r="G217" s="2" t="str">
@@ -9365,17 +9538,17 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>878</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E218" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>878</v>
       </c>
       <c r="F218" s="1"/>
       <c r="G218" s="2" t="str">
@@ -9391,17 +9564,17 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>880</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>880</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="2" t="str">
@@ -9417,17 +9590,17 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>882</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="E220" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>882</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="2" t="str">
@@ -9443,17 +9616,17 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>884</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="E221" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>884</v>
       </c>
       <c r="F221" s="1"/>
       <c r="G221" s="2" t="str">
@@ -9469,17 +9642,17 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>886</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="E222" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>886</v>
       </c>
       <c r="F222" s="1"/>
       <c r="G222" s="2" t="str">
@@ -9498,7 +9671,7 @@
         <v>328</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1" t="s">
@@ -9524,7 +9697,7 @@
         <v>330</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1" t="s">
@@ -9550,7 +9723,7 @@
         <v>332</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1" t="s">
@@ -9576,7 +9749,7 @@
         <v>334</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C226" s="1"/>
       <c r="D226" s="1" t="s">
@@ -9602,7 +9775,7 @@
         <v>336</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1" t="s">
@@ -9628,7 +9801,7 @@
         <v>338</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1" t="s">
@@ -9654,7 +9827,7 @@
         <v>340</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1" t="s">
@@ -9680,7 +9853,7 @@
         <v>342</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1" t="s">
@@ -9706,7 +9879,7 @@
         <v>344</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1" t="s">
@@ -9732,7 +9905,7 @@
         <v>346</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1" t="s">
@@ -9758,7 +9931,7 @@
         <v>348</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C233" s="1"/>
       <c r="D233" s="1" t="s">
@@ -9784,7 +9957,7 @@
         <v>350</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1" t="s">
@@ -9807,17 +9980,17 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>900</v>
       </c>
       <c r="C235" s="1"/>
       <c r="D235" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E235" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>900</v>
       </c>
       <c r="F235" s="1"/>
       <c r="G235" s="2" t="str">
@@ -9833,17 +10006,17 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>902</v>
       </c>
       <c r="C236" s="1"/>
       <c r="D236" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E236" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>902</v>
       </c>
       <c r="F236" s="1"/>
       <c r="G236" s="2" t="str">
@@ -9862,7 +10035,7 @@
         <v>352</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C237" s="1"/>
       <c r="D237" s="1" t="s">
@@ -9888,7 +10061,7 @@
         <v>354</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C238" s="1"/>
       <c r="D238" s="1" t="s">
@@ -9914,7 +10087,7 @@
         <v>356</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C239" s="1"/>
       <c r="D239" s="1" t="s">
@@ -9940,7 +10113,7 @@
         <v>358</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C240" s="1"/>
       <c r="D240" s="1" t="s">
@@ -9966,7 +10139,7 @@
         <v>360</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C241" s="1"/>
       <c r="D241" s="1" t="s">
@@ -9992,7 +10165,7 @@
         <v>362</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C242" s="1"/>
       <c r="D242" s="1" t="s">
@@ -10015,17 +10188,17 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="C243" s="1"/>
       <c r="D243" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E243" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="F243" s="1"/>
       <c r="G243" s="2" t="str">
@@ -10044,7 +10217,7 @@
         <v>364</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C244" s="1"/>
       <c r="D244" s="1" t="s">
@@ -10067,17 +10240,17 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C245" s="1"/>
       <c r="D245" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F245" s="1"/>
       <c r="G245" s="2" t="str">
@@ -10096,7 +10269,7 @@
         <v>366</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C246" s="1"/>
       <c r="D246" s="1" t="s">
@@ -10122,7 +10295,7 @@
         <v>368</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C247" s="1"/>
       <c r="D247" s="1" t="s">
@@ -10148,7 +10321,7 @@
         <v>370</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C248" s="1"/>
       <c r="D248" s="1" t="s">
@@ -10174,7 +10347,7 @@
         <v>372</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C249" s="1"/>
       <c r="D249" s="1" t="s">
@@ -10200,7 +10373,7 @@
         <v>374</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C250" s="1"/>
       <c r="D250" s="1" t="s">
@@ -10226,7 +10399,7 @@
         <v>376</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C251" s="1"/>
       <c r="D251" s="1" t="s">
@@ -10249,17 +10422,17 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>919</v>
       </c>
       <c r="C252" s="1"/>
       <c r="D252" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="E252" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>919</v>
       </c>
       <c r="F252" s="1"/>
       <c r="G252" s="2" t="str">
@@ -10278,7 +10451,7 @@
         <v>378</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C253" s="1"/>
       <c r="D253" s="1" t="s">
@@ -10304,7 +10477,7 @@
         <v>380</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C254" s="1"/>
       <c r="D254" s="1" t="s">
@@ -10330,7 +10503,7 @@
         <v>382</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C255" s="1"/>
       <c r="D255" s="1" t="s">
@@ -10356,7 +10529,7 @@
         <v>384</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C256" s="1"/>
       <c r="D256" s="1" t="s">
@@ -10382,7 +10555,7 @@
         <v>386</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C257" s="1"/>
       <c r="D257" s="1" t="s">
@@ -10408,7 +10581,7 @@
         <v>388</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="1" t="s">
@@ -10434,7 +10607,7 @@
         <v>390</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="1" t="s">
@@ -10460,7 +10633,7 @@
         <v>392</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C260" s="1"/>
       <c r="D260" s="1" t="s">
@@ -10486,7 +10659,7 @@
         <v>394</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C261" s="1"/>
       <c r="D261" s="1" t="s">
@@ -10512,7 +10685,7 @@
         <v>396</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C262" s="1"/>
       <c r="D262" s="1" t="s">
@@ -10538,7 +10711,7 @@
         <v>398</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C263" s="1"/>
       <c r="D263" s="1" t="s">
@@ -10564,7 +10737,7 @@
         <v>400</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C264" s="1"/>
       <c r="D264" s="1" t="s">
@@ -10587,17 +10760,17 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>932</v>
       </c>
       <c r="C265" s="1"/>
       <c r="D265" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>932</v>
+        <v>1101</v>
       </c>
       <c r="F265" s="1"/>
       <c r="G265" s="2" t="str">
@@ -10613,17 +10786,17 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>934</v>
       </c>
       <c r="C266" s="1"/>
       <c r="D266" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>934</v>
+        <v>1100</v>
       </c>
       <c r="F266" s="1"/>
       <c r="G266" s="2" t="str">
@@ -10639,17 +10812,17 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>936</v>
       </c>
       <c r="C267" s="1"/>
       <c r="D267" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>936</v>
+        <v>1130</v>
       </c>
       <c r="F267" s="1"/>
       <c r="G267" s="2" t="str">
@@ -10668,7 +10841,7 @@
         <v>402</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C268" s="1"/>
       <c r="D268" s="1" t="s">
@@ -10694,7 +10867,7 @@
         <v>404</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C269" s="1"/>
       <c r="D269" s="1" t="s">
@@ -10720,14 +10893,14 @@
         <v>406</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C270" s="1"/>
       <c r="D270" s="1" t="s">
         <v>406</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>407</v>
+        <v>1128</v>
       </c>
       <c r="F270" s="1"/>
       <c r="G270" s="2" t="str">
@@ -10746,7 +10919,7 @@
         <v>408</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C271" s="1"/>
       <c r="D271" s="1" t="s">
@@ -10772,14 +10945,14 @@
         <v>410</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C272" s="1"/>
       <c r="D272" s="1" t="s">
         <v>410</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>411</v>
+        <v>1127</v>
       </c>
       <c r="F272" s="1"/>
       <c r="G272" s="2" t="str">
@@ -10798,7 +10971,7 @@
         <v>412</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C273" s="1"/>
       <c r="D273" s="1" t="s">
@@ -10824,14 +10997,14 @@
         <v>414</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C274" s="1"/>
       <c r="D274" s="1" t="s">
         <v>414</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>415</v>
+        <v>1129</v>
       </c>
       <c r="F274" s="1"/>
       <c r="G274" s="2" t="str">
@@ -10842,7 +11015,7 @@
         <v>537</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>538</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
@@ -10850,7 +11023,7 @@
         <v>416</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C275" s="1"/>
       <c r="D275" s="1" t="s">
@@ -10868,7 +11041,7 @@
         <v>539</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>540</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
@@ -10876,7 +11049,7 @@
         <v>418</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C276" s="1"/>
       <c r="D276" s="1" t="s">
@@ -10902,7 +11075,7 @@
         <v>420</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C277" s="1"/>
       <c r="D277" s="1" t="s">
@@ -10928,7 +11101,7 @@
         <v>422</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C278" s="1"/>
       <c r="D278" s="1" t="s">
@@ -10951,17 +11124,17 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>948</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>949</v>
       </c>
       <c r="C279" s="1"/>
       <c r="D279" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="E279" s="1" t="s">
         <v>948</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>949</v>
       </c>
       <c r="F279" s="1"/>
       <c r="G279" s="2" t="str">
@@ -10980,7 +11153,7 @@
         <v>424</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C280" s="1"/>
       <c r="D280" s="1" t="s">
@@ -11006,7 +11179,7 @@
         <v>426</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C281" s="1"/>
       <c r="D281" s="1" t="s">
@@ -11032,7 +11205,7 @@
         <v>428</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C282" s="1"/>
       <c r="D282" s="1" t="s">
@@ -11058,7 +11231,7 @@
         <v>430</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C283" s="1"/>
       <c r="D283" s="1" t="s">
@@ -11084,7 +11257,7 @@
         <v>432</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C284" s="1"/>
       <c r="D284" s="1" t="s">
@@ -11110,7 +11283,7 @@
         <v>434</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C285" s="1"/>
       <c r="D285" s="1" t="s">
@@ -11136,7 +11309,7 @@
         <v>436</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C286" s="1"/>
       <c r="D286" s="1" t="s">
@@ -11159,17 +11332,17 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>957</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>958</v>
       </c>
       <c r="C287" s="1"/>
       <c r="D287" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="E287" s="1" t="s">
         <v>957</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>958</v>
       </c>
       <c r="F287" s="1"/>
       <c r="G287" s="2" t="str">
@@ -11188,7 +11361,7 @@
         <v>438</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C288" s="1"/>
       <c r="D288" s="1" t="s">
@@ -11214,7 +11387,7 @@
         <v>440</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C289" s="1"/>
       <c r="D289" s="1" t="s">
@@ -11240,14 +11413,14 @@
         <v>442</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="1" t="s">
         <v>442</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F290" s="1"/>
       <c r="G290" s="2" t="str">
@@ -11266,7 +11439,7 @@
         <v>444</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C291" s="1"/>
       <c r="D291" s="1" t="s">
@@ -11292,7 +11465,7 @@
         <v>446</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C292" s="1"/>
       <c r="D292" s="1" t="s">
@@ -11315,17 +11488,17 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C293" s="1"/>
       <c r="D293" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F293" s="1"/>
       <c r="G293" s="2" t="str">
@@ -11344,7 +11517,7 @@
         <v>448</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C294" s="1"/>
       <c r="D294" s="1" t="s">
@@ -11370,7 +11543,7 @@
         <v>450</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C295" s="1"/>
       <c r="D295" s="1" t="s">
@@ -11396,7 +11569,7 @@
         <v>452</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C296" s="1"/>
       <c r="D296" s="1" t="s">
@@ -11422,7 +11595,7 @@
         <v>454</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C297" s="1"/>
       <c r="D297" s="1" t="s">
@@ -11448,7 +11621,7 @@
         <v>456</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C298" s="1"/>
       <c r="D298" s="1" t="s">
@@ -11474,7 +11647,7 @@
         <v>458</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C299" s="1"/>
       <c r="D299" s="1" t="s">
@@ -11500,7 +11673,7 @@
         <v>460</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C300" s="1"/>
       <c r="D300" s="1" t="s">
@@ -11526,7 +11699,7 @@
         <v>462</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C301" s="1"/>
       <c r="D301" s="1" t="s">
@@ -11552,7 +11725,7 @@
         <v>464</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C302" s="1"/>
       <c r="D302" s="1" t="s">
@@ -11578,7 +11751,7 @@
         <v>466</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C303" s="1"/>
       <c r="D303" s="1" t="s">
@@ -11604,7 +11777,7 @@
         <v>468</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C304" s="1"/>
       <c r="D304" s="1" t="s">
@@ -11630,7 +11803,7 @@
         <v>470</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C305" s="1"/>
       <c r="D305" s="1" t="s">
@@ -11656,7 +11829,7 @@
         <v>472</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C306" s="1"/>
       <c r="D306" s="1" t="s">
@@ -11679,17 +11852,17 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>978</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>979</v>
       </c>
       <c r="C307" s="1"/>
       <c r="D307" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>979</v>
+        <v>1122</v>
       </c>
       <c r="F307" s="1"/>
       <c r="G307" s="2" t="str">
@@ -11708,7 +11881,7 @@
         <v>474</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C308" s="1"/>
       <c r="D308" s="1" t="s">
@@ -11734,7 +11907,7 @@
         <v>476</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C309" s="1"/>
       <c r="D309" s="1" t="s">
@@ -11760,7 +11933,7 @@
         <v>478</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C310" s="1"/>
       <c r="D310" s="1" t="s">
@@ -11786,7 +11959,7 @@
         <v>480</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C311" s="1"/>
       <c r="D311" s="1" t="s">
@@ -11812,7 +11985,7 @@
         <v>482</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C312" s="1"/>
       <c r="D312" s="1" t="s">
@@ -11838,7 +12011,7 @@
         <v>484</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C313" s="1"/>
       <c r="D313" s="1" t="s">
@@ -11864,7 +12037,7 @@
         <v>486</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C314" s="1"/>
       <c r="D314" s="1" t="s">
@@ -11890,7 +12063,7 @@
         <v>487</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C315" s="1"/>
       <c r="D315" s="1" t="s">
@@ -11913,17 +12086,17 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C316" s="1"/>
       <c r="D316" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F316" s="1"/>
       <c r="G316" s="2" t="str">
@@ -11942,7 +12115,7 @@
         <v>489</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C317" s="1"/>
       <c r="D317" s="1" t="s">
@@ -11960,7 +12133,7 @@
         <v>616</v>
       </c>
       <c r="K317" s="1" t="s">
-        <v>617</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.2">
@@ -11968,7 +12141,7 @@
         <v>491</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C318" s="1"/>
       <c r="D318" s="1" t="s">
@@ -11991,17 +12164,17 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>991</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>992</v>
       </c>
       <c r="C319" s="1"/>
       <c r="D319" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>992</v>
+        <v>1123</v>
       </c>
       <c r="F319" s="1"/>
       <c r="G319" s="2" t="str">
@@ -12020,7 +12193,7 @@
         <v>493</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C320" s="1"/>
       <c r="D320" s="1" t="s">
@@ -12046,7 +12219,7 @@
         <v>495</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C321" s="1"/>
       <c r="D321" s="1" t="s">
@@ -12072,7 +12245,7 @@
         <v>497</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C322" s="1"/>
       <c r="D322" s="1" t="s">
@@ -12090,7 +12263,7 @@
         <v>626</v>
       </c>
       <c r="K322" s="1" t="s">
-        <v>627</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.2">
@@ -12098,7 +12271,7 @@
         <v>499</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C323" s="1"/>
       <c r="D323" s="1" t="s">
@@ -12113,7 +12286,7 @@
         <v>磨刀石</v>
       </c>
       <c r="J323" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K323" s="1" t="s">
         <v>590</v>
@@ -12124,7 +12297,7 @@
         <v>501</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C324" s="1"/>
       <c r="D324" s="1" t="s">
@@ -12139,10 +12312,10 @@
         <v>铲子</v>
       </c>
       <c r="J324" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="K324" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="K324" s="1" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.2">
@@ -12150,7 +12323,7 @@
         <v>503</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C325" s="1"/>
       <c r="D325" s="1" t="s">
@@ -12165,10 +12338,10 @@
         <v>简易工具箱</v>
       </c>
       <c r="J325" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="K325" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="K325" s="1" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.2">
@@ -12176,7 +12349,7 @@
         <v>505</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C326" s="1"/>
       <c r="D326" s="1" t="s">
@@ -12191,7 +12364,7 @@
         <v>滑雪靴</v>
       </c>
       <c r="J326" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K326" s="1"/>
     </row>
@@ -12200,7 +12373,7 @@
         <v>507</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C327" s="1"/>
       <c r="D327" s="1" t="s">
@@ -12220,7 +12393,7 @@
         <v>509</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C328" s="1"/>
       <c r="D328" s="1" t="s">
@@ -12240,7 +12413,7 @@
         <v>511</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C329" s="1"/>
       <c r="D329" s="1" t="s">
@@ -12260,7 +12433,7 @@
         <v>513</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C330" s="1"/>
       <c r="D330" s="1" t="s">
@@ -12280,7 +12453,7 @@
         <v>515</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C331" s="1"/>
       <c r="D331" s="1" t="s">
@@ -12300,7 +12473,7 @@
         <v>517</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C332" s="1"/>
       <c r="D332" s="1" t="s">
@@ -12320,7 +12493,7 @@
         <v>519</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C333" s="1"/>
       <c r="D333" s="1" t="s">
@@ -12337,17 +12510,17 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>1008</v>
       </c>
       <c r="C334" s="1"/>
       <c r="D334" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E334" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>1008</v>
       </c>
       <c r="F334" s="1"/>
       <c r="G334" s="2" t="str">
@@ -12360,7 +12533,7 @@
         <v>521</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C335" s="1"/>
       <c r="D335" s="1" t="s">
@@ -12377,17 +12550,17 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>1011</v>
       </c>
       <c r="C336" s="1"/>
       <c r="D336" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E336" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>1011</v>
       </c>
       <c r="F336" s="1"/>
       <c r="G336" s="2" t="str">
@@ -12400,7 +12573,7 @@
         <v>523</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C337" s="1"/>
       <c r="D337" s="1" t="s">
@@ -12420,7 +12593,7 @@
         <v>525</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C338" s="1"/>
       <c r="D338" s="1" t="s">
@@ -12440,7 +12613,7 @@
         <v>527</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C339" s="1"/>
       <c r="D339" s="1" t="s">
@@ -12460,7 +12633,7 @@
         <v>529</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C340" s="1"/>
       <c r="D340" s="1" t="s">
@@ -12480,7 +12653,7 @@
         <v>531</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C341" s="1"/>
       <c r="D341" s="1" t="s">
@@ -12497,17 +12670,17 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B342" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>1018</v>
       </c>
       <c r="C342" s="1"/>
       <c r="D342" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E342" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>1018</v>
       </c>
       <c r="F342" s="1"/>
       <c r="G342" s="2" t="str">
@@ -12520,7 +12693,7 @@
         <v>533</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C343" s="1"/>
       <c r="D343" s="1" t="s">
@@ -12537,17 +12710,17 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B344" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>1021</v>
       </c>
       <c r="C344" s="1"/>
       <c r="D344" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>1021</v>
+        <v>1098</v>
       </c>
       <c r="F344" s="1"/>
       <c r="G344" s="2" t="str">
@@ -12557,17 +12730,17 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C345" s="1"/>
       <c r="D345" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1021</v>
+        <v>1099</v>
       </c>
       <c r="F345" s="1"/>
       <c r="G345" s="2" t="str">
@@ -12580,7 +12753,7 @@
         <v>535</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C346" s="1"/>
       <c r="D346" s="1" t="s">
@@ -12600,7 +12773,7 @@
         <v>537</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C347" s="1"/>
       <c r="D347" s="1" t="s">
@@ -12612,7 +12785,7 @@
       <c r="F347" s="1"/>
       <c r="G347" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>脏水</v>
+        <v>不适合饮用的水</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
@@ -12620,7 +12793,7 @@
         <v>539</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C348" s="1"/>
       <c r="D348" s="1" t="s">
@@ -12632,7 +12805,7 @@
       <c r="F348" s="1"/>
       <c r="G348" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>净水</v>
+        <v>适合饮用的水</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
@@ -12640,7 +12813,7 @@
         <v>541</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C349" s="1"/>
       <c r="D349" s="1" t="s">
@@ -12657,17 +12830,17 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>1028</v>
       </c>
       <c r="C350" s="1"/>
       <c r="D350" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E350" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="E350" s="1" t="s">
-        <v>1028</v>
       </c>
       <c r="F350" s="1"/>
       <c r="G350" s="2" t="str">
@@ -12677,17 +12850,17 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>1029</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>1030</v>
       </c>
       <c r="C351" s="1"/>
       <c r="D351" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E351" s="1" t="s">
         <v>1029</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>1030</v>
       </c>
       <c r="F351" s="1"/>
       <c r="G351" s="2" t="str">
@@ -12697,17 +12870,17 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>1031</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>1032</v>
       </c>
       <c r="C352" s="1"/>
       <c r="D352" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E352" s="1" t="s">
         <v>1031</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>1032</v>
       </c>
       <c r="F352" s="1"/>
       <c r="G352" s="2" t="str">
@@ -12717,17 +12890,17 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B353" s="1" t="s">
         <v>1033</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>1034</v>
       </c>
       <c r="C353" s="1"/>
       <c r="D353" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E353" s="1" t="s">
         <v>1033</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>1034</v>
       </c>
       <c r="F353" s="1"/>
       <c r="G353" s="2" t="str">
@@ -12737,17 +12910,17 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B354" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>1036</v>
       </c>
       <c r="C354" s="1"/>
       <c r="D354" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E354" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>1036</v>
       </c>
       <c r="F354" s="1"/>
       <c r="G354" s="2" t="str">
@@ -12757,17 +12930,17 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B355" s="1" t="s">
         <v>1037</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>1038</v>
       </c>
       <c r="C355" s="1"/>
       <c r="D355" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E355" s="1" t="s">
         <v>1037</v>
-      </c>
-      <c r="E355" s="1" t="s">
-        <v>1038</v>
       </c>
       <c r="F355" s="1"/>
       <c r="G355" s="2" t="str">
@@ -12777,17 +12950,17 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B356" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>1040</v>
       </c>
       <c r="C356" s="1"/>
       <c r="D356" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E356" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="E356" s="1" t="s">
-        <v>1040</v>
       </c>
       <c r="F356" s="1"/>
       <c r="G356" s="2" t="str">
@@ -12800,7 +12973,7 @@
         <v>543</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C357" s="1"/>
       <c r="D357" s="1" t="s">
@@ -12820,7 +12993,7 @@
         <v>545</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C358" s="1"/>
       <c r="D358" s="1" t="s">
@@ -12837,17 +13010,17 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B359" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>1044</v>
       </c>
       <c r="C359" s="1"/>
       <c r="D359" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E359" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>1044</v>
       </c>
       <c r="F359" s="1"/>
       <c r="G359" s="2" t="str">
@@ -12860,7 +13033,7 @@
         <v>547</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C360" s="1"/>
       <c r="D360" s="1" t="s">
@@ -12880,7 +13053,7 @@
         <v>549</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C361" s="1"/>
       <c r="D361" s="1" t="s">
@@ -12900,7 +13073,7 @@
         <v>551</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C362" s="1"/>
       <c r="D362" s="1" t="s">
@@ -12920,7 +13093,7 @@
         <v>552</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C363" s="1"/>
       <c r="D363" s="1" t="s">
@@ -12940,7 +13113,7 @@
         <v>554</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C364" s="1"/>
       <c r="D364" s="1" t="s">
@@ -12960,7 +13133,7 @@
         <v>556</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C365" s="1"/>
       <c r="D365" s="1" t="s">
@@ -12980,7 +13153,7 @@
         <v>558</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C366" s="1"/>
       <c r="D366" s="1" t="s">
@@ -13000,7 +13173,7 @@
         <v>560</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C367" s="1"/>
       <c r="D367" s="1" t="s">
@@ -13020,7 +13193,7 @@
         <v>562</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C368" s="1"/>
       <c r="D368" s="1" t="s">
@@ -13040,7 +13213,7 @@
         <v>564</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C369" s="1"/>
       <c r="D369" s="1" t="s">
@@ -13057,17 +13230,17 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>1056</v>
       </c>
       <c r="C370" s="1"/>
       <c r="D370" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E370" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>1056</v>
       </c>
       <c r="F370" s="1"/>
       <c r="G370" s="2" t="str">
@@ -13117,17 +13290,17 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B373" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>1058</v>
       </c>
       <c r="C373" s="1"/>
       <c r="D373" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E373" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="E373" s="1" t="s">
-        <v>1058</v>
       </c>
       <c r="F373" s="1"/>
       <c r="G373" s="2" t="str">
@@ -13137,17 +13310,17 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B374" s="1" t="s">
         <v>1059</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>1060</v>
       </c>
       <c r="C374" s="1"/>
       <c r="D374" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>1060</v>
+        <v>1097</v>
       </c>
       <c r="F374" s="1"/>
       <c r="G374" s="2" t="str">
@@ -13160,7 +13333,7 @@
         <v>569</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C375" s="1"/>
       <c r="D375" s="1" t="s">
@@ -13180,7 +13353,7 @@
         <v>571</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C376" s="1"/>
       <c r="D376" s="1" t="s">
@@ -13320,7 +13493,7 @@
         <v>583</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C383" s="1"/>
       <c r="D383" s="1" t="s">
@@ -13400,7 +13573,7 @@
         <v>589</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C387" s="1"/>
       <c r="D387" s="1" t="s">
@@ -13420,7 +13593,7 @@
         <v>591</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C388" s="1"/>
       <c r="D388" s="1" t="s">
@@ -13437,17 +13610,17 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B389" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>1064</v>
       </c>
       <c r="C389" s="1"/>
       <c r="D389" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>1064</v>
+        <v>1094</v>
       </c>
       <c r="F389" s="1"/>
       <c r="G389" s="2" t="str">
@@ -13457,17 +13630,17 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C390" s="1"/>
       <c r="D390" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>1065</v>
+        <v>1095</v>
       </c>
       <c r="F390" s="1"/>
       <c r="G390" s="2" t="str">
@@ -13477,17 +13650,17 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B391" s="1" t="s">
         <v>1066</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>1067</v>
       </c>
       <c r="C391" s="1"/>
       <c r="D391" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>1067</v>
+        <v>1096</v>
       </c>
       <c r="F391" s="1"/>
       <c r="G391" s="2" t="str">
@@ -13517,17 +13690,17 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B393" s="1" t="s">
         <v>1068</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>1069</v>
       </c>
       <c r="C393" s="1"/>
       <c r="D393" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E393" s="1" t="s">
         <v>1068</v>
-      </c>
-      <c r="E393" s="1" t="s">
-        <v>1069</v>
       </c>
       <c r="F393" s="1"/>
       <c r="G393" s="2" t="str">
@@ -13540,7 +13713,7 @@
         <v>594</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C394" s="1"/>
       <c r="D394" s="1" t="s">
@@ -13557,17 +13730,17 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B395" s="1" t="s">
         <v>1071</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>1072</v>
       </c>
       <c r="C395" s="1"/>
       <c r="D395" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E395" s="1" t="s">
         <v>1071</v>
-      </c>
-      <c r="E395" s="1" t="s">
-        <v>1072</v>
       </c>
       <c r="F395" s="1"/>
       <c r="G395" s="2" t="str">
@@ -13597,17 +13770,17 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C397" s="1"/>
       <c r="D397" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="F397" s="1"/>
       <c r="G397" s="2" t="str">
@@ -13657,17 +13830,17 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B400" s="1" t="s">
         <v>1074</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>1075</v>
       </c>
       <c r="C400" s="1"/>
       <c r="D400" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>1075</v>
+        <v>1092</v>
       </c>
       <c r="F400" s="1"/>
       <c r="G400" s="2" t="str">
@@ -13697,17 +13870,17 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C402" s="1"/>
       <c r="D402" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>1076</v>
+        <v>1091</v>
       </c>
       <c r="F402" s="1"/>
       <c r="G402" s="2" t="str">
@@ -13740,7 +13913,7 @@
         <v>606</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C404" s="1"/>
       <c r="D404" s="1" t="s">
@@ -13760,7 +13933,7 @@
         <v>608</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C405" s="1"/>
       <c r="D405" s="1" t="s">
@@ -13780,7 +13953,7 @@
         <v>610</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C406" s="1"/>
       <c r="D406" s="1" t="s">
@@ -13817,17 +13990,17 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B408" s="1" t="s">
         <v>1080</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>1081</v>
       </c>
       <c r="C408" s="1"/>
       <c r="D408" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>1081</v>
+        <v>1090</v>
       </c>
       <c r="F408" s="1"/>
       <c r="G408" s="2" t="str">
@@ -13872,7 +14045,7 @@
       <c r="F410" s="1"/>
       <c r="G410" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>技能点</v>
+        <v>技能</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
@@ -13880,7 +14053,7 @@
         <v>618</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C411" s="1"/>
       <c r="D411" s="1" t="s">
@@ -13900,7 +14073,7 @@
         <v>620</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C412" s="1"/>
       <c r="D412" s="1" t="s">
@@ -13940,7 +14113,7 @@
         <v>624</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C414" s="1"/>
       <c r="D414" s="1" t="s">
@@ -13960,31 +14133,31 @@
         <v>626</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C415" s="1"/>
       <c r="D415" s="1" t="s">
         <v>626</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F415" s="1"/>
       <c r="G415" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>The Long Dark 漫漫长夜 (v.388) 存档编辑器中文版 汉化：Duguy1xuan &amp; shiyuwuci</v>
+        <v>The Long Dark 漫漫长夜 (v.1.05) 存档编辑器中文版 汉化：Chasel  版本</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C416" s="1"/>
       <c r="D416" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>590</v>
@@ -13997,17 +14170,17 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C417" s="1"/>
       <c r="D417" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E417" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="E417" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="F417" s="1"/>
       <c r="G417" s="2" t="str">
@@ -14017,17 +14190,17 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C418" s="1"/>
       <c r="D418" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E418" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="E418" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="F418" s="1"/>
       <c r="G418" s="2" t="str">
@@ -14037,17 +14210,17 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B419" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>1087</v>
       </c>
       <c r="C419" s="1"/>
       <c r="D419" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="F419" s="1"/>
       <c r="G419" s="2" t="str">
@@ -14057,12 +14230,12 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E420" s="1">
         <v>0</v>

--- a/The_Long_Dark_Save_Editor_2.xlsx
+++ b/The_Long_Dark_Save_Editor_2.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16290" windowHeight="6765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="16295" windowHeight="6767"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172">
   <si>
     <t>ID</t>
   </si>
@@ -789,7 +784,7 @@
     <t>Green Birch Sapling</t>
   </si>
   <si>
-    <t>绿色桦木苗</t>
+    <t>绿色桦树苗</t>
   </si>
   <si>
     <t>GEAR_BirchSaplingDried</t>
@@ -798,7 +793,7 @@
     <t>Cured Birch Sapling</t>
   </si>
   <si>
-    <t>风干的桦木苗</t>
+    <t>风干的桦树苗</t>
   </si>
   <si>
     <t>GEAR_BloodyHammer</t>
@@ -1083,2116 +1078,2119 @@
     <t>Cargo Pants</t>
   </si>
   <si>
+    <t>工装裤</t>
+  </si>
+  <si>
+    <t>GEAR_CattailPlant</t>
+  </si>
+  <si>
+    <t>Cat Tail Plant</t>
+  </si>
+  <si>
+    <t>香蒲</t>
+  </si>
+  <si>
+    <t>GEAR_CattailStalk</t>
+  </si>
+  <si>
+    <t>Cat Tail Stalk</t>
+  </si>
+  <si>
+    <t>香蒲茎干</t>
+  </si>
+  <si>
+    <t>GEAR_CattailTinder</t>
+  </si>
+  <si>
+    <t>Cat Tail Head</t>
+  </si>
+  <si>
+    <t>香蒲头部</t>
+  </si>
+  <si>
+    <t>GEAR_CaveCacheNote</t>
+  </si>
+  <si>
+    <t>Cave Hidden Cache Note</t>
+  </si>
+  <si>
+    <t>洞穴隐藏补给处</t>
+  </si>
+  <si>
+    <t>GEAR_Charcoal</t>
+  </si>
+  <si>
+    <t>Charcoal</t>
+  </si>
+  <si>
+    <t>木炭</t>
+  </si>
+  <si>
+    <t>GEAR_ChurchHymn</t>
+  </si>
+  <si>
+    <t>Church Hymn</t>
+  </si>
+  <si>
+    <t>石头教堂</t>
+  </si>
+  <si>
+    <t>GEAR_ChurchNoteEP1</t>
+  </si>
+  <si>
+    <t>Church Note EP 1</t>
+  </si>
+  <si>
+    <t>教堂信息 EP 1</t>
+  </si>
+  <si>
+    <t>GEAR_ClimbersJournal</t>
+  </si>
+  <si>
+    <t>Climber's Journal Page</t>
+  </si>
+  <si>
+    <t>攀岩者的日志</t>
+  </si>
+  <si>
+    <t>GEAR_ClimbingSocks</t>
+  </si>
+  <si>
+    <t>Climbing Socks</t>
+  </si>
+  <si>
+    <t>登山袜</t>
+  </si>
+  <si>
+    <t>GEAR_Cloth</t>
+  </si>
+  <si>
+    <t>Cloth</t>
+  </si>
+  <si>
+    <t>布料</t>
+  </si>
+  <si>
+    <t>GEAR_Coal</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>煤块</t>
+  </si>
+  <si>
+    <t>GEAR_CoffeeCup</t>
+  </si>
+  <si>
+    <t>Cup of Coffee</t>
+  </si>
+  <si>
+    <t>一杯咖啡</t>
+  </si>
+  <si>
+    <t>GEAR_CoffeeTin</t>
+  </si>
+  <si>
+    <t>Tin of Coffee</t>
+  </si>
+  <si>
+    <t>一罐咖啡</t>
+  </si>
+  <si>
+    <t>GEAR_CollectibleNoteCommonReward</t>
+  </si>
+  <si>
+    <t>Collectible Note Common</t>
+  </si>
+  <si>
+    <t>普通的可收藏信息</t>
+  </si>
+  <si>
+    <t>GEAR_CollectibleNoteRareReward</t>
+  </si>
+  <si>
+    <t>GEAR_CombatBoots</t>
+  </si>
+  <si>
+    <t>Combat Boots</t>
+  </si>
+  <si>
+    <t>军靴</t>
+  </si>
+  <si>
+    <t>GEAR_CombatPants</t>
+  </si>
+  <si>
+    <t>Combat Pants</t>
+  </si>
+  <si>
+    <t>军裤</t>
+  </si>
+  <si>
+    <t>GEAR_CompressionBandage</t>
+  </si>
+  <si>
+    <t>Compression Bandage</t>
+  </si>
+  <si>
+    <t>压迫绷带</t>
+  </si>
+  <si>
+    <t>GEAR_CondensedMilk</t>
+  </si>
+  <si>
+    <t>Condensed Milk</t>
+  </si>
+  <si>
+    <t>炼乳</t>
+  </si>
+  <si>
+    <t>GEAR_CookedCohoSalmon</t>
+  </si>
+  <si>
+    <t>Coho Salmon (Cooked)</t>
+  </si>
+  <si>
+    <t>银大马哈鱼(已烤熟)</t>
+  </si>
+  <si>
+    <t>GEAR_CookedLakeWhiteFish</t>
+  </si>
+  <si>
+    <t>Lake Whitefish (Cooked)</t>
+  </si>
+  <si>
+    <t>白鲑 (已烤熟)</t>
+  </si>
+  <si>
+    <t>GEAR_CookedMeatBear</t>
+  </si>
+  <si>
+    <t>Bear Meat (Cooked)</t>
+  </si>
+  <si>
+    <t>熊肉 (已烤熟)</t>
+  </si>
+  <si>
+    <t>GEAR_CookedMeatDeer</t>
+  </si>
+  <si>
+    <t>Venison (Cooked)</t>
+  </si>
+  <si>
+    <t>鹿肉 (已烤熟)</t>
+  </si>
+  <si>
+    <t>GEAR_CookedMeatRabbit</t>
+  </si>
+  <si>
+    <t>Rabbit (Cooked)</t>
+  </si>
+  <si>
+    <t>兔肉 (已烤熟)</t>
+  </si>
+  <si>
+    <t>GEAR_CookedMeatWolf</t>
+  </si>
+  <si>
+    <t>Wolf Meat (Cooked)</t>
+  </si>
+  <si>
+    <t>狼肉 (已烤熟)</t>
+  </si>
+  <si>
+    <t>GEAR_CookedRainbowTrout</t>
+  </si>
+  <si>
+    <t>Rainbow Trout (Cooked)</t>
+  </si>
+  <si>
+    <t>虹鳟鱼 (已烤熟)</t>
+  </si>
+  <si>
+    <t>GEAR_CookedSmallMouthBass</t>
+  </si>
+  <si>
+    <t>Smallmouth Bass (Cooked)</t>
+  </si>
+  <si>
+    <t>小嘴鲈鱼 (已烤熟)</t>
+  </si>
+  <si>
+    <t>GEAR_CottonHoodie</t>
+  </si>
+  <si>
+    <t>Hoodie</t>
+  </si>
+  <si>
+    <t>连帽衫</t>
+  </si>
+  <si>
+    <t>GEAR_CottonScarf</t>
+  </si>
+  <si>
+    <t>Cotton Scarf</t>
+  </si>
+  <si>
+    <t>棉毛围巾</t>
+  </si>
+  <si>
+    <t>GEAR_CottonShirt</t>
+  </si>
+  <si>
+    <t>Dress Shirt</t>
+  </si>
+  <si>
+    <t>衬衫</t>
+  </si>
+  <si>
+    <t>GEAR_CottonSocks</t>
+  </si>
+  <si>
+    <t>Sports Socks</t>
+  </si>
+  <si>
+    <t>运动袜</t>
+  </si>
+  <si>
+    <t>GEAR_CowichanSweater</t>
+  </si>
+  <si>
+    <t>Cowichan Sweater</t>
+  </si>
+  <si>
+    <t>印第安式厚毛衣</t>
+  </si>
+  <si>
+    <t>GEAR_Crackers</t>
+  </si>
+  <si>
+    <t>Salty Crackers</t>
+  </si>
+  <si>
+    <t>咸饼干</t>
+  </si>
+  <si>
+    <t>GEAR_CrowFeather</t>
+  </si>
+  <si>
+    <t>Crow Feather</t>
+  </si>
+  <si>
+    <t>乌鸦羽毛</t>
+  </si>
+  <si>
+    <t>GEAR_DamCodeNote</t>
+  </si>
+  <si>
+    <t>Dam Code Note</t>
+  </si>
+  <si>
+    <t>大坝代码信息</t>
+  </si>
+  <si>
+    <t>GEAR_DamControlRoomCodeNote</t>
+  </si>
+  <si>
+    <t>Dam Control Room Code Note</t>
+  </si>
+  <si>
+    <t>大坝控制室代码信息</t>
+  </si>
+  <si>
+    <t>GEAR_DamOfficeKey</t>
+  </si>
+  <si>
+    <t>Dam Office Key</t>
+  </si>
+  <si>
+    <t>大坝办公室关键词</t>
+  </si>
+  <si>
+    <t>GEAR_DeerSkinBoots</t>
+  </si>
+  <si>
+    <t>Deerskin Boots</t>
+  </si>
+  <si>
+    <t>鹿皮靴</t>
+  </si>
+  <si>
+    <t>GEAR_DeerSkinPants</t>
+  </si>
+  <si>
+    <t>Deerskin Pants</t>
+  </si>
+  <si>
+    <t>鹿皮裤</t>
+  </si>
+  <si>
+    <t>GEAR_DogFood</t>
+  </si>
+  <si>
+    <t>Dog Food</t>
+  </si>
+  <si>
+    <t>狗粮</t>
+  </si>
+  <si>
+    <t>GEAR_DownParka</t>
+  </si>
+  <si>
+    <t>Urban Parka</t>
+  </si>
+  <si>
+    <t>城市风雪大衣</t>
+  </si>
+  <si>
+    <t>GEAR_DownSkiJacket</t>
+  </si>
+  <si>
+    <t>Ski Jacket</t>
+  </si>
+  <si>
+    <t>羽绒滑雪衫</t>
+  </si>
+  <si>
+    <t>GEAR_DownVest</t>
+  </si>
+  <si>
+    <t>Down Vest</t>
+  </si>
+  <si>
+    <t>羽绒背心</t>
+  </si>
+  <si>
+    <t>GEAR_EarMuffs</t>
+  </si>
+  <si>
+    <t>Wool Ear Wrap</t>
+  </si>
+  <si>
+    <t>羊毛耳套</t>
+  </si>
+  <si>
+    <t>GEAR_EmergencyKitNote</t>
+  </si>
+  <si>
+    <t>Emergency Kit Note</t>
+  </si>
+  <si>
+    <t>信号枪箱信息</t>
+  </si>
+  <si>
+    <t>GEAR_EmergencyStim</t>
+  </si>
+  <si>
+    <t>Emergency Stim</t>
+  </si>
+  <si>
+    <t>强心针</t>
+  </si>
+  <si>
+    <t>GEAR_EnergyBar</t>
+  </si>
+  <si>
+    <t>Energy Bar</t>
+  </si>
+  <si>
+    <t>士力架 (能量棒)</t>
+  </si>
+  <si>
+    <t>GEAR_FarmerDepositBoxKey</t>
+  </si>
+  <si>
+    <t>Bank Deposit Box Key (#15)</t>
+  </si>
+  <si>
+    <t>银行保管箱钥匙 (#15)</t>
+  </si>
+  <si>
+    <t>GEAR_FarmersAlmanac</t>
+  </si>
+  <si>
+    <t>Farmer's Almanac</t>
+  </si>
+  <si>
+    <t>年历</t>
+  </si>
+  <si>
+    <t>GEAR_FireAxe</t>
+  </si>
+  <si>
+    <t>Fire Axe</t>
+  </si>
+  <si>
+    <t>消防斧</t>
+  </si>
+  <si>
+    <t>GEAR_Firelog</t>
+  </si>
+  <si>
+    <t>Firelog</t>
+  </si>
+  <si>
+    <t>加工木材</t>
+  </si>
+  <si>
+    <t>GEAR_Firestriker</t>
+  </si>
+  <si>
+    <t>Firestriker</t>
+  </si>
+  <si>
+    <t>打火机</t>
+  </si>
+  <si>
+    <t>GEAR_FirstAidManual</t>
+  </si>
+  <si>
+    <t>First Aid Manual</t>
+  </si>
+  <si>
+    <t>GEAR_FishermanSweater</t>
+  </si>
+  <si>
+    <t>Fisherman's Sweater</t>
+  </si>
+  <si>
+    <t>渔夫毛衣</t>
+  </si>
+  <si>
+    <t>GEAR_FishingLine</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>鱼线</t>
+  </si>
+  <si>
+    <t>GEAR_FixedRifle</t>
+  </si>
+  <si>
+    <t>Jeremiah's Repaired Rifle</t>
+  </si>
+  <si>
+    <t>耶利米的步枪</t>
+  </si>
+  <si>
+    <t>GEAR_FlareA</t>
+  </si>
+  <si>
+    <t>Flare</t>
+  </si>
+  <si>
+    <t>信号棒</t>
+  </si>
+  <si>
+    <t>GEAR_FlareGun</t>
+  </si>
+  <si>
+    <t>Distress Pistol</t>
+  </si>
+  <si>
+    <t>信号枪</t>
+  </si>
+  <si>
+    <t>GEAR_FlareGunAmmoSingle</t>
+  </si>
+  <si>
+    <t>Flare Shell</t>
+  </si>
+  <si>
+    <t>照明弹 (信号弹)</t>
+  </si>
+  <si>
+    <t>GEAR_Flashlight</t>
+  </si>
+  <si>
+    <t>Flashlight</t>
+  </si>
+  <si>
+    <t>手电</t>
+  </si>
+  <si>
+    <t>GEAR_FleeceMittens</t>
+  </si>
+  <si>
+    <t>Fleece Mittens</t>
+  </si>
+  <si>
+    <t>羊毛手套</t>
+  </si>
+  <si>
+    <t>GEAR_FleeceSweater</t>
+  </si>
+  <si>
+    <t>Sweatshirt</t>
+  </si>
+  <si>
+    <t>羊毛衫</t>
+  </si>
+  <si>
+    <t>GEAR_FlintAndSteel</t>
+  </si>
+  <si>
+    <t>Flint &amp; Steel</t>
+  </si>
+  <si>
+    <t>燧石 (打火石)</t>
+  </si>
+  <si>
+    <t>GEAR_ForestTalkerFlyer</t>
+  </si>
+  <si>
+    <t>Forest Talker Flyer</t>
+  </si>
+  <si>
+    <t>森林代言人的传单</t>
+  </si>
+  <si>
+    <t>GEAR_ForestTalkerHiddenItem</t>
+  </si>
+  <si>
+    <t>Forest Talker Documents</t>
+  </si>
+  <si>
+    <t>森林代言人的文件</t>
+  </si>
+  <si>
+    <t>GEAR_ForestTalkerMap</t>
+  </si>
+  <si>
+    <t>Forest Talker Map Note</t>
+  </si>
+  <si>
+    <t>森林代言人地图提示</t>
+  </si>
+  <si>
+    <t>GEAR_ForestTalkerThankyou</t>
+  </si>
+  <si>
+    <t>Forest Talker Note</t>
+  </si>
+  <si>
+    <t>森林代言人便条</t>
+  </si>
+  <si>
+    <t>GEAR_ForestTalkerThankyou2</t>
+  </si>
+  <si>
+    <t>GEAR_ForgeBlueprints</t>
+  </si>
+  <si>
+    <t>Forge Blueprints</t>
+  </si>
+  <si>
+    <t>锻造蓝图</t>
+  </si>
+  <si>
+    <t>GEAR_Gauntlets</t>
+  </si>
+  <si>
+    <t>Gauntlets</t>
+  </si>
+  <si>
+    <t>长手套</t>
+  </si>
+  <si>
+    <t>GEAR_GranolaBar</t>
+  </si>
+  <si>
+    <t>Granola Bar</t>
+  </si>
+  <si>
+    <t>格兰诺拉燕麦卷</t>
+  </si>
+  <si>
+    <t>GEAR_GreenTeaCup</t>
+  </si>
+  <si>
+    <t>Cup of Herbal Tea</t>
+  </si>
+  <si>
+    <t>一杯花茶</t>
+  </si>
+  <si>
+    <t>GEAR_GreenTeaPackage</t>
+  </si>
+  <si>
+    <t>Herbal Tea</t>
+  </si>
+  <si>
+    <t>一罐花茶</t>
+  </si>
+  <si>
+    <t>GEAR_GreyMotherBoots</t>
+  </si>
+  <si>
+    <t>Mountaineering Boots</t>
+  </si>
+  <si>
+    <t>登山靴</t>
+  </si>
+  <si>
+    <t>GEAR_GreyMotherPearls</t>
+  </si>
+  <si>
+    <t>Grey Mother's Pearls</t>
+  </si>
+  <si>
+    <t>灰色母亲的珠宝</t>
+  </si>
+  <si>
+    <t>GEAR_GreyMotherTrunkKey</t>
+  </si>
+  <si>
+    <t>Lily's Trunk Key</t>
+  </si>
+  <si>
+    <t>莉莉的储物箱钥匙</t>
+  </si>
+  <si>
+    <t>GEAR_Gut</t>
+  </si>
+  <si>
+    <t>Fresh Gut</t>
+  </si>
+  <si>
+    <t>新鲜的内脏</t>
+  </si>
+  <si>
+    <t>GEAR_GutDried</t>
+  </si>
+  <si>
+    <t>Cured Gut</t>
+  </si>
+  <si>
+    <t>已风干的内脏</t>
+  </si>
+  <si>
+    <t>GEAR_Hacksaw</t>
+  </si>
+  <si>
+    <t>Hacksaw</t>
+  </si>
+  <si>
+    <t>钢锯</t>
+  </si>
+  <si>
+    <t>GEAR_Hammer</t>
+  </si>
+  <si>
+    <t>Heavy Hammer</t>
+  </si>
+  <si>
+    <t>重锤</t>
+  </si>
+  <si>
+    <t>GEAR_HankHatchCode</t>
+  </si>
+  <si>
+    <t>Hank's Prepper Cache Code</t>
+  </si>
+  <si>
+    <t>汉克的应急舱</t>
+  </si>
+  <si>
+    <t>GEAR_HankJournal2</t>
+  </si>
+  <si>
+    <t>Hank's Journal - Part Two</t>
+  </si>
+  <si>
+    <t>汉克的日记 第二部分</t>
+  </si>
+  <si>
+    <t>GEAR_HankNeiceLetter</t>
+  </si>
+  <si>
+    <t>Letter for Hank's Neice</t>
+  </si>
+  <si>
+    <t>给汉克侄女的信</t>
+  </si>
+  <si>
+    <t>GEAR_HardCase</t>
+  </si>
+  <si>
+    <t>Astrid's Hardcase</t>
+  </si>
+  <si>
+    <t>硬木</t>
+  </si>
+  <si>
+    <t>GEAR_Hardwood</t>
+  </si>
+  <si>
+    <t>Fir Firewood</t>
+  </si>
+  <si>
+    <t>冷杉木</t>
+  </si>
+  <si>
+    <t>GEAR_Hatchet</t>
+  </si>
+  <si>
+    <t>Hatchet</t>
+  </si>
+  <si>
+    <t>斧头</t>
+  </si>
+  <si>
+    <t>GEAR_HatchetImprovised</t>
+  </si>
+  <si>
+    <t>Improvised Hatchet</t>
+  </si>
+  <si>
+    <t>简易短斧</t>
+  </si>
+  <si>
+    <t>GEAR_HC_EP1_FM_TreeRoots_Dir</t>
+  </si>
+  <si>
+    <t>Charcoal Note</t>
+  </si>
+  <si>
+    <t>炭笔便条</t>
+  </si>
+  <si>
+    <t>GEAR_HC_EP1_ML_AlansCave_Dir</t>
+  </si>
+  <si>
+    <t>Crumpled Note</t>
+  </si>
+  <si>
+    <t>褶皱的便条</t>
+  </si>
+  <si>
+    <t>GEAR_HC_EP1_ML_ClearCut_Dir</t>
+  </si>
+  <si>
+    <t>Simple Note</t>
+  </si>
+  <si>
+    <t>简单的便条</t>
+  </si>
+  <si>
+    <t>GEAR_HC_EP1_ML_TracksEnt_Dir</t>
+  </si>
+  <si>
+    <t>Illegible Note</t>
+  </si>
+  <si>
+    <t>字迹模糊的便条</t>
+  </si>
+  <si>
+    <t>GEAR_HC_EP1_RW_HunterLodge_Dir</t>
+  </si>
+  <si>
+    <t>Handwritten Note</t>
+  </si>
+  <si>
+    <t>手写便条</t>
+  </si>
+  <si>
+    <t>GEAR_HC_EP1_RW_RavineEnd_Dir</t>
+  </si>
+  <si>
+    <t>Blood Soaked Note</t>
+  </si>
+  <si>
+    <t>沾染鲜血的便条</t>
+  </si>
+  <si>
+    <t>GEAR_HeavyBandage</t>
+  </si>
+  <si>
+    <t>Bandage</t>
+  </si>
+  <si>
+    <t>绷带</t>
+  </si>
+  <si>
+    <t>GEAR_HeavyParka</t>
+  </si>
+  <si>
+    <t>Old Fashioned Parka</t>
+  </si>
+  <si>
+    <t>老式风雪大衣</t>
+  </si>
+  <si>
+    <t>GEAR_HeavyWoolSweater</t>
+  </si>
+  <si>
+    <t>Thick Wool Sweater</t>
+  </si>
+  <si>
+    <t>厚羊毛衫</t>
+  </si>
+  <si>
+    <t>GEAR_HighQualityTools</t>
+  </si>
+  <si>
+    <t>Quality Tools</t>
+  </si>
+  <si>
+    <t>高级工具箱</t>
+  </si>
+  <si>
+    <t>GEAR_HikersBackPack</t>
+  </si>
+  <si>
+    <t>Hiker's Backpack</t>
+  </si>
+  <si>
+    <t>徒步旅行者的背包</t>
+  </si>
+  <si>
+    <t>GEAR_Hook</t>
+  </si>
+  <si>
+    <t>Hook</t>
+  </si>
+  <si>
+    <t>鱼钩</t>
+  </si>
+  <si>
+    <t>GEAR_HookAndLine</t>
+  </si>
+  <si>
+    <t>Fishing Tackle</t>
+  </si>
+  <si>
+    <t>渔具</t>
+  </si>
+  <si>
+    <t>GEAR_HunterJournalPage</t>
+  </si>
+  <si>
+    <t>Hunter Journal Page</t>
+  </si>
+  <si>
+    <t>猎人日志</t>
+  </si>
+  <si>
+    <t>GEAR_InsulatedBoots</t>
+  </si>
+  <si>
+    <t>Insulated Boots</t>
+  </si>
+  <si>
+    <t>橡胶靴</t>
+  </si>
+  <si>
+    <t>GEAR_InsulatedPants</t>
+  </si>
+  <si>
+    <t>Snow Pants</t>
+  </si>
+  <si>
+    <t>雪地裤 (雪花裤)</t>
+  </si>
+  <si>
+    <t>GEAR_InsulatedVest</t>
+  </si>
+  <si>
+    <t>Sport Vest</t>
+  </si>
+  <si>
+    <t>防水马甲</t>
+  </si>
+  <si>
+    <t>GEAR_Jeans</t>
+  </si>
+  <si>
+    <t>Jeans</t>
+  </si>
+  <si>
+    <t>牛仔裤</t>
+  </si>
+  <si>
+    <t>GEAR_JeremiahKnife</t>
+  </si>
+  <si>
+    <t>Jeremiah's Knife</t>
+  </si>
+  <si>
+    <t>耶利米的小刀</t>
+  </si>
+  <si>
+    <t>GEAR_JeremiahsCoat</t>
+  </si>
+  <si>
+    <t>Jeremiah's Bearskin Coat</t>
+  </si>
+  <si>
+    <t>耶利米的熊皮大衣</t>
+  </si>
+  <si>
+    <t>GEAR_JerrycanRusty</t>
+  </si>
+  <si>
+    <t>Jerry Can</t>
+  </si>
+  <si>
+    <t>油桶</t>
+  </si>
+  <si>
+    <t>GEAR_KeroseneLampB</t>
+  </si>
+  <si>
+    <t>Storm Lantern</t>
+  </si>
+  <si>
+    <t>防风油灯</t>
+  </si>
+  <si>
+    <t>GEAR_Knife</t>
+  </si>
+  <si>
+    <t>Hunting Knife</t>
+  </si>
+  <si>
+    <t>捕猎者小刀</t>
+  </si>
+  <si>
+    <t>GEAR_KnifeImprovised</t>
+  </si>
+  <si>
+    <t>Improvised Knife</t>
+  </si>
+  <si>
+    <t>简易小刀</t>
+  </si>
+  <si>
+    <t>GEAR_KnifeScrapMetal</t>
+  </si>
+  <si>
+    <t>Scrap Metal Shard</t>
+  </si>
+  <si>
+    <t>小刀废金属</t>
+  </si>
+  <si>
+    <t>GEAR_KnifeScrapMetal_Clean</t>
+  </si>
+  <si>
+    <t>Knife Scrap Metal Clean</t>
+  </si>
+  <si>
+    <t>干净的小刀废金属</t>
+  </si>
+  <si>
+    <t>GEAR_LakeTrailerKey1</t>
+  </si>
+  <si>
+    <t>Logging Camp Trailer Key</t>
+  </si>
+  <si>
+    <t>伐木营地活动房钥匙</t>
+  </si>
+  <si>
+    <t>GEAR_LampFuel</t>
+  </si>
+  <si>
+    <t>Lantern Fuel</t>
+  </si>
+  <si>
+    <t>灯油</t>
+  </si>
+  <si>
+    <t>GEAR_LampFuelFull</t>
+  </si>
+  <si>
+    <t>GEAR_Leather</t>
+  </si>
+  <si>
+    <t>Fresh Leather</t>
+  </si>
+  <si>
+    <t>皮革</t>
+  </si>
+  <si>
+    <t>GEAR_LeatherDried</t>
+  </si>
+  <si>
+    <t>Cured Leather</t>
+  </si>
+  <si>
+    <t>已加工的皮革</t>
+  </si>
+  <si>
+    <t>GEAR_LeatherHide</t>
+  </si>
+  <si>
+    <t>Fresh Deer Hide</t>
+  </si>
+  <si>
+    <t>新鲜的鹿皮</t>
+  </si>
+  <si>
+    <t>GEAR_LeatherHideDried</t>
+  </si>
+  <si>
+    <t>Cured Deer Hide</t>
+  </si>
+  <si>
+    <t>鞣制的鹿皮</t>
+  </si>
+  <si>
+    <t>GEAR_LeatherShoes</t>
+  </si>
+  <si>
+    <t>Leather Shoes</t>
+  </si>
+  <si>
+    <t>皮鞋</t>
+  </si>
+  <si>
+    <t>GEAR_LeatherStrips</t>
+  </si>
+  <si>
+    <t>新鲜的皮革</t>
+  </si>
+  <si>
+    <t>GEAR_LetterBundle</t>
+  </si>
+  <si>
+    <t>Jeremiah's Letters</t>
+  </si>
+  <si>
+    <t>耶利米的信件</t>
+  </si>
+  <si>
+    <t>GEAR_LightParka</t>
+  </si>
+  <si>
+    <t>Simple Parka</t>
+  </si>
+  <si>
+    <t>薄派克大衣</t>
+  </si>
+  <si>
+    <t>GEAR_Line</t>
+  </si>
+  <si>
+    <t>线</t>
+  </si>
+  <si>
+    <t>GEAR_LongUnderwear</t>
+  </si>
+  <si>
+    <t>Thermal Underwear</t>
+  </si>
+  <si>
+    <t>保暖内衣</t>
+  </si>
+  <si>
+    <t>GEAR_LongUnderwearWool</t>
+  </si>
+  <si>
+    <t>Wool Longjohns</t>
+  </si>
+  <si>
+    <t>羊毛裤</t>
+  </si>
+  <si>
+    <t>GEAR_MackinawJacket</t>
+  </si>
+  <si>
+    <t>Mackinaw Jacket</t>
+  </si>
+  <si>
+    <t>麦基诺呢厚夹克</t>
+  </si>
+  <si>
+    <t>GEAR_MagnifyingLens</t>
+  </si>
+  <si>
+    <t>Magnifying Lens</t>
+  </si>
+  <si>
+    <t>放大镜</t>
+  </si>
+  <si>
+    <t>GEAR_MapleSapling</t>
+  </si>
+  <si>
+    <t>Green Maple Sapling</t>
+  </si>
+  <si>
+    <t>绿色枫树苗</t>
+  </si>
+  <si>
+    <t>GEAR_MapleSaplingDried</t>
+  </si>
+  <si>
+    <t>Cured Maple Sapling</t>
+  </si>
+  <si>
+    <t>已风干的枫树苗</t>
+  </si>
+  <si>
+    <t>GEAR_MapSnippetMt</t>
+  </si>
+  <si>
+    <t>Map Snippet Mt</t>
+  </si>
+  <si>
+    <t>地图片段 Mt</t>
+  </si>
+  <si>
+    <t>GEAR_MapToRailyard</t>
+  </si>
+  <si>
+    <t>Map To Railyard</t>
+  </si>
+  <si>
+    <t>映射至 Railyard</t>
+  </si>
+  <si>
+    <t>GEAR_MedicalSupplies</t>
+  </si>
+  <si>
+    <t>Carter Hydro Medical Supplies</t>
+  </si>
+  <si>
+    <t>药品</t>
+  </si>
+  <si>
+    <t>GEAR_MilitaryParka</t>
+  </si>
+  <si>
+    <t>Military Coat</t>
+  </si>
+  <si>
+    <t>军大衣</t>
+  </si>
+  <si>
+    <t>GEAR_MiltonDepositBoxKey1</t>
+  </si>
+  <si>
+    <t>Bank Deposit Box Key (#7)</t>
+  </si>
+  <si>
+    <t>银行保管箱钥匙 (#7)</t>
+  </si>
+  <si>
+    <t>GEAR_MiltonDepositBoxKey2</t>
+  </si>
+  <si>
+    <t>Bank Deposit Box Key (#13)</t>
+  </si>
+  <si>
+    <t>银行保管箱钥匙 (#13)</t>
+  </si>
+  <si>
+    <t>GEAR_MiltonDepositBoxKey3</t>
+  </si>
+  <si>
+    <t>Bank Deposit Box Key (#20)</t>
+  </si>
+  <si>
+    <t>银行保管箱钥匙 (#20)</t>
+  </si>
+  <si>
+    <t>GEAR_Mittens</t>
+  </si>
+  <si>
+    <t>Wool Mittens</t>
+  </si>
+  <si>
+    <t>羊毛连指手套</t>
+  </si>
+  <si>
+    <t>GEAR_Morphine</t>
+  </si>
+  <si>
+    <t>Morphine</t>
+  </si>
+  <si>
+    <t>吗啡</t>
+  </si>
+  <si>
+    <t>GEAR_MountainTownFarmKey</t>
+  </si>
+  <si>
+    <t>Paradise Meadows Farm Key</t>
+  </si>
+  <si>
+    <t>“天堂草地”农场钥匙</t>
+  </si>
+  <si>
+    <t>GEAR_MountainTownFarmNote</t>
+  </si>
+  <si>
+    <t>Mountain Town Farm Note</t>
+  </si>
+  <si>
+    <t>山间小镇农场信息</t>
+  </si>
+  <si>
+    <t>GEAR_MountainTownLockBoxKey</t>
+  </si>
+  <si>
+    <t>Mountain Town Lock Box Key</t>
+  </si>
+  <si>
+    <t>山间小镇上锁箱子钥匙</t>
+  </si>
+  <si>
+    <t>GEAR_MountainTownMap</t>
+  </si>
+  <si>
+    <t>Mountain Town Map</t>
+  </si>
+  <si>
+    <t>山间小镇地图</t>
+  </si>
+  <si>
+    <t>GEAR_MountainTownStoreKey</t>
+  </si>
+  <si>
+    <t>Mountain Town Store Key</t>
+  </si>
+  <si>
+    <t>山间小镇商店钥匙</t>
+  </si>
+  <si>
+    <t>GEAR_MRE</t>
+  </si>
+  <si>
+    <t>Military-Grade MRE</t>
+  </si>
+  <si>
+    <t>军用速食口粮</t>
+  </si>
+  <si>
+    <t>GEAR_MuklukBoots</t>
+  </si>
+  <si>
+    <t>Mukluks</t>
+  </si>
+  <si>
+    <t>雪地靴</t>
+  </si>
+  <si>
+    <t>GEAR_Newsprint</t>
+  </si>
+  <si>
+    <t>Newsprint</t>
+  </si>
+  <si>
+    <t>报纸</t>
+  </si>
+  <si>
+    <t>GEAR_NewsprintRoll</t>
+  </si>
+  <si>
+    <t>Newsprint Roll</t>
+  </si>
+  <si>
+    <t>一卷报纸</t>
+  </si>
+  <si>
+    <t>GEAR_OldLadyStolenItem</t>
+  </si>
+  <si>
+    <t>Grey Mother's Safety Deposit Box</t>
+  </si>
+  <si>
+    <t>灰色母亲的保险箱</t>
+  </si>
+  <si>
+    <t>GEAR_OldMansBeardDressing</t>
+  </si>
+  <si>
+    <t>Old Man's Beard Wound Dressing</t>
+  </si>
+  <si>
+    <t>老君须 (胡须地衣)</t>
+  </si>
+  <si>
+    <t>GEAR_OldMansBeardHarvested</t>
+  </si>
+  <si>
+    <t>Old Man's Beard Lichen</t>
+  </si>
+  <si>
+    <t>老君须伤口敷料 (胡须地衣伤口敷料)</t>
+  </si>
+  <si>
+    <t>GEAR_OverpassBrochure</t>
+  </si>
+  <si>
+    <t>Overpass Brochure</t>
+  </si>
+  <si>
+    <t>通关手册</t>
+  </si>
+  <si>
+    <t>GEAR_PackMatches</t>
+  </si>
+  <si>
+    <t>Cardboard Matches</t>
+  </si>
+  <si>
+    <t>盒装火柴</t>
+  </si>
+  <si>
+    <t>GEAR_PaperStack</t>
+  </si>
+  <si>
+    <t>Stack of Papers</t>
+  </si>
+  <si>
+    <t>纸堆</t>
+  </si>
+  <si>
+    <t>GEAR_PeanutButter</t>
+  </si>
+  <si>
+    <t>Peanut Butter</t>
+  </si>
+  <si>
+    <t>花生酱</t>
+  </si>
+  <si>
+    <t>GEAR_PinnacleCanPeaches</t>
+  </si>
+  <si>
+    <t>Pinnacle Peaches</t>
+  </si>
+  <si>
+    <t>极品桃子</t>
+  </si>
+  <si>
+    <t>GEAR_Placeholder</t>
+  </si>
+  <si>
+    <t>Rabbit Carcass</t>
+  </si>
+  <si>
+    <t>兔子尸体</t>
+  </si>
+  <si>
+    <t>GEAR_PlaidShirt</t>
+  </si>
+  <si>
+    <t>Plaid Shirt</t>
+  </si>
+  <si>
+    <t>格子尼衬衫</t>
+  </si>
+  <si>
+    <t>GEAR_PremiumWinterCoat</t>
+  </si>
+  <si>
+    <t>Expedition Parka</t>
+  </si>
+  <si>
+    <t>远征风雪大衣</t>
+  </si>
+  <si>
+    <t>GEAR_Prybar</t>
+  </si>
+  <si>
+    <t>Prybar</t>
+  </si>
+  <si>
+    <t>撬棍</t>
+  </si>
+  <si>
+    <t>GEAR_PumpkinPie</t>
+  </si>
+  <si>
+    <t>Pumpkin Pie</t>
+  </si>
+  <si>
+    <t>南瓜派</t>
+  </si>
+  <si>
+    <t>GEAR_QualityWinterCoat</t>
+  </si>
+  <si>
+    <t>Mariner's Pea Coat</t>
+  </si>
+  <si>
+    <t>陆战队短羊毛大衣</t>
+  </si>
+  <si>
+    <t>GEAR_RabbitCarcass</t>
+  </si>
+  <si>
+    <t>兔子尸骸</t>
+  </si>
+  <si>
+    <t>GEAR_RabbitPelt</t>
+  </si>
+  <si>
+    <t>Fresh Rabbit Pelt</t>
+  </si>
+  <si>
+    <t>新鲜的兔皮</t>
+  </si>
+  <si>
+    <t>GEAR_RabbitPeltDried</t>
+  </si>
+  <si>
+    <t>Cured Rabbit Pelt</t>
+  </si>
+  <si>
+    <t>鞣制的兔皮</t>
+  </si>
+  <si>
+    <t>GEAR_RabbitSkinMittens</t>
+  </si>
+  <si>
+    <t>Rabbitskin Mitts</t>
+  </si>
+  <si>
+    <t>兔皮手套</t>
+  </si>
+  <si>
+    <t>GEAR_RawCohoSalmon</t>
+  </si>
+  <si>
+    <t>Coho Salmon (Raw)</t>
+  </si>
+  <si>
+    <t>银鲑鱼 (生)</t>
+  </si>
+  <si>
+    <t>GEAR_RawLakeWhiteFish</t>
+  </si>
+  <si>
+    <t>Lake Whitefish (Raw)</t>
+  </si>
+  <si>
+    <t>白鲑 (生)</t>
+  </si>
+  <si>
+    <t>GEAR_RawMeatBear</t>
+  </si>
+  <si>
+    <t>Black Bear Meat</t>
+  </si>
+  <si>
+    <t>熊肉 (生)</t>
+  </si>
+  <si>
+    <t>GEAR_RawMeatDeer</t>
+  </si>
+  <si>
+    <t>Venison (Raw)</t>
+  </si>
+  <si>
+    <t>鹿肉 (生)</t>
+  </si>
+  <si>
+    <t>GEAR_RawMeatRabbit</t>
+  </si>
+  <si>
+    <t>Rabbit  (Raw)</t>
+  </si>
+  <si>
+    <t>兔肉 (生)</t>
+  </si>
+  <si>
+    <t>GEAR_RawMeatWolf</t>
+  </si>
+  <si>
+    <t>Wolf Meat (Raw)</t>
+  </si>
+  <si>
+    <t>狼肉 (生)</t>
+  </si>
+  <si>
+    <t>GEAR_RawRainbowTrout</t>
+  </si>
+  <si>
+    <t>Rainbow Trout (Raw)</t>
+  </si>
+  <si>
+    <t>虹鳟鱼 (生)</t>
+  </si>
+  <si>
+    <t>GEAR_RawSmallMouthBass</t>
+  </si>
+  <si>
+    <t>Smallmouth Bass (Raw)</t>
+  </si>
+  <si>
+    <t>小嘴鲈鱼 (生)</t>
+  </si>
+  <si>
+    <t>GEAR_ReclaimedWoodB</t>
+  </si>
+  <si>
+    <t>Reclaimed Wood</t>
+  </si>
+  <si>
+    <t>旧木材</t>
+  </si>
+  <si>
+    <t>GEAR_ReishiMushroom</t>
+  </si>
+  <si>
+    <t>Reishi Mushroom</t>
+  </si>
+  <si>
+    <t>灵芝</t>
+  </si>
+  <si>
+    <t>GEAR_ReishiPrepared</t>
+  </si>
+  <si>
+    <t>Prepared Reishi Mushrooms</t>
+  </si>
+  <si>
+    <t>制备好的灵芝</t>
+  </si>
+  <si>
+    <t>GEAR_ReishiTea</t>
+  </si>
+  <si>
+    <t>Reishi Tea</t>
+  </si>
+  <si>
+    <t>灵芝茶</t>
+  </si>
+  <si>
+    <t>GEAR_RicksJournal</t>
+  </si>
+  <si>
+    <t>Rick's Journal</t>
+  </si>
+  <si>
+    <t>瑞克的日志</t>
+  </si>
+  <si>
+    <t>GEAR_Rifle</t>
+  </si>
+  <si>
+    <t>Hunting Rifle</t>
+  </si>
+  <si>
+    <t>猎枪</t>
+  </si>
+  <si>
+    <t>GEAR_RifleAmmoBox</t>
+  </si>
+  <si>
+    <t>Rifle Ammunition</t>
+  </si>
+  <si>
+    <t>一盒猎枪弹药</t>
+  </si>
+  <si>
+    <t>GEAR_RifleAmmoSingle</t>
+  </si>
+  <si>
+    <t>Rifle Cartridge</t>
+  </si>
+  <si>
+    <t>猎枪子弹</t>
+  </si>
+  <si>
+    <t>GEAR_RifleBlanks</t>
+  </si>
+  <si>
+    <t>Rifle Blanks</t>
+  </si>
+  <si>
+    <t>空膛猎枪</t>
+  </si>
+  <si>
+    <t>GEAR_RifleBullets</t>
+  </si>
+  <si>
+    <t>Rifle Bullets</t>
+  </si>
+  <si>
+    <t>GEAR_RifleCleaningKit</t>
+  </si>
+  <si>
+    <t>Rifle Cleaning Kit</t>
+  </si>
+  <si>
+    <t>猎枪清理套件</t>
+  </si>
+  <si>
+    <t>GEAR_RifleHuntingLodge</t>
+  </si>
+  <si>
+    <t>GEAR_Rope</t>
+  </si>
+  <si>
+    <t>Mountaineering Rope</t>
+  </si>
+  <si>
+    <t>攀岩绳</t>
+  </si>
+  <si>
+    <t>GEAR_RoseHip</t>
+  </si>
+  <si>
+    <t>Rose Hip</t>
+  </si>
+  <si>
+    <t>玫瑰果</t>
+  </si>
+  <si>
+    <t>GEAR_RosehipsPrepared</t>
+  </si>
+  <si>
+    <t>Prepared Rosehips</t>
+  </si>
+  <si>
+    <t>制备好的玫瑰果</t>
+  </si>
+  <si>
+    <t>GEAR_RoseHipTea</t>
+  </si>
+  <si>
+    <t>Rose Hip Tea</t>
+  </si>
+  <si>
+    <t>玫瑰果茶</t>
+  </si>
+  <si>
+    <t>GEAR_ScrapMetal</t>
+  </si>
+  <si>
+    <t>Scrap Metal</t>
+  </si>
+  <si>
+    <t>废金属</t>
+  </si>
+  <si>
+    <t>GEAR_SewingKit</t>
+  </si>
+  <si>
+    <t>Sewing Kit</t>
+  </si>
+  <si>
+    <t>针线包</t>
+  </si>
+  <si>
+    <t>GEAR_SharpeningStone</t>
+  </si>
+  <si>
+    <t>Whetstone</t>
+  </si>
+  <si>
+    <t>磨刀石</t>
+  </si>
+  <si>
+    <t>GEAR_Shovel</t>
+  </si>
+  <si>
+    <t>Shovel</t>
+  </si>
+  <si>
+    <t>铲子</t>
+  </si>
+  <si>
+    <t>GEAR_SimpleTools</t>
+  </si>
+  <si>
+    <t>Simple Tools</t>
+  </si>
+  <si>
+    <t>简易工具箱</t>
+  </si>
+  <si>
+    <t>GEAR_SkiBoots</t>
+  </si>
+  <si>
+    <t>Ski Boots</t>
+  </si>
+  <si>
+    <t>滑雪靴</t>
+  </si>
+  <si>
+    <t>GEAR_SkiGloves</t>
+  </si>
+  <si>
+    <t>Ski Gloves</t>
+  </si>
+  <si>
+    <t>滑雪手套</t>
+  </si>
+  <si>
+    <t>GEAR_SkiJacket</t>
+  </si>
+  <si>
+    <t>Light Shell</t>
+  </si>
+  <si>
+    <t>滑雪衫</t>
+  </si>
+  <si>
+    <t>GEAR_Snare</t>
+  </si>
+  <si>
+    <t>Snare</t>
+  </si>
+  <si>
+    <t>陷阱</t>
+  </si>
+  <si>
+    <t>GEAR_Soda</t>
+  </si>
+  <si>
+    <t>Summit Soda</t>
+  </si>
+  <si>
+    <t>尖峰饮料 (苏打汽水)</t>
+  </si>
+  <si>
+    <t>GEAR_SodaGrape</t>
+  </si>
+  <si>
+    <t>Stacy's Grape Soda</t>
+  </si>
+  <si>
+    <t>史黛西牌葡萄汽水</t>
+  </si>
+  <si>
+    <t>GEAR_SodaOrange</t>
+  </si>
+  <si>
+    <t>Orange Soda</t>
+  </si>
+  <si>
+    <t>橘子汽水</t>
+  </si>
+  <si>
+    <t>GEAR_Softwood</t>
+  </si>
+  <si>
+    <t>Cedar Firewood</t>
+  </si>
+  <si>
+    <t>杉木</t>
+  </si>
+  <si>
+    <t>GEAR_StagQuarter</t>
+  </si>
+  <si>
+    <t>Deer Quarter</t>
+  </si>
+  <si>
+    <t>小块鹿尸</t>
+  </si>
+  <si>
+    <t>GEAR_Stick</t>
+  </si>
+  <si>
+    <t>Stick</t>
+  </si>
+  <si>
+    <t>小树枝</t>
+  </si>
+  <si>
+    <t>GEAR_Stone</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>石块</t>
+  </si>
+  <si>
+    <t>GEAR_TeeShirt</t>
+  </si>
+  <si>
+    <t>T-Shirt</t>
+  </si>
+  <si>
+    <t>T恤</t>
+  </si>
+  <si>
+    <t>GEAR_Tinder</t>
+  </si>
+  <si>
+    <t>Tinder Plug</t>
+  </si>
+  <si>
+    <t>火引</t>
+  </si>
+  <si>
+    <t>GEAR_TomatoSoupCan</t>
+  </si>
+  <si>
+    <t>Tomato Soup</t>
+  </si>
+  <si>
+    <t>番茄汤</t>
+  </si>
+  <si>
+    <t>GEAR_Toque</t>
+  </si>
+  <si>
+    <t>Wool Toque</t>
+  </si>
+  <si>
+    <t>无檐羊毛帽</t>
+  </si>
+  <si>
+    <t>GEAR_Torch</t>
+  </si>
+  <si>
+    <t>Torch</t>
+  </si>
+  <si>
+    <t>火把</t>
+  </si>
+  <si>
+    <t>GEAR_TrailerSupplies</t>
+  </si>
+  <si>
+    <t>Forest Talker Supplies</t>
+  </si>
+  <si>
+    <t>森林代言人补给品</t>
+  </si>
+  <si>
+    <t>GEAR_UtilitiesBill</t>
+  </si>
+  <si>
+    <t>Utilities Bill</t>
+  </si>
+  <si>
+    <t>公共法案</t>
+  </si>
+  <si>
+    <t>GEAR_Water1000ml</t>
+  </si>
+  <si>
+    <t>Water Bottle</t>
+  </si>
+  <si>
+    <t>水瓶</t>
+  </si>
+  <si>
+    <t>GEAR_Water500ml</t>
+  </si>
+  <si>
+    <t>GEAR_WaterPurificationTablets</t>
+  </si>
+  <si>
+    <t>Water Purification Tablets</t>
+  </si>
+  <si>
+    <t>净水药片</t>
+  </si>
+  <si>
+    <t>GEAR_WaterSupplyNotPotable</t>
+  </si>
+  <si>
+    <t>Water (Unsafe)</t>
+  </si>
+  <si>
+    <t>脏水</t>
+  </si>
+  <si>
+    <t>GEAR_WaterSupplyPotable</t>
+  </si>
+  <si>
+    <t>Water (Potable)</t>
+  </si>
+  <si>
+    <t>净水</t>
+  </si>
+  <si>
+    <t>GEAR_WaterTowerNote</t>
+  </si>
+  <si>
+    <t>Water Tower Note</t>
+  </si>
+  <si>
+    <t>水塔信息</t>
+  </si>
+  <si>
+    <t>GEAR_WillBoots</t>
+  </si>
+  <si>
+    <t>Will's Boots</t>
+  </si>
+  <si>
+    <t>威尔的靴子</t>
+  </si>
+  <si>
+    <t>GEAR_WillPants</t>
+  </si>
+  <si>
+    <t>Will's Pants</t>
+  </si>
+  <si>
+    <t>威尔的裤子</t>
+  </si>
+  <si>
+    <t>GEAR_WillParka</t>
+  </si>
+  <si>
+    <t>Will's Coat</t>
+  </si>
+  <si>
+    <t>威尔的大衣</t>
+  </si>
+  <si>
+    <t>GEAR_WillShirt</t>
+  </si>
+  <si>
+    <t>Will's Shirt</t>
+  </si>
+  <si>
+    <t>威尔的上衣</t>
+  </si>
+  <si>
+    <t>GEAR_WillSweater</t>
+  </si>
+  <si>
+    <t>Will's Sweater</t>
+  </si>
+  <si>
+    <t>威尔的毛衣</t>
+  </si>
+  <si>
+    <t>GEAR_WillToque</t>
+  </si>
+  <si>
+    <t>Will's Hat</t>
+  </si>
+  <si>
+    <t>威尔的帽子</t>
+  </si>
+  <si>
+    <t>GEAR_WolfCarcass</t>
+  </si>
+  <si>
+    <t>Wolf Carcass</t>
+  </si>
+  <si>
+    <t>狼的尸体</t>
+  </si>
+  <si>
+    <t>GEAR_WolfPelt</t>
+  </si>
+  <si>
+    <t>Fresh Wolf Pelt</t>
+  </si>
+  <si>
+    <t>新鲜的狼皮</t>
+  </si>
+  <si>
+    <t>GEAR_WolfPeltDried</t>
+  </si>
+  <si>
+    <t>Cured Wolf Pelt</t>
+  </si>
+  <si>
+    <t>鞣制的狼皮</t>
+  </si>
+  <si>
+    <t>GEAR_WolfQuarter</t>
+  </si>
+  <si>
+    <t>Wolf Quarter</t>
+  </si>
+  <si>
+    <t>小块狼尸</t>
+  </si>
+  <si>
+    <t>GEAR_WolfSkinCape</t>
+  </si>
+  <si>
+    <t>Wolfskin Coat</t>
+  </si>
+  <si>
+    <t>狼皮大衣</t>
+  </si>
+  <si>
+    <t>GEAR_WoodMatches</t>
+  </si>
+  <si>
+    <t>Wood Matches</t>
+  </si>
+  <si>
+    <t>木质火柴</t>
+  </si>
+  <si>
+    <t>GEAR_WoolShirt</t>
+  </si>
+  <si>
+    <t>Wool Shirt</t>
+  </si>
+  <si>
+    <t>GEAR_WoolSocks</t>
+  </si>
+  <si>
+    <t>Wool Socks</t>
+  </si>
+  <si>
+    <t>羊毛袜</t>
+  </si>
+  <si>
+    <t>GEAR_WoolSweater</t>
+  </si>
+  <si>
+    <t>Thin Wool Sweater</t>
+  </si>
+  <si>
+    <t>薄羊毛衫</t>
+  </si>
+  <si>
+    <t>GEAR_WoolWrap</t>
+  </si>
+  <si>
+    <t>Long Wool Scarf</t>
+  </si>
+  <si>
+    <t>羊毛长围巾</t>
+  </si>
+  <si>
+    <t>GEAR_WoolWrapCap</t>
+  </si>
+  <si>
+    <t>Fleece Cowl</t>
+  </si>
+  <si>
+    <t>羊毛帽</t>
+  </si>
+  <si>
+    <t>GEAR_WorkBoots</t>
+  </si>
+  <si>
+    <t>Work Boots</t>
+  </si>
+  <si>
+    <t>工作靴</t>
+  </si>
+  <si>
+    <t>GEAR_WorkGloves</t>
+  </si>
+  <si>
+    <t>Work Gloves</t>
+  </si>
+  <si>
+    <t>工作手套</t>
+  </si>
+  <si>
+    <t>GEAR_WorkPants</t>
+  </si>
+  <si>
+    <t>Work Pants</t>
+  </si>
+  <si>
     <t>工作裤</t>
-  </si>
-  <si>
-    <t>GEAR_CattailPlant</t>
-  </si>
-  <si>
-    <t>Cat Tail Plant</t>
-  </si>
-  <si>
-    <t>香蒲</t>
-  </si>
-  <si>
-    <t>GEAR_CattailStalk</t>
-  </si>
-  <si>
-    <t>Cat Tail Stalk</t>
-  </si>
-  <si>
-    <t>香蒲茎</t>
-  </si>
-  <si>
-    <t>GEAR_CattailTinder</t>
-  </si>
-  <si>
-    <t>Cat Tail Head</t>
-  </si>
-  <si>
-    <t>香蒲头部</t>
-  </si>
-  <si>
-    <t>GEAR_CaveCacheNote</t>
-  </si>
-  <si>
-    <t>Cave Hidden Cache Note</t>
-  </si>
-  <si>
-    <t>洞穴隐藏补给处</t>
-  </si>
-  <si>
-    <t>GEAR_Charcoal</t>
-  </si>
-  <si>
-    <t>Charcoal</t>
-  </si>
-  <si>
-    <t>木炭</t>
-  </si>
-  <si>
-    <t>GEAR_ChurchHymn</t>
-  </si>
-  <si>
-    <t>Church Hymn</t>
-  </si>
-  <si>
-    <t>石头教堂</t>
-  </si>
-  <si>
-    <t>GEAR_ChurchNoteEP1</t>
-  </si>
-  <si>
-    <t>Church Note EP 1</t>
-  </si>
-  <si>
-    <t>教堂信息 EP 1</t>
-  </si>
-  <si>
-    <t>GEAR_ClimbersJournal</t>
-  </si>
-  <si>
-    <t>Climber's Journal Page</t>
-  </si>
-  <si>
-    <t>攀岩者的日志</t>
-  </si>
-  <si>
-    <t>GEAR_ClimbingSocks</t>
-  </si>
-  <si>
-    <t>Climbing Socks</t>
-  </si>
-  <si>
-    <t>登山袜</t>
-  </si>
-  <si>
-    <t>GEAR_Cloth</t>
-  </si>
-  <si>
-    <t>Cloth</t>
-  </si>
-  <si>
-    <t>布料</t>
-  </si>
-  <si>
-    <t>GEAR_Coal</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>煤块</t>
-  </si>
-  <si>
-    <t>GEAR_CoffeeCup</t>
-  </si>
-  <si>
-    <t>Cup of Coffee</t>
-  </si>
-  <si>
-    <t>一杯咖啡</t>
-  </si>
-  <si>
-    <t>GEAR_CoffeeTin</t>
-  </si>
-  <si>
-    <t>Tin of Coffee</t>
-  </si>
-  <si>
-    <t>一罐咖啡</t>
-  </si>
-  <si>
-    <t>GEAR_CollectibleNoteCommonReward</t>
-  </si>
-  <si>
-    <t>Collectible Note Common</t>
-  </si>
-  <si>
-    <t>普通的可收藏信息</t>
-  </si>
-  <si>
-    <t>GEAR_CollectibleNoteRareReward</t>
-  </si>
-  <si>
-    <t>GEAR_CombatBoots</t>
-  </si>
-  <si>
-    <t>Combat Boots</t>
-  </si>
-  <si>
-    <t>军靴</t>
-  </si>
-  <si>
-    <t>GEAR_CombatPants</t>
-  </si>
-  <si>
-    <t>Combat Pants</t>
-  </si>
-  <si>
-    <t>军裤</t>
-  </si>
-  <si>
-    <t>GEAR_CompressionBandage</t>
-  </si>
-  <si>
-    <t>Compression Bandage</t>
-  </si>
-  <si>
-    <t>压迫绷带</t>
-  </si>
-  <si>
-    <t>GEAR_CondensedMilk</t>
-  </si>
-  <si>
-    <t>Condensed Milk</t>
-  </si>
-  <si>
-    <t>炼乳</t>
-  </si>
-  <si>
-    <t>GEAR_CookedCohoSalmon</t>
-  </si>
-  <si>
-    <t>Coho Salmon (Cooked)</t>
-  </si>
-  <si>
-    <t>银大马哈鱼(已烤熟)</t>
-  </si>
-  <si>
-    <t>GEAR_CookedLakeWhiteFish</t>
-  </si>
-  <si>
-    <t>Lake Whitefish (Cooked)</t>
-  </si>
-  <si>
-    <t>白鲑 (已烤熟)</t>
-  </si>
-  <si>
-    <t>GEAR_CookedMeatBear</t>
-  </si>
-  <si>
-    <t>Bear Meat (Cooked)</t>
-  </si>
-  <si>
-    <t>熊肉 (已烤熟)</t>
-  </si>
-  <si>
-    <t>GEAR_CookedMeatDeer</t>
-  </si>
-  <si>
-    <t>Venison (Cooked)</t>
-  </si>
-  <si>
-    <t>鹿肉 (已烤熟)</t>
-  </si>
-  <si>
-    <t>GEAR_CookedMeatRabbit</t>
-  </si>
-  <si>
-    <t>Rabbit (Cooked)</t>
-  </si>
-  <si>
-    <t>兔肉 (已烤熟)</t>
-  </si>
-  <si>
-    <t>GEAR_CookedMeatWolf</t>
-  </si>
-  <si>
-    <t>Wolf Meat (Cooked)</t>
-  </si>
-  <si>
-    <t>狼肉 (已烤熟)</t>
-  </si>
-  <si>
-    <t>GEAR_CookedRainbowTrout</t>
-  </si>
-  <si>
-    <t>Rainbow Trout (Cooked)</t>
-  </si>
-  <si>
-    <t>虹鳟鱼 (已烤熟)</t>
-  </si>
-  <si>
-    <t>GEAR_CookedSmallMouthBass</t>
-  </si>
-  <si>
-    <t>Smallmouth Bass (Cooked)</t>
-  </si>
-  <si>
-    <t>小嘴鲈鱼 (已烤熟)</t>
-  </si>
-  <si>
-    <t>GEAR_CottonHoodie</t>
-  </si>
-  <si>
-    <t>Hoodie</t>
-  </si>
-  <si>
-    <t>连帽衫</t>
-  </si>
-  <si>
-    <t>GEAR_CottonScarf</t>
-  </si>
-  <si>
-    <t>Cotton Scarf</t>
-  </si>
-  <si>
-    <t>棉毛围巾</t>
-  </si>
-  <si>
-    <t>GEAR_CottonShirt</t>
-  </si>
-  <si>
-    <t>Dress Shirt</t>
-  </si>
-  <si>
-    <t>衬衫</t>
-  </si>
-  <si>
-    <t>GEAR_CottonSocks</t>
-  </si>
-  <si>
-    <t>Sports Socks</t>
-  </si>
-  <si>
-    <t>运动袜</t>
-  </si>
-  <si>
-    <t>GEAR_CowichanSweater</t>
-  </si>
-  <si>
-    <t>Cowichan Sweater</t>
-  </si>
-  <si>
-    <t>印第安式厚毛衣</t>
-  </si>
-  <si>
-    <t>GEAR_Crackers</t>
-  </si>
-  <si>
-    <t>Salty Crackers</t>
-  </si>
-  <si>
-    <t>咸饼干</t>
-  </si>
-  <si>
-    <t>GEAR_CrowFeather</t>
-  </si>
-  <si>
-    <t>Crow Feather</t>
-  </si>
-  <si>
-    <t>乌鸦羽毛</t>
-  </si>
-  <si>
-    <t>GEAR_DamCodeNote</t>
-  </si>
-  <si>
-    <t>Dam Code Note</t>
-  </si>
-  <si>
-    <t>大坝代码信息</t>
-  </si>
-  <si>
-    <t>GEAR_DamControlRoomCodeNote</t>
-  </si>
-  <si>
-    <t>Dam Control Room Code Note</t>
-  </si>
-  <si>
-    <t>大坝控制室代码信息</t>
-  </si>
-  <si>
-    <t>GEAR_DamOfficeKey</t>
-  </si>
-  <si>
-    <t>Dam Office Key</t>
-  </si>
-  <si>
-    <t>大坝办公室关键词</t>
-  </si>
-  <si>
-    <t>GEAR_DeerSkinBoots</t>
-  </si>
-  <si>
-    <t>Deerskin Boots</t>
-  </si>
-  <si>
-    <t>鹿皮靴</t>
-  </si>
-  <si>
-    <t>GEAR_DeerSkinPants</t>
-  </si>
-  <si>
-    <t>Deerskin Pants</t>
-  </si>
-  <si>
-    <t>鹿皮裤</t>
-  </si>
-  <si>
-    <t>GEAR_DogFood</t>
-  </si>
-  <si>
-    <t>Dog Food</t>
-  </si>
-  <si>
-    <t>狗粮</t>
-  </si>
-  <si>
-    <t>GEAR_DownParka</t>
-  </si>
-  <si>
-    <t>Urban Parka</t>
-  </si>
-  <si>
-    <t>城市风雪大衣</t>
-  </si>
-  <si>
-    <t>GEAR_DownSkiJacket</t>
-  </si>
-  <si>
-    <t>Ski Jacket</t>
-  </si>
-  <si>
-    <t>羽绒滑雪衫</t>
-  </si>
-  <si>
-    <t>GEAR_DownVest</t>
-  </si>
-  <si>
-    <t>Down Vest</t>
-  </si>
-  <si>
-    <t>羽绒背心</t>
-  </si>
-  <si>
-    <t>GEAR_EarMuffs</t>
-  </si>
-  <si>
-    <t>Wool Ear Wrap</t>
-  </si>
-  <si>
-    <t>羊毛耳套</t>
-  </si>
-  <si>
-    <t>GEAR_EmergencyKitNote</t>
-  </si>
-  <si>
-    <t>Emergency Kit Note</t>
-  </si>
-  <si>
-    <t>信号枪箱信息</t>
-  </si>
-  <si>
-    <t>GEAR_EmergencyStim</t>
-  </si>
-  <si>
-    <t>Emergency Stim</t>
-  </si>
-  <si>
-    <t>强心针</t>
-  </si>
-  <si>
-    <t>GEAR_EnergyBar</t>
-  </si>
-  <si>
-    <t>Energy Bar</t>
-  </si>
-  <si>
-    <t>士力架 (能量棒)</t>
-  </si>
-  <si>
-    <t>GEAR_FarmerDepositBoxKey</t>
-  </si>
-  <si>
-    <t>Bank Deposit Box Key (#15)</t>
-  </si>
-  <si>
-    <t>银行保管箱钥匙 (#15)</t>
-  </si>
-  <si>
-    <t>GEAR_FarmersAlmanac</t>
-  </si>
-  <si>
-    <t>Farmer's Almanac</t>
-  </si>
-  <si>
-    <t>年历</t>
-  </si>
-  <si>
-    <t>GEAR_FireAxe</t>
-  </si>
-  <si>
-    <t>Fire Axe</t>
-  </si>
-  <si>
-    <t>消防斧</t>
-  </si>
-  <si>
-    <t>GEAR_Firelog</t>
-  </si>
-  <si>
-    <t>Firelog</t>
-  </si>
-  <si>
-    <t>加工木材</t>
-  </si>
-  <si>
-    <t>GEAR_Firestriker</t>
-  </si>
-  <si>
-    <t>Firestriker</t>
-  </si>
-  <si>
-    <t>打火机</t>
-  </si>
-  <si>
-    <t>GEAR_FirstAidManual</t>
-  </si>
-  <si>
-    <t>First Aid Manual</t>
-  </si>
-  <si>
-    <t>GEAR_FishermanSweater</t>
-  </si>
-  <si>
-    <t>Fisherman's Sweater</t>
-  </si>
-  <si>
-    <t>渔夫毛衣</t>
-  </si>
-  <si>
-    <t>GEAR_FishingLine</t>
-  </si>
-  <si>
-    <t>Line</t>
-  </si>
-  <si>
-    <t>鱼线</t>
-  </si>
-  <si>
-    <t>GEAR_FixedRifle</t>
-  </si>
-  <si>
-    <t>Jeremiah's Repaired Rifle</t>
-  </si>
-  <si>
-    <t>耶利米的步枪</t>
-  </si>
-  <si>
-    <t>GEAR_FlareA</t>
-  </si>
-  <si>
-    <t>Flare</t>
-  </si>
-  <si>
-    <t>信号棒</t>
-  </si>
-  <si>
-    <t>GEAR_FlareGun</t>
-  </si>
-  <si>
-    <t>Distress Pistol</t>
-  </si>
-  <si>
-    <t>信号枪</t>
-  </si>
-  <si>
-    <t>GEAR_FlareGunAmmoSingle</t>
-  </si>
-  <si>
-    <t>Flare Shell</t>
-  </si>
-  <si>
-    <t>照明弹 (信号弹)</t>
-  </si>
-  <si>
-    <t>GEAR_Flashlight</t>
-  </si>
-  <si>
-    <t>Flashlight</t>
-  </si>
-  <si>
-    <t>手电</t>
-  </si>
-  <si>
-    <t>GEAR_FleeceMittens</t>
-  </si>
-  <si>
-    <t>Fleece Mittens</t>
-  </si>
-  <si>
-    <t>羊毛手套</t>
-  </si>
-  <si>
-    <t>GEAR_FleeceSweater</t>
-  </si>
-  <si>
-    <t>Sweatshirt</t>
-  </si>
-  <si>
-    <t>羊毛衫</t>
-  </si>
-  <si>
-    <t>GEAR_FlintAndSteel</t>
-  </si>
-  <si>
-    <t>Flint &amp; Steel</t>
-  </si>
-  <si>
-    <t>燧石 (打火石)</t>
-  </si>
-  <si>
-    <t>GEAR_ForestTalkerFlyer</t>
-  </si>
-  <si>
-    <t>Forest Talker Flyer</t>
-  </si>
-  <si>
-    <t>森林代言人的传单</t>
-  </si>
-  <si>
-    <t>GEAR_ForestTalkerHiddenItem</t>
-  </si>
-  <si>
-    <t>Forest Talker Documents</t>
-  </si>
-  <si>
-    <t>森林代言人的文件</t>
-  </si>
-  <si>
-    <t>GEAR_ForestTalkerMap</t>
-  </si>
-  <si>
-    <t>Forest Talker Map Note</t>
-  </si>
-  <si>
-    <t>森林代言人地图提示</t>
-  </si>
-  <si>
-    <t>GEAR_ForestTalkerThankyou</t>
-  </si>
-  <si>
-    <t>Forest Talker Note</t>
-  </si>
-  <si>
-    <t>森林代言人便条</t>
-  </si>
-  <si>
-    <t>GEAR_ForestTalkerThankyou2</t>
-  </si>
-  <si>
-    <t>GEAR_ForgeBlueprints</t>
-  </si>
-  <si>
-    <t>Forge Blueprints</t>
-  </si>
-  <si>
-    <t>锻造蓝图</t>
-  </si>
-  <si>
-    <t>GEAR_Gauntlets</t>
-  </si>
-  <si>
-    <t>Gauntlets</t>
-  </si>
-  <si>
-    <t>长手套</t>
-  </si>
-  <si>
-    <t>GEAR_GranolaBar</t>
-  </si>
-  <si>
-    <t>Granola Bar</t>
-  </si>
-  <si>
-    <t>格兰诺拉燕麦卷</t>
-  </si>
-  <si>
-    <t>GEAR_GreenTeaCup</t>
-  </si>
-  <si>
-    <t>Cup of Herbal Tea</t>
-  </si>
-  <si>
-    <t>一杯花茶</t>
-  </si>
-  <si>
-    <t>GEAR_GreenTeaPackage</t>
-  </si>
-  <si>
-    <t>Herbal Tea</t>
-  </si>
-  <si>
-    <t>一罐花茶</t>
-  </si>
-  <si>
-    <t>GEAR_GreyMotherBoots</t>
-  </si>
-  <si>
-    <t>Mountaineering Boots</t>
-  </si>
-  <si>
-    <t>登山靴</t>
-  </si>
-  <si>
-    <t>GEAR_GreyMotherPearls</t>
-  </si>
-  <si>
-    <t>Grey Mother's Pearls</t>
-  </si>
-  <si>
-    <t>灰色母亲的珠宝</t>
-  </si>
-  <si>
-    <t>GEAR_GreyMotherTrunkKey</t>
-  </si>
-  <si>
-    <t>Lily's Trunk Key</t>
-  </si>
-  <si>
-    <t>莉莉的储物箱钥匙</t>
-  </si>
-  <si>
-    <t>GEAR_Gut</t>
-  </si>
-  <si>
-    <t>Fresh Gut</t>
-  </si>
-  <si>
-    <t>新鲜的内脏</t>
-  </si>
-  <si>
-    <t>GEAR_GutDried</t>
-  </si>
-  <si>
-    <t>Cured Gut</t>
-  </si>
-  <si>
-    <t>已风干的内脏</t>
-  </si>
-  <si>
-    <t>GEAR_Hacksaw</t>
-  </si>
-  <si>
-    <t>Hacksaw</t>
-  </si>
-  <si>
-    <t>钢锯</t>
-  </si>
-  <si>
-    <t>GEAR_Hammer</t>
-  </si>
-  <si>
-    <t>Heavy Hammer</t>
-  </si>
-  <si>
-    <t>重锤</t>
-  </si>
-  <si>
-    <t>GEAR_HankHatchCode</t>
-  </si>
-  <si>
-    <t>Hank's Prepper Cache Code</t>
-  </si>
-  <si>
-    <t>汉克的应急舱</t>
-  </si>
-  <si>
-    <t>GEAR_HankJournal2</t>
-  </si>
-  <si>
-    <t>Hank's Journal - Part Two</t>
-  </si>
-  <si>
-    <t>汉克的日记 第二部分</t>
-  </si>
-  <si>
-    <t>GEAR_HankNeiceLetter</t>
-  </si>
-  <si>
-    <t>Letter for Hank's Neice</t>
-  </si>
-  <si>
-    <t>给汉克侄女的信</t>
-  </si>
-  <si>
-    <t>GEAR_HardCase</t>
-  </si>
-  <si>
-    <t>Astrid's Hardcase</t>
-  </si>
-  <si>
-    <t>硬木</t>
-  </si>
-  <si>
-    <t>GEAR_Hardwood</t>
-  </si>
-  <si>
-    <t>Fir Firewood</t>
-  </si>
-  <si>
-    <t>冷杉木</t>
-  </si>
-  <si>
-    <t>GEAR_Hatchet</t>
-  </si>
-  <si>
-    <t>Hatchet</t>
-  </si>
-  <si>
-    <t>斧头</t>
-  </si>
-  <si>
-    <t>GEAR_HatchetImprovised</t>
-  </si>
-  <si>
-    <t>Improvised Hatchet</t>
-  </si>
-  <si>
-    <t>简易短斧</t>
-  </si>
-  <si>
-    <t>GEAR_HC_EP1_FM_TreeRoots_Dir</t>
-  </si>
-  <si>
-    <t>Charcoal Note</t>
-  </si>
-  <si>
-    <t>炭笔便条</t>
-  </si>
-  <si>
-    <t>GEAR_HC_EP1_ML_AlansCave_Dir</t>
-  </si>
-  <si>
-    <t>Crumpled Note</t>
-  </si>
-  <si>
-    <t>褶皱的便条</t>
-  </si>
-  <si>
-    <t>GEAR_HC_EP1_ML_ClearCut_Dir</t>
-  </si>
-  <si>
-    <t>Simple Note</t>
-  </si>
-  <si>
-    <t>简单的便条</t>
-  </si>
-  <si>
-    <t>GEAR_HC_EP1_ML_TracksEnt_Dir</t>
-  </si>
-  <si>
-    <t>Illegible Note</t>
-  </si>
-  <si>
-    <t>字迹模糊的便条</t>
-  </si>
-  <si>
-    <t>GEAR_HC_EP1_RW_HunterLodge_Dir</t>
-  </si>
-  <si>
-    <t>Handwritten Note</t>
-  </si>
-  <si>
-    <t>手写便条</t>
-  </si>
-  <si>
-    <t>GEAR_HC_EP1_RW_RavineEnd_Dir</t>
-  </si>
-  <si>
-    <t>Blood Soaked Note</t>
-  </si>
-  <si>
-    <t>沾染鲜血的便条</t>
-  </si>
-  <si>
-    <t>GEAR_HeavyBandage</t>
-  </si>
-  <si>
-    <t>Bandage</t>
-  </si>
-  <si>
-    <t>绷带</t>
-  </si>
-  <si>
-    <t>GEAR_HeavyParka</t>
-  </si>
-  <si>
-    <t>Old Fashioned Parka</t>
-  </si>
-  <si>
-    <t>老式风雪大衣</t>
-  </si>
-  <si>
-    <t>GEAR_HeavyWoolSweater</t>
-  </si>
-  <si>
-    <t>Thick Wool Sweater</t>
-  </si>
-  <si>
-    <t>厚羊毛衫</t>
-  </si>
-  <si>
-    <t>GEAR_HighQualityTools</t>
-  </si>
-  <si>
-    <t>Quality Tools</t>
-  </si>
-  <si>
-    <t>高级工具箱</t>
-  </si>
-  <si>
-    <t>GEAR_HikersBackPack</t>
-  </si>
-  <si>
-    <t>Hiker's Backpack</t>
-  </si>
-  <si>
-    <t>徒步旅行者的背包</t>
-  </si>
-  <si>
-    <t>GEAR_Hook</t>
-  </si>
-  <si>
-    <t>Hook</t>
-  </si>
-  <si>
-    <t>鱼钩</t>
-  </si>
-  <si>
-    <t>GEAR_HookAndLine</t>
-  </si>
-  <si>
-    <t>Fishing Tackle</t>
-  </si>
-  <si>
-    <t>渔具</t>
-  </si>
-  <si>
-    <t>GEAR_HunterJournalPage</t>
-  </si>
-  <si>
-    <t>Hunter Journal Page</t>
-  </si>
-  <si>
-    <t>猎人日志</t>
-  </si>
-  <si>
-    <t>GEAR_InsulatedBoots</t>
-  </si>
-  <si>
-    <t>Insulated Boots</t>
-  </si>
-  <si>
-    <t>橡胶靴</t>
-  </si>
-  <si>
-    <t>GEAR_InsulatedPants</t>
-  </si>
-  <si>
-    <t>Snow Pants</t>
-  </si>
-  <si>
-    <t>雪地裤 (雪花裤)</t>
-  </si>
-  <si>
-    <t>GEAR_InsulatedVest</t>
-  </si>
-  <si>
-    <t>Sport Vest</t>
-  </si>
-  <si>
-    <t>防水马甲</t>
-  </si>
-  <si>
-    <t>GEAR_Jeans</t>
-  </si>
-  <si>
-    <t>Jeans</t>
-  </si>
-  <si>
-    <t>牛仔裤</t>
-  </si>
-  <si>
-    <t>GEAR_JeremiahKnife</t>
-  </si>
-  <si>
-    <t>Jeremiah's Knife</t>
-  </si>
-  <si>
-    <t>耶利米的小刀</t>
-  </si>
-  <si>
-    <t>GEAR_JeremiahsCoat</t>
-  </si>
-  <si>
-    <t>Jeremiah's Bearskin Coat</t>
-  </si>
-  <si>
-    <t>耶利米的熊皮大衣</t>
-  </si>
-  <si>
-    <t>GEAR_JerrycanRusty</t>
-  </si>
-  <si>
-    <t>Jerry Can</t>
-  </si>
-  <si>
-    <t>油桶</t>
-  </si>
-  <si>
-    <t>GEAR_KeroseneLampB</t>
-  </si>
-  <si>
-    <t>Storm Lantern</t>
-  </si>
-  <si>
-    <t>煤油灯</t>
-  </si>
-  <si>
-    <t>GEAR_Knife</t>
-  </si>
-  <si>
-    <t>Hunting Knife</t>
-  </si>
-  <si>
-    <t>捕猎者小刀</t>
-  </si>
-  <si>
-    <t>GEAR_KnifeImprovised</t>
-  </si>
-  <si>
-    <t>Improvised Knife</t>
-  </si>
-  <si>
-    <t>简易小刀</t>
-  </si>
-  <si>
-    <t>GEAR_KnifeScrapMetal</t>
-  </si>
-  <si>
-    <t>Scrap Metal Shard</t>
-  </si>
-  <si>
-    <t>小刀废金属</t>
-  </si>
-  <si>
-    <t>GEAR_KnifeScrapMetal_Clean</t>
-  </si>
-  <si>
-    <t>Knife Scrap Metal Clean</t>
-  </si>
-  <si>
-    <t>干净的小刀废金属</t>
-  </si>
-  <si>
-    <t>GEAR_LakeTrailerKey1</t>
-  </si>
-  <si>
-    <t>Logging Camp Trailer Key</t>
-  </si>
-  <si>
-    <t>伐木营地活动房钥匙</t>
-  </si>
-  <si>
-    <t>GEAR_LampFuel</t>
-  </si>
-  <si>
-    <t>Lantern Fuel</t>
-  </si>
-  <si>
-    <t>灯油</t>
-  </si>
-  <si>
-    <t>GEAR_LampFuelFull</t>
-  </si>
-  <si>
-    <t>GEAR_Leather</t>
-  </si>
-  <si>
-    <t>Fresh Leather</t>
-  </si>
-  <si>
-    <t>皮革</t>
-  </si>
-  <si>
-    <t>GEAR_LeatherDried</t>
-  </si>
-  <si>
-    <t>Cured Leather</t>
-  </si>
-  <si>
-    <t>已加工的皮革</t>
-  </si>
-  <si>
-    <t>GEAR_LeatherHide</t>
-  </si>
-  <si>
-    <t>Fresh Deer Hide</t>
-  </si>
-  <si>
-    <t>新鲜的鹿皮</t>
-  </si>
-  <si>
-    <t>GEAR_LeatherHideDried</t>
-  </si>
-  <si>
-    <t>Cured Deer Hide</t>
-  </si>
-  <si>
-    <t>鞣制的鹿皮</t>
-  </si>
-  <si>
-    <t>GEAR_LeatherShoes</t>
-  </si>
-  <si>
-    <t>Leather Shoes</t>
-  </si>
-  <si>
-    <t>皮鞋</t>
-  </si>
-  <si>
-    <t>GEAR_LeatherStrips</t>
-  </si>
-  <si>
-    <t>新鲜的皮革</t>
-  </si>
-  <si>
-    <t>GEAR_LetterBundle</t>
-  </si>
-  <si>
-    <t>Jeremiah's Letters</t>
-  </si>
-  <si>
-    <t>耶利米的信件</t>
-  </si>
-  <si>
-    <t>GEAR_LightParka</t>
-  </si>
-  <si>
-    <t>Simple Parka</t>
-  </si>
-  <si>
-    <t>薄派克大衣</t>
-  </si>
-  <si>
-    <t>GEAR_Line</t>
-  </si>
-  <si>
-    <t>线</t>
-  </si>
-  <si>
-    <t>GEAR_LongUnderwear</t>
-  </si>
-  <si>
-    <t>Thermal Underwear</t>
-  </si>
-  <si>
-    <t>保暖内衣</t>
-  </si>
-  <si>
-    <t>GEAR_LongUnderwearWool</t>
-  </si>
-  <si>
-    <t>Wool Longjohns</t>
-  </si>
-  <si>
-    <t>羊毛裤</t>
-  </si>
-  <si>
-    <t>GEAR_MackinawJacket</t>
-  </si>
-  <si>
-    <t>Mackinaw Jacket</t>
-  </si>
-  <si>
-    <t>麦基诺呢厚夹克</t>
-  </si>
-  <si>
-    <t>GEAR_MagnifyingLens</t>
-  </si>
-  <si>
-    <t>Magnifying Lens</t>
-  </si>
-  <si>
-    <t>放大镜</t>
-  </si>
-  <si>
-    <t>GEAR_MapleSapling</t>
-  </si>
-  <si>
-    <t>Green Maple Sapling</t>
-  </si>
-  <si>
-    <t>绿色枫树苗</t>
-  </si>
-  <si>
-    <t>GEAR_MapleSaplingDried</t>
-  </si>
-  <si>
-    <t>Cured Maple Sapling</t>
-  </si>
-  <si>
-    <t>已风干的枫树苗</t>
-  </si>
-  <si>
-    <t>GEAR_MapSnippetMt</t>
-  </si>
-  <si>
-    <t>Map Snippet Mt</t>
-  </si>
-  <si>
-    <t>地图片段 Mt</t>
-  </si>
-  <si>
-    <t>GEAR_MapToRailyard</t>
-  </si>
-  <si>
-    <t>Map To Railyard</t>
-  </si>
-  <si>
-    <t>映射至 Railyard</t>
-  </si>
-  <si>
-    <t>GEAR_MedicalSupplies</t>
-  </si>
-  <si>
-    <t>Carter Hydro Medical Supplies</t>
-  </si>
-  <si>
-    <t>药品</t>
-  </si>
-  <si>
-    <t>GEAR_MilitaryParka</t>
-  </si>
-  <si>
-    <t>Military Coat</t>
-  </si>
-  <si>
-    <t>军大衣</t>
-  </si>
-  <si>
-    <t>GEAR_MiltonDepositBoxKey1</t>
-  </si>
-  <si>
-    <t>Bank Deposit Box Key (#7)</t>
-  </si>
-  <si>
-    <t>银行保管箱钥匙 (#7)</t>
-  </si>
-  <si>
-    <t>GEAR_MiltonDepositBoxKey2</t>
-  </si>
-  <si>
-    <t>Bank Deposit Box Key (#13)</t>
-  </si>
-  <si>
-    <t>银行保管箱钥匙 (#13)</t>
-  </si>
-  <si>
-    <t>GEAR_MiltonDepositBoxKey3</t>
-  </si>
-  <si>
-    <t>Bank Deposit Box Key (#20)</t>
-  </si>
-  <si>
-    <t>银行保管箱钥匙 (#20)</t>
-  </si>
-  <si>
-    <t>GEAR_Mittens</t>
-  </si>
-  <si>
-    <t>Wool Mittens</t>
-  </si>
-  <si>
-    <t>羊毛连指手套</t>
-  </si>
-  <si>
-    <t>GEAR_Morphine</t>
-  </si>
-  <si>
-    <t>Morphine</t>
-  </si>
-  <si>
-    <t>吗啡</t>
-  </si>
-  <si>
-    <t>GEAR_MountainTownFarmKey</t>
-  </si>
-  <si>
-    <t>Paradise Meadows Farm Key</t>
-  </si>
-  <si>
-    <t>“天堂草地”农场钥匙</t>
-  </si>
-  <si>
-    <t>GEAR_MountainTownFarmNote</t>
-  </si>
-  <si>
-    <t>Mountain Town Farm Note</t>
-  </si>
-  <si>
-    <t>山间小镇农场信息</t>
-  </si>
-  <si>
-    <t>GEAR_MountainTownLockBoxKey</t>
-  </si>
-  <si>
-    <t>Mountain Town Lock Box Key</t>
-  </si>
-  <si>
-    <t>山间小镇上锁箱子钥匙</t>
-  </si>
-  <si>
-    <t>GEAR_MountainTownMap</t>
-  </si>
-  <si>
-    <t>Mountain Town Map</t>
-  </si>
-  <si>
-    <t>山间小镇地图</t>
-  </si>
-  <si>
-    <t>GEAR_MountainTownStoreKey</t>
-  </si>
-  <si>
-    <t>Mountain Town Store Key</t>
-  </si>
-  <si>
-    <t>山间小镇商店钥匙</t>
-  </si>
-  <si>
-    <t>GEAR_MRE</t>
-  </si>
-  <si>
-    <t>Military-Grade MRE</t>
-  </si>
-  <si>
-    <t>军用速食口粮</t>
-  </si>
-  <si>
-    <t>GEAR_MuklukBoots</t>
-  </si>
-  <si>
-    <t>Mukluks</t>
-  </si>
-  <si>
-    <t>雪地靴</t>
-  </si>
-  <si>
-    <t>GEAR_Newsprint</t>
-  </si>
-  <si>
-    <t>Newsprint</t>
-  </si>
-  <si>
-    <t>报纸</t>
-  </si>
-  <si>
-    <t>GEAR_NewsprintRoll</t>
-  </si>
-  <si>
-    <t>Newsprint Roll</t>
-  </si>
-  <si>
-    <t>一卷报纸</t>
-  </si>
-  <si>
-    <t>GEAR_OldLadyStolenItem</t>
-  </si>
-  <si>
-    <t>Grey Mother's Safety Deposit Box</t>
-  </si>
-  <si>
-    <t>灰色母亲的保险箱</t>
-  </si>
-  <si>
-    <t>GEAR_OldMansBeardDressing</t>
-  </si>
-  <si>
-    <t>Old Man's Beard Wound Dressing</t>
-  </si>
-  <si>
-    <t>老君须 (胡须地衣)</t>
-  </si>
-  <si>
-    <t>GEAR_OldMansBeardHarvested</t>
-  </si>
-  <si>
-    <t>Old Man's Beard Lichen</t>
-  </si>
-  <si>
-    <t>老君须伤口敷料 (胡须地衣伤口敷料)</t>
-  </si>
-  <si>
-    <t>GEAR_OverpassBrochure</t>
-  </si>
-  <si>
-    <t>Overpass Brochure</t>
-  </si>
-  <si>
-    <t>通关手册</t>
-  </si>
-  <si>
-    <t>GEAR_PackMatches</t>
-  </si>
-  <si>
-    <t>Cardboard Matches</t>
-  </si>
-  <si>
-    <t>盒装火柴</t>
-  </si>
-  <si>
-    <t>GEAR_PaperStack</t>
-  </si>
-  <si>
-    <t>Stack of Papers</t>
-  </si>
-  <si>
-    <t>纸堆</t>
-  </si>
-  <si>
-    <t>GEAR_PeanutButter</t>
-  </si>
-  <si>
-    <t>Peanut Butter</t>
-  </si>
-  <si>
-    <t>花生酱</t>
-  </si>
-  <si>
-    <t>GEAR_PinnacleCanPeaches</t>
-  </si>
-  <si>
-    <t>Pinnacle Peaches</t>
-  </si>
-  <si>
-    <t>极品桃子</t>
-  </si>
-  <si>
-    <t>GEAR_Placeholder</t>
-  </si>
-  <si>
-    <t>Rabbit Carcass</t>
-  </si>
-  <si>
-    <t>兔子尸体</t>
-  </si>
-  <si>
-    <t>GEAR_PlaidShirt</t>
-  </si>
-  <si>
-    <t>Plaid Shirt</t>
-  </si>
-  <si>
-    <t>格子尼衬衫</t>
-  </si>
-  <si>
-    <t>GEAR_PremiumWinterCoat</t>
-  </si>
-  <si>
-    <t>Expedition Parka</t>
-  </si>
-  <si>
-    <t>优质冬大衣</t>
-  </si>
-  <si>
-    <t>GEAR_Prybar</t>
-  </si>
-  <si>
-    <t>Prybar</t>
-  </si>
-  <si>
-    <t>撬棍</t>
-  </si>
-  <si>
-    <t>GEAR_PumpkinPie</t>
-  </si>
-  <si>
-    <t>Pumpkin Pie</t>
-  </si>
-  <si>
-    <t>南瓜派</t>
-  </si>
-  <si>
-    <t>GEAR_QualityWinterCoat</t>
-  </si>
-  <si>
-    <t>Mariner's Pea Coat</t>
-  </si>
-  <si>
-    <t>陆战队短羊毛大衣</t>
-  </si>
-  <si>
-    <t>GEAR_RabbitCarcass</t>
-  </si>
-  <si>
-    <t>兔子尸骸</t>
-  </si>
-  <si>
-    <t>GEAR_RabbitPelt</t>
-  </si>
-  <si>
-    <t>Fresh Rabbit Pelt</t>
-  </si>
-  <si>
-    <t>新鲜的兔皮</t>
-  </si>
-  <si>
-    <t>GEAR_RabbitPeltDried</t>
-  </si>
-  <si>
-    <t>Cured Rabbit Pelt</t>
-  </si>
-  <si>
-    <t>鞣制的兔皮</t>
-  </si>
-  <si>
-    <t>GEAR_RabbitSkinMittens</t>
-  </si>
-  <si>
-    <t>Rabbitskin Mitts</t>
-  </si>
-  <si>
-    <t>兔皮手套</t>
-  </si>
-  <si>
-    <t>GEAR_RawCohoSalmon</t>
-  </si>
-  <si>
-    <t>Coho Salmon (Raw)</t>
-  </si>
-  <si>
-    <t>银鲑鱼 (生)</t>
-  </si>
-  <si>
-    <t>GEAR_RawLakeWhiteFish</t>
-  </si>
-  <si>
-    <t>Lake Whitefish (Raw)</t>
-  </si>
-  <si>
-    <t>白鲑 (生)</t>
-  </si>
-  <si>
-    <t>GEAR_RawMeatBear</t>
-  </si>
-  <si>
-    <t>Black Bear Meat</t>
-  </si>
-  <si>
-    <t>熊肉 (生)</t>
-  </si>
-  <si>
-    <t>GEAR_RawMeatDeer</t>
-  </si>
-  <si>
-    <t>Venison (Raw)</t>
-  </si>
-  <si>
-    <t>鹿肉 (生)</t>
-  </si>
-  <si>
-    <t>GEAR_RawMeatRabbit</t>
-  </si>
-  <si>
-    <t>Rabbit  (Raw)</t>
-  </si>
-  <si>
-    <t>兔肉 (生)</t>
-  </si>
-  <si>
-    <t>GEAR_RawMeatWolf</t>
-  </si>
-  <si>
-    <t>Wolf Meat (Raw)</t>
-  </si>
-  <si>
-    <t>狼肉 (生)</t>
-  </si>
-  <si>
-    <t>GEAR_RawRainbowTrout</t>
-  </si>
-  <si>
-    <t>Rainbow Trout (Raw)</t>
-  </si>
-  <si>
-    <t>虹鳟鱼 (生)</t>
-  </si>
-  <si>
-    <t>GEAR_RawSmallMouthBass</t>
-  </si>
-  <si>
-    <t>Smallmouth Bass (Raw)</t>
-  </si>
-  <si>
-    <t>小嘴鲈鱼 (生)</t>
-  </si>
-  <si>
-    <t>GEAR_ReclaimedWoodB</t>
-  </si>
-  <si>
-    <t>Reclaimed Wood</t>
-  </si>
-  <si>
-    <t>旧木材</t>
-  </si>
-  <si>
-    <t>GEAR_ReishiMushroom</t>
-  </si>
-  <si>
-    <t>Reishi Mushroom</t>
-  </si>
-  <si>
-    <t>灵芝</t>
-  </si>
-  <si>
-    <t>GEAR_ReishiPrepared</t>
-  </si>
-  <si>
-    <t>Prepared Reishi Mushrooms</t>
-  </si>
-  <si>
-    <t>制备好的灵芝</t>
-  </si>
-  <si>
-    <t>GEAR_ReishiTea</t>
-  </si>
-  <si>
-    <t>Reishi Tea</t>
-  </si>
-  <si>
-    <t>灵芝茶</t>
-  </si>
-  <si>
-    <t>GEAR_RicksJournal</t>
-  </si>
-  <si>
-    <t>Rick's Journal</t>
-  </si>
-  <si>
-    <t>瑞克的日志</t>
-  </si>
-  <si>
-    <t>GEAR_Rifle</t>
-  </si>
-  <si>
-    <t>Hunting Rifle</t>
-  </si>
-  <si>
-    <t>猎枪</t>
-  </si>
-  <si>
-    <t>GEAR_RifleAmmoBox</t>
-  </si>
-  <si>
-    <t>Rifle Ammunition</t>
-  </si>
-  <si>
-    <t>一盒猎枪弹药</t>
-  </si>
-  <si>
-    <t>GEAR_RifleAmmoSingle</t>
-  </si>
-  <si>
-    <t>Rifle Cartridge</t>
-  </si>
-  <si>
-    <t>猎枪子弹</t>
-  </si>
-  <si>
-    <t>GEAR_RifleBlanks</t>
-  </si>
-  <si>
-    <t>Rifle Blanks</t>
-  </si>
-  <si>
-    <t>空膛猎枪</t>
-  </si>
-  <si>
-    <t>GEAR_RifleBullets</t>
-  </si>
-  <si>
-    <t>Rifle Bullets</t>
-  </si>
-  <si>
-    <t>GEAR_RifleCleaningKit</t>
-  </si>
-  <si>
-    <t>Rifle Cleaning Kit</t>
-  </si>
-  <si>
-    <t>猎枪清理套件</t>
-  </si>
-  <si>
-    <t>GEAR_RifleHuntingLodge</t>
-  </si>
-  <si>
-    <t>GEAR_Rope</t>
-  </si>
-  <si>
-    <t>Mountaineering Rope</t>
-  </si>
-  <si>
-    <t>攀岩绳</t>
-  </si>
-  <si>
-    <t>GEAR_RoseHip</t>
-  </si>
-  <si>
-    <t>Rose Hip</t>
-  </si>
-  <si>
-    <t>玫瑰果</t>
-  </si>
-  <si>
-    <t>GEAR_RosehipsPrepared</t>
-  </si>
-  <si>
-    <t>Prepared Rosehips</t>
-  </si>
-  <si>
-    <t>制备好的玫瑰果</t>
-  </si>
-  <si>
-    <t>GEAR_RoseHipTea</t>
-  </si>
-  <si>
-    <t>Rose Hip Tea</t>
-  </si>
-  <si>
-    <t>玫瑰果茶</t>
-  </si>
-  <si>
-    <t>GEAR_ScrapMetal</t>
-  </si>
-  <si>
-    <t>Scrap Metal</t>
-  </si>
-  <si>
-    <t>废金属</t>
-  </si>
-  <si>
-    <t>GEAR_SewingKit</t>
-  </si>
-  <si>
-    <t>Sewing Kit</t>
-  </si>
-  <si>
-    <t>针线包</t>
-  </si>
-  <si>
-    <t>GEAR_SharpeningStone</t>
-  </si>
-  <si>
-    <t>Whetstone</t>
-  </si>
-  <si>
-    <t>磨刀石</t>
-  </si>
-  <si>
-    <t>GEAR_Shovel</t>
-  </si>
-  <si>
-    <t>Shovel</t>
-  </si>
-  <si>
-    <t>铲子</t>
-  </si>
-  <si>
-    <t>GEAR_SimpleTools</t>
-  </si>
-  <si>
-    <t>Simple Tools</t>
-  </si>
-  <si>
-    <t>简易工具箱</t>
-  </si>
-  <si>
-    <t>GEAR_SkiBoots</t>
-  </si>
-  <si>
-    <t>Ski Boots</t>
-  </si>
-  <si>
-    <t>滑雪靴</t>
-  </si>
-  <si>
-    <t>GEAR_SkiGloves</t>
-  </si>
-  <si>
-    <t>Ski Gloves</t>
-  </si>
-  <si>
-    <t>滑雪手套</t>
-  </si>
-  <si>
-    <t>GEAR_SkiJacket</t>
-  </si>
-  <si>
-    <t>Light Shell</t>
-  </si>
-  <si>
-    <t>滑雪衫</t>
-  </si>
-  <si>
-    <t>GEAR_Snare</t>
-  </si>
-  <si>
-    <t>Snare</t>
-  </si>
-  <si>
-    <t>陷阱</t>
-  </si>
-  <si>
-    <t>GEAR_Soda</t>
-  </si>
-  <si>
-    <t>Summit Soda</t>
-  </si>
-  <si>
-    <t>尖峰饮料 (苏打汽水)</t>
-  </si>
-  <si>
-    <t>GEAR_SodaGrape</t>
-  </si>
-  <si>
-    <t>Stacy's Grape Soda</t>
-  </si>
-  <si>
-    <t>史黛西牌葡萄汽水</t>
-  </si>
-  <si>
-    <t>GEAR_SodaOrange</t>
-  </si>
-  <si>
-    <t>Orange Soda</t>
-  </si>
-  <si>
-    <t>橘子汽水</t>
-  </si>
-  <si>
-    <t>GEAR_Softwood</t>
-  </si>
-  <si>
-    <t>Cedar Firewood</t>
-  </si>
-  <si>
-    <t>杉木</t>
-  </si>
-  <si>
-    <t>GEAR_StagQuarter</t>
-  </si>
-  <si>
-    <t>Deer Quarter</t>
-  </si>
-  <si>
-    <t>小块鹿尸</t>
-  </si>
-  <si>
-    <t>GEAR_Stick</t>
-  </si>
-  <si>
-    <t>Stick</t>
-  </si>
-  <si>
-    <t>小树枝</t>
-  </si>
-  <si>
-    <t>GEAR_Stone</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>石块</t>
-  </si>
-  <si>
-    <t>GEAR_TeeShirt</t>
-  </si>
-  <si>
-    <t>T-Shirt</t>
-  </si>
-  <si>
-    <t>T恤</t>
-  </si>
-  <si>
-    <t>GEAR_Tinder</t>
-  </si>
-  <si>
-    <t>Tinder Plug</t>
-  </si>
-  <si>
-    <t>火引</t>
-  </si>
-  <si>
-    <t>GEAR_TomatoSoupCan</t>
-  </si>
-  <si>
-    <t>Tomato Soup</t>
-  </si>
-  <si>
-    <t>番茄汤</t>
-  </si>
-  <si>
-    <t>GEAR_Toque</t>
-  </si>
-  <si>
-    <t>Wool Toque</t>
-  </si>
-  <si>
-    <t>无檐羊毛帽</t>
-  </si>
-  <si>
-    <t>GEAR_Torch</t>
-  </si>
-  <si>
-    <t>Torch</t>
-  </si>
-  <si>
-    <t>火把</t>
-  </si>
-  <si>
-    <t>GEAR_TrailerSupplies</t>
-  </si>
-  <si>
-    <t>Forest Talker Supplies</t>
-  </si>
-  <si>
-    <t>森林代言人补给品</t>
-  </si>
-  <si>
-    <t>GEAR_UtilitiesBill</t>
-  </si>
-  <si>
-    <t>Utilities Bill</t>
-  </si>
-  <si>
-    <t>公共法案</t>
-  </si>
-  <si>
-    <t>GEAR_Water1000ml</t>
-  </si>
-  <si>
-    <t>Water Bottle</t>
-  </si>
-  <si>
-    <t>水瓶</t>
-  </si>
-  <si>
-    <t>GEAR_Water500ml</t>
-  </si>
-  <si>
-    <t>GEAR_WaterPurificationTablets</t>
-  </si>
-  <si>
-    <t>Water Purification Tablets</t>
-  </si>
-  <si>
-    <t>净水药片</t>
-  </si>
-  <si>
-    <t>GEAR_WaterSupplyNotPotable</t>
-  </si>
-  <si>
-    <t>Water (Unsafe)</t>
-  </si>
-  <si>
-    <t>脏水</t>
-  </si>
-  <si>
-    <t>GEAR_WaterSupplyPotable</t>
-  </si>
-  <si>
-    <t>Water (Potable)</t>
-  </si>
-  <si>
-    <t>净水</t>
-  </si>
-  <si>
-    <t>GEAR_WaterTowerNote</t>
-  </si>
-  <si>
-    <t>Water Tower Note</t>
-  </si>
-  <si>
-    <t>水塔信息</t>
-  </si>
-  <si>
-    <t>GEAR_WillBoots</t>
-  </si>
-  <si>
-    <t>Will's Boots</t>
-  </si>
-  <si>
-    <t>威尔的靴子</t>
-  </si>
-  <si>
-    <t>GEAR_WillPants</t>
-  </si>
-  <si>
-    <t>Will's Pants</t>
-  </si>
-  <si>
-    <t>威尔的裤子</t>
-  </si>
-  <si>
-    <t>GEAR_WillParka</t>
-  </si>
-  <si>
-    <t>Will's Coat</t>
-  </si>
-  <si>
-    <t>威尔的大衣</t>
-  </si>
-  <si>
-    <t>GEAR_WillShirt</t>
-  </si>
-  <si>
-    <t>Will's Shirt</t>
-  </si>
-  <si>
-    <t>威尔的上衣</t>
-  </si>
-  <si>
-    <t>GEAR_WillSweater</t>
-  </si>
-  <si>
-    <t>Will's Sweater</t>
-  </si>
-  <si>
-    <t>威尔的毛衣</t>
-  </si>
-  <si>
-    <t>GEAR_WillToque</t>
-  </si>
-  <si>
-    <t>Will's Hat</t>
-  </si>
-  <si>
-    <t>威尔的帽子</t>
-  </si>
-  <si>
-    <t>GEAR_WolfCarcass</t>
-  </si>
-  <si>
-    <t>Wolf Carcass</t>
-  </si>
-  <si>
-    <t>狼的尸体</t>
-  </si>
-  <si>
-    <t>GEAR_WolfPelt</t>
-  </si>
-  <si>
-    <t>Fresh Wolf Pelt</t>
-  </si>
-  <si>
-    <t>新鲜的狼皮</t>
-  </si>
-  <si>
-    <t>GEAR_WolfPeltDried</t>
-  </si>
-  <si>
-    <t>Cured Wolf Pelt</t>
-  </si>
-  <si>
-    <t>鞣制的狼皮</t>
-  </si>
-  <si>
-    <t>GEAR_WolfQuarter</t>
-  </si>
-  <si>
-    <t>Wolf Quarter</t>
-  </si>
-  <si>
-    <t>小块狼尸</t>
-  </si>
-  <si>
-    <t>GEAR_WolfSkinCape</t>
-  </si>
-  <si>
-    <t>Wolfskin Coat</t>
-  </si>
-  <si>
-    <t>狼皮大衣</t>
-  </si>
-  <si>
-    <t>GEAR_WoodMatches</t>
-  </si>
-  <si>
-    <t>Wood Matches</t>
-  </si>
-  <si>
-    <t>木质火柴</t>
-  </si>
-  <si>
-    <t>GEAR_WoolShirt</t>
-  </si>
-  <si>
-    <t>Wool Shirt</t>
-  </si>
-  <si>
-    <t>GEAR_WoolSocks</t>
-  </si>
-  <si>
-    <t>Wool Socks</t>
-  </si>
-  <si>
-    <t>羊毛袜</t>
-  </si>
-  <si>
-    <t>GEAR_WoolSweater</t>
-  </si>
-  <si>
-    <t>Thin Wool Sweater</t>
-  </si>
-  <si>
-    <t>薄羊毛衫</t>
-  </si>
-  <si>
-    <t>GEAR_WoolWrap</t>
-  </si>
-  <si>
-    <t>Long Wool Scarf</t>
-  </si>
-  <si>
-    <t>羊毛长围巾</t>
-  </si>
-  <si>
-    <t>GEAR_WoolWrapCap</t>
-  </si>
-  <si>
-    <t>Fleece Cowl</t>
-  </si>
-  <si>
-    <t>羊毛帽</t>
-  </si>
-  <si>
-    <t>GEAR_WorkBoots</t>
-  </si>
-  <si>
-    <t>Work Boots</t>
-  </si>
-  <si>
-    <t>工作靴</t>
-  </si>
-  <si>
-    <t>GEAR_WorkGloves</t>
-  </si>
-  <si>
-    <t>Work Gloves</t>
-  </si>
-  <si>
-    <t>工作手套</t>
-  </si>
-  <si>
-    <t>GEAR_WorkPants</t>
-  </si>
-  <si>
-    <t>Work Pants</t>
   </si>
   <si>
     <t>GutAmount</t>
@@ -3537,8 +3535,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3554,14 +3558,144 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3574,8 +3708,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3583,12 +3897,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3602,7 +4155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3612,14 +4165,61 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
@@ -3639,7 +4239,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3647,9 +4247,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3907,33 +4504,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G422"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B382" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="D364" sqref="D364"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="41.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.3796296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.8796296296296" style="2" customWidth="1"/>
     <col min="4" max="4" width="75.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="2.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="2.62962962962963" style="3" customWidth="1"/>
     <col min="6" max="6" width="35.75" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3947,7 +4545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3961,12 +4559,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3988,7 +4586,7 @@
         <v>关于</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4010,7 +4608,7 @@
         <v>治疗</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4032,7 +4630,7 @@
         <v>添加物品</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4054,7 +4652,7 @@
         <v>身体疾病</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4076,7 +4674,7 @@
         <v>失血</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4098,7 +4696,7 @@
         <v>烧伤</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4120,7 +4718,7 @@
         <v>幽居病</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -4142,7 +4740,7 @@
         <v>幽居病风险</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -4164,7 +4762,7 @@
         <v>痢疾</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -4186,7 +4784,7 @@
         <v>食物中毒</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -4208,7 +4806,7 @@
         <v>冻疮</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -4230,7 +4828,7 @@
         <v>冻疮风险</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -4252,7 +4850,7 @@
         <v>低温症</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -4274,7 +4872,7 @@
         <v>低温症风险</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -4296,7 +4894,7 @@
         <v>缓解疲劳</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -4318,7 +4916,7 @@
         <v>感染</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -4340,7 +4938,7 @@
         <v>感染风险</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -4362,7 +4960,7 @@
         <v>寄生虫病</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -4384,7 +4982,7 @@
         <v>寄生虫病风险</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -4406,7 +5004,7 @@
         <v>降低疲劳</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -4428,7 +5026,7 @@
         <v>踝关节扭伤</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -4450,7 +5048,7 @@
         <v>腕关节扭伤</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -4472,7 +5070,7 @@
         <v>严重腕关节扭伤</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -4494,7 +5092,7 @@
         <v>温暖</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -4516,7 +5114,7 @@
         <v>数量</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -4538,7 +5136,7 @@
         <v>数量 (公升)</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -4560,7 +5158,7 @@
         <v>弓箭技能点数</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -4582,7 +5180,7 @@
         <v>技能书</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -4604,7 +5202,7 @@
         <v>智子成就进度</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -4626,7 +5224,7 @@
         <v>卡路里</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -4648,7 +5246,7 @@
         <v>取消</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -4670,7 +5268,7 @@
         <v>采集技能点数</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -4692,7 +5290,7 @@
         <v>衣物</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4714,7 +5312,7 @@
         <v>修补技能点数</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4736,7 +5334,7 @@
         <v>沿海公路</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4758,7 +5356,7 @@
         <v>冷聚变成就进度</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4780,7 +5378,7 @@
         <v>可收藏的物品</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4802,7 +5400,7 @@
         <v>耐久</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4824,7 +5422,7 @@
         <v>烹饪技能点数</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4846,7 +5444,7 @@
         <v>林狼雪岭</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4868,7 +5466,7 @@
         <v>饱食度 (卡路里)</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4890,7 +5488,7 @@
         <v>下载</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4912,7 +5510,7 @@
         <v>生存机器成就进度</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -4934,7 +5532,7 @@
         <v>挑战模式</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -4956,7 +5554,7 @@
         <v>猎物 第一部分</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -4978,7 +5576,7 @@
         <v>猎物 第二部分</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5000,7 +5598,7 @@
         <v>流浪者</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5022,7 +5620,7 @@
         <v>无望的救援</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5044,7 +5642,7 @@
         <v>白雪茫茫</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5066,7 +5664,7 @@
         <v>入侵者</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5088,7 +5686,7 @@
         <v>朝圣者</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5110,7 +5708,7 @@
         <v>潜行者</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5132,7 +5730,7 @@
         <v>故事</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5154,7 +5752,7 @@
         <v>航行者</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -5176,7 +5774,7 @@
         <v>疲劳度</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -5198,7 +5796,7 @@
         <v>生火大师成就进度</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -5220,7 +5818,7 @@
         <v>生火技能点数</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -5242,7 +5840,7 @@
         <v>医疗急救</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -5264,7 +5862,7 @@
         <v>食物</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -5286,7 +5884,7 @@
         <v>自由奔跑者成就进度</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -5308,7 +5906,7 @@
         <v>寒冷度</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -5330,7 +5928,7 @@
         <v>助燃剂</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -5352,7 +5950,7 @@
         <v>煤油助燃剂</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -5374,7 +5972,7 @@
         <v>中号助燃剂</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -5396,7 +5994,7 @@
         <v>箭支</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>66</v>
       </c>
@@ -5418,7 +6016,7 @@
         <v>箭头</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>67</v>
       </c>
@@ -5440,7 +6038,7 @@
         <v>箭杆</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -5462,7 +6060,7 @@
         <v>阿斯特丽德的背包</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>69</v>
       </c>
@@ -5484,7 +6082,7 @@
         <v>巴拉克拉法帽</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>70</v>
       </c>
@@ -5506,7 +6104,7 @@
         <v>银行经理房屋钥匙</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>71</v>
       </c>
@@ -5528,7 +6126,7 @@
         <v>银行金库密码</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>72</v>
       </c>
@@ -5550,7 +6148,7 @@
         <v>桦树皮</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>73</v>
       </c>
@@ -5572,7 +6170,7 @@
         <v>棒球帽</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>74</v>
       </c>
@@ -5594,7 +6192,7 @@
         <v>普通的靴子</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>75</v>
       </c>
@@ -5616,7 +6214,7 @@
         <v>驾驶手套</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>76</v>
       </c>
@@ -5638,7 +6236,7 @@
         <v>普通的鞋子</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>77</v>
       </c>
@@ -5660,7 +6258,7 @@
         <v>普通的冬大衣</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>78</v>
       </c>
@@ -5682,7 +6280,7 @@
         <v>无边棉帽</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>79</v>
       </c>
@@ -5704,7 +6302,7 @@
         <v>羊毛围巾</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>80</v>
       </c>
@@ -5726,7 +6324,7 @@
         <v>老熊的耳朵</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>81</v>
       </c>
@@ -5748,7 +6346,7 @@
         <v>新鲜的熊皮</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>82</v>
       </c>
@@ -5770,7 +6368,7 @@
         <v>鞣制的熊皮</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>83</v>
       </c>
@@ -5792,7 +6390,7 @@
         <v>小块熊尸</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>84</v>
       </c>
@@ -5814,7 +6412,7 @@
         <v>熊皮睡袋</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>85</v>
       </c>
@@ -5836,7 +6434,7 @@
         <v>熊皮大衣</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>86</v>
       </c>
@@ -5858,7 +6456,7 @@
         <v>睡袋</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>87</v>
       </c>
@@ -5880,7 +6478,7 @@
         <v>牛肉干</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>88</v>
       </c>
@@ -5899,10 +6497,10 @@
       </c>
       <c r="G91" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>绿色桦木苗</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+        <v>绿色桦树苗</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>89</v>
       </c>
@@ -5921,10 +6519,10 @@
       </c>
       <c r="G92" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>风干的桦木苗</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+        <v>风干的桦树苗</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>90</v>
       </c>
@@ -5946,7 +6544,7 @@
         <v>嗜血锤</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>91</v>
       </c>
@@ -5968,7 +6566,7 @@
         <v>断线钳</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>92</v>
       </c>
@@ -5990,7 +6588,7 @@
         <v>普通的书</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>93</v>
       </c>
@@ -6012,7 +6610,7 @@
         <v>《紧盯目标》</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>94</v>
       </c>
@@ -6034,7 +6632,7 @@
         <v>普通的书</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>95</v>
       </c>
@@ -6056,7 +6654,7 @@
         <v>打开的书</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>96</v>
       </c>
@@ -6078,7 +6676,7 @@
         <v>普通的书</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" ht="28.8" spans="1:7">
       <c r="A100" s="1">
         <v>97</v>
       </c>
@@ -6100,7 +6698,7 @@
         <v>《野外美食手册 第一册》</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>98</v>
       </c>
@@ -6122,7 +6720,7 @@
         <v>《荒野厨房》</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>99</v>
       </c>
@@ -6144,7 +6742,7 @@
         <v>普通的书</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>100</v>
       </c>
@@ -6166,7 +6764,7 @@
         <v>普通的书</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>101</v>
       </c>
@@ -6188,7 +6786,7 @@
         <v>打开的书</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>102</v>
       </c>
@@ -6210,7 +6808,7 @@
         <v>普通的书</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>103</v>
       </c>
@@ -6232,7 +6830,7 @@
         <v>《户外生存！》</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>104</v>
       </c>
@@ -6254,7 +6852,7 @@
         <v>打开的书</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>105</v>
       </c>
@@ -6276,7 +6874,7 @@
         <v>普通的书</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>106</v>
       </c>
@@ -6298,7 +6896,7 @@
         <v>普通的书</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>107</v>
       </c>
@@ -6320,7 +6918,7 @@
         <v>打开的书</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>108</v>
       </c>
@@ -6342,7 +6940,7 @@
         <v>普通的书</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>109</v>
       </c>
@@ -6364,7 +6962,7 @@
         <v>《冰上钓鱼人》</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>110</v>
       </c>
@@ -6386,7 +6984,7 @@
         <v>普通的书</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>111</v>
       </c>
@@ -6408,7 +7006,7 @@
         <v>《初级缝纫指南》</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>112</v>
       </c>
@@ -6430,7 +7028,7 @@
         <v>《前沿射击指南》</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>113</v>
       </c>
@@ -6452,7 +7050,7 @@
         <v>《統·枪·炮—高级射击》</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>114</v>
       </c>
@@ -6474,7 +7072,7 @@
         <v>抗生素</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>115</v>
       </c>
@@ -6496,7 +7094,7 @@
         <v>消毒液</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>116</v>
       </c>
@@ -6518,7 +7116,7 @@
         <v>止疼药</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>117</v>
       </c>
@@ -6540,7 +7138,7 @@
         <v>弓</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>118</v>
       </c>
@@ -6562,7 +7160,7 @@
         <v>弓弦</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>119</v>
       </c>
@@ -6584,7 +7182,7 @@
         <v>弓木</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>120</v>
       </c>
@@ -6606,7 +7204,7 @@
         <v>小火棍</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>121</v>
       </c>
@@ -6628,7 +7226,7 @@
         <v>断箭</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>122</v>
       </c>
@@ -6650,7 +7248,7 @@
         <v>耶利米的损坏步枪</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>123</v>
       </c>
@@ -6672,7 +7270,7 @@
         <v>米尔顿隐藏补给处</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>124</v>
       </c>
@@ -6694,7 +7292,7 @@
         <v>糖果条</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>125</v>
       </c>
@@ -6716,7 +7314,7 @@
         <v>猪肉豆罐头</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>126</v>
       </c>
@@ -6738,7 +7336,7 @@
         <v>沙丁鱼罐头</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>127</v>
       </c>
@@ -6760,7 +7358,7 @@
         <v>开罐器</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>128</v>
       </c>
@@ -6782,7 +7380,7 @@
         <v>汽车电瓶</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>129</v>
       </c>
@@ -6801,10 +7399,10 @@
       </c>
       <c r="G132" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>工作裤</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+        <v>工装裤</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>130</v>
       </c>
@@ -6826,7 +7424,7 @@
         <v>香蒲</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>131</v>
       </c>
@@ -6845,10 +7443,10 @@
       </c>
       <c r="G134" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>香蒲茎</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+        <v>香蒲茎干</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>132</v>
       </c>
@@ -6870,7 +7468,7 @@
         <v>香蒲头部</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>133</v>
       </c>
@@ -6892,7 +7490,7 @@
         <v>洞穴隐藏补给处</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>134</v>
       </c>
@@ -6914,7 +7512,7 @@
         <v>木炭</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>135</v>
       </c>
@@ -6936,7 +7534,7 @@
         <v>石头教堂</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>136</v>
       </c>
@@ -6958,7 +7556,7 @@
         <v>教堂信息 EP 1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>137</v>
       </c>
@@ -6980,7 +7578,7 @@
         <v>攀岩者的日志</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>138</v>
       </c>
@@ -7002,7 +7600,7 @@
         <v>登山袜</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>139</v>
       </c>
@@ -7024,7 +7622,7 @@
         <v>布料</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>140</v>
       </c>
@@ -7046,7 +7644,7 @@
         <v>煤块</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>141</v>
       </c>
@@ -7068,7 +7666,7 @@
         <v>一杯咖啡</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>142</v>
       </c>
@@ -7090,7 +7688,7 @@
         <v>一罐咖啡</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>143</v>
       </c>
@@ -7112,7 +7710,7 @@
         <v>普通的可收藏信息</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>144</v>
       </c>
@@ -7134,7 +7732,7 @@
         <v>普通的可收藏信息</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>145</v>
       </c>
@@ -7156,7 +7754,7 @@
         <v>军靴</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>146</v>
       </c>
@@ -7178,7 +7776,7 @@
         <v>军裤</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>147</v>
       </c>
@@ -7200,7 +7798,7 @@
         <v>压迫绷带</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>148</v>
       </c>
@@ -7222,7 +7820,7 @@
         <v>炼乳</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>149</v>
       </c>
@@ -7244,7 +7842,7 @@
         <v>银大马哈鱼(已烤熟)</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>150</v>
       </c>
@@ -7266,7 +7864,7 @@
         <v>白鲑 (已烤熟)</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>151</v>
       </c>
@@ -7288,7 +7886,7 @@
         <v>熊肉 (已烤熟)</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>152</v>
       </c>
@@ -7310,7 +7908,7 @@
         <v>鹿肉 (已烤熟)</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>153</v>
       </c>
@@ -7332,7 +7930,7 @@
         <v>兔肉 (已烤熟)</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>154</v>
       </c>
@@ -7354,7 +7952,7 @@
         <v>狼肉 (已烤熟)</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>155</v>
       </c>
@@ -7376,7 +7974,7 @@
         <v>虹鳟鱼 (已烤熟)</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>156</v>
       </c>
@@ -7398,7 +7996,7 @@
         <v>小嘴鲈鱼 (已烤熟)</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>157</v>
       </c>
@@ -7420,7 +8018,7 @@
         <v>连帽衫</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>158</v>
       </c>
@@ -7442,7 +8040,7 @@
         <v>棉毛围巾</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>159</v>
       </c>
@@ -7464,7 +8062,7 @@
         <v>衬衫</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>160</v>
       </c>
@@ -7486,7 +8084,7 @@
         <v>运动袜</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>161</v>
       </c>
@@ -7508,7 +8106,7 @@
         <v>印第安式厚毛衣</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>162</v>
       </c>
@@ -7530,7 +8128,7 @@
         <v>咸饼干</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>163</v>
       </c>
@@ -7552,7 +8150,7 @@
         <v>乌鸦羽毛</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>164</v>
       </c>
@@ -7574,7 +8172,7 @@
         <v>大坝代码信息</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>165</v>
       </c>
@@ -7596,7 +8194,7 @@
         <v>大坝控制室代码信息</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>166</v>
       </c>
@@ -7618,7 +8216,7 @@
         <v>大坝办公室关键词</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>167</v>
       </c>
@@ -7640,7 +8238,7 @@
         <v>鹿皮靴</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>168</v>
       </c>
@@ -7662,7 +8260,7 @@
         <v>鹿皮裤</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>169</v>
       </c>
@@ -7684,7 +8282,7 @@
         <v>狗粮</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>170</v>
       </c>
@@ -7706,7 +8304,7 @@
         <v>城市风雪大衣</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>171</v>
       </c>
@@ -7728,7 +8326,7 @@
         <v>羽绒滑雪衫</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>172</v>
       </c>
@@ -7750,7 +8348,7 @@
         <v>羽绒背心</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>173</v>
       </c>
@@ -7772,7 +8370,7 @@
         <v>羊毛耳套</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>174</v>
       </c>
@@ -7794,7 +8392,7 @@
         <v>信号枪箱信息</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>175</v>
       </c>
@@ -7816,7 +8414,7 @@
         <v>强心针</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>176</v>
       </c>
@@ -7838,7 +8436,7 @@
         <v>士力架 (能量棒)</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>177</v>
       </c>
@@ -7860,7 +8458,7 @@
         <v>银行保管箱钥匙 (#15)</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>178</v>
       </c>
@@ -7882,7 +8480,7 @@
         <v>年历</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>179</v>
       </c>
@@ -7904,7 +8502,7 @@
         <v>消防斧</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>180</v>
       </c>
@@ -7926,7 +8524,7 @@
         <v>加工木材</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="A184" s="1">
         <v>181</v>
       </c>
@@ -7948,7 +8546,7 @@
         <v>打火机</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7">
       <c r="A185" s="1">
         <v>182</v>
       </c>
@@ -7970,7 +8568,7 @@
         <v>医疗急救</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>183</v>
       </c>
@@ -7992,7 +8590,7 @@
         <v>渔夫毛衣</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187" s="1">
         <v>184</v>
       </c>
@@ -8014,7 +8612,7 @@
         <v>鱼线</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188" s="1">
         <v>185</v>
       </c>
@@ -8036,7 +8634,7 @@
         <v>耶利米的步枪</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7">
       <c r="A189" s="1">
         <v>186</v>
       </c>
@@ -8058,7 +8656,7 @@
         <v>信号棒</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7">
       <c r="A190" s="1">
         <v>187</v>
       </c>
@@ -8080,7 +8678,7 @@
         <v>信号枪</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191" s="1">
         <v>188</v>
       </c>
@@ -8102,7 +8700,7 @@
         <v>照明弹 (信号弹)</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7">
       <c r="A192" s="1">
         <v>189</v>
       </c>
@@ -8124,7 +8722,7 @@
         <v>手电</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7">
       <c r="A193" s="1">
         <v>190</v>
       </c>
@@ -8146,7 +8744,7 @@
         <v>羊毛手套</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7">
       <c r="A194" s="1">
         <v>191</v>
       </c>
@@ -8168,7 +8766,7 @@
         <v>羊毛衫</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7">
       <c r="A195" s="1">
         <v>192</v>
       </c>
@@ -8190,7 +8788,7 @@
         <v>燧石 (打火石)</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7">
       <c r="A196" s="1">
         <v>193</v>
       </c>
@@ -8212,7 +8810,7 @@
         <v>森林代言人的传单</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7">
       <c r="A197" s="1">
         <v>194</v>
       </c>
@@ -8234,7 +8832,7 @@
         <v>森林代言人的文件</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7">
       <c r="A198" s="1">
         <v>195</v>
       </c>
@@ -8256,7 +8854,7 @@
         <v>森林代言人地图提示</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7">
       <c r="A199" s="1">
         <v>196</v>
       </c>
@@ -8278,7 +8876,7 @@
         <v>森林代言人便条</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7">
       <c r="A200" s="1">
         <v>197</v>
       </c>
@@ -8300,7 +8898,7 @@
         <v>森林代言人便条</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7">
       <c r="A201" s="1">
         <v>198</v>
       </c>
@@ -8322,7 +8920,7 @@
         <v>锻造蓝图</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7">
       <c r="A202" s="1">
         <v>199</v>
       </c>
@@ -8344,7 +8942,7 @@
         <v>长手套</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7">
       <c r="A203" s="1">
         <v>200</v>
       </c>
@@ -8366,7 +8964,7 @@
         <v>格兰诺拉燕麦卷</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7">
       <c r="A204" s="1">
         <v>201</v>
       </c>
@@ -8388,7 +8986,7 @@
         <v>一杯花茶</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7">
       <c r="A205" s="1">
         <v>202</v>
       </c>
@@ -8410,7 +9008,7 @@
         <v>一罐花茶</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7">
       <c r="A206" s="1">
         <v>203</v>
       </c>
@@ -8432,7 +9030,7 @@
         <v>登山靴</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7">
       <c r="A207" s="1">
         <v>204</v>
       </c>
@@ -8454,7 +9052,7 @@
         <v>灰色母亲的珠宝</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7">
       <c r="A208" s="1">
         <v>205</v>
       </c>
@@ -8476,7 +9074,7 @@
         <v>莉莉的储物箱钥匙</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7">
       <c r="A209" s="1">
         <v>206</v>
       </c>
@@ -8498,7 +9096,7 @@
         <v>新鲜的内脏</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7">
       <c r="A210" s="1">
         <v>207</v>
       </c>
@@ -8520,7 +9118,7 @@
         <v>已风干的内脏</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7">
       <c r="A211" s="1">
         <v>208</v>
       </c>
@@ -8542,7 +9140,7 @@
         <v>钢锯</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7">
       <c r="A212" s="1">
         <v>209</v>
       </c>
@@ -8564,7 +9162,7 @@
         <v>重锤</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7">
       <c r="A213" s="1">
         <v>210</v>
       </c>
@@ -8586,7 +9184,7 @@
         <v>汉克的应急舱</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7">
       <c r="A214" s="1">
         <v>211</v>
       </c>
@@ -8608,7 +9206,7 @@
         <v>汉克的日记 第二部分</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7">
       <c r="A215" s="1">
         <v>212</v>
       </c>
@@ -8630,7 +9228,7 @@
         <v>给汉克侄女的信</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7">
       <c r="A216" s="1">
         <v>213</v>
       </c>
@@ -8652,7 +9250,7 @@
         <v>硬木</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7">
       <c r="A217" s="1">
         <v>214</v>
       </c>
@@ -8674,7 +9272,7 @@
         <v>冷杉木</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7">
       <c r="A218" s="1">
         <v>215</v>
       </c>
@@ -8696,7 +9294,7 @@
         <v>斧头</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7">
       <c r="A219" s="1">
         <v>216</v>
       </c>
@@ -8718,7 +9316,7 @@
         <v>简易短斧</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7">
       <c r="A220" s="1">
         <v>217</v>
       </c>
@@ -8740,7 +9338,7 @@
         <v>炭笔便条</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7">
       <c r="A221" s="1">
         <v>218</v>
       </c>
@@ -8762,7 +9360,7 @@
         <v>褶皱的便条</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7">
       <c r="A222" s="1">
         <v>219</v>
       </c>
@@ -8784,7 +9382,7 @@
         <v>简单的便条</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>220</v>
       </c>
@@ -8806,7 +9404,7 @@
         <v>字迹模糊的便条</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>221</v>
       </c>
@@ -8828,7 +9426,7 @@
         <v>手写便条</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>222</v>
       </c>
@@ -8850,7 +9448,7 @@
         <v>沾染鲜血的便条</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>223</v>
       </c>
@@ -8872,7 +9470,7 @@
         <v>绷带</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>224</v>
       </c>
@@ -8894,7 +9492,7 @@
         <v>老式风雪大衣</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>225</v>
       </c>
@@ -8916,7 +9514,7 @@
         <v>厚羊毛衫</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>226</v>
       </c>
@@ -8938,7 +9536,7 @@
         <v>高级工具箱</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7">
       <c r="A230" s="1">
         <v>227</v>
       </c>
@@ -8960,7 +9558,7 @@
         <v>徒步旅行者的背包</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7">
       <c r="A231" s="1">
         <v>228</v>
       </c>
@@ -8982,7 +9580,7 @@
         <v>鱼钩</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7">
       <c r="A232" s="1">
         <v>229</v>
       </c>
@@ -9004,7 +9602,7 @@
         <v>渔具</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>230</v>
       </c>
@@ -9026,7 +9624,7 @@
         <v>猎人日志</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7">
       <c r="A234" s="1">
         <v>231</v>
       </c>
@@ -9048,7 +9646,7 @@
         <v>橡胶靴</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7">
       <c r="A235" s="1">
         <v>232</v>
       </c>
@@ -9070,7 +9668,7 @@
         <v>雪地裤 (雪花裤)</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7">
       <c r="A236" s="1">
         <v>233</v>
       </c>
@@ -9092,7 +9690,7 @@
         <v>防水马甲</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7">
       <c r="A237" s="1">
         <v>234</v>
       </c>
@@ -9114,7 +9712,7 @@
         <v>牛仔裤</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7">
       <c r="A238" s="1">
         <v>235</v>
       </c>
@@ -9136,7 +9734,7 @@
         <v>耶利米的小刀</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7">
       <c r="A239" s="1">
         <v>236</v>
       </c>
@@ -9158,7 +9756,7 @@
         <v>耶利米的熊皮大衣</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7">
       <c r="A240" s="1">
         <v>237</v>
       </c>
@@ -9180,7 +9778,7 @@
         <v>油桶</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7">
       <c r="A241" s="1">
         <v>238</v>
       </c>
@@ -9199,10 +9797,10 @@
       </c>
       <c r="G241" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>煤油灯</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+        <v>防风油灯</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242" s="1">
         <v>239</v>
       </c>
@@ -9224,7 +9822,7 @@
         <v>捕猎者小刀</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7">
       <c r="A243" s="1">
         <v>240</v>
       </c>
@@ -9246,7 +9844,7 @@
         <v>简易小刀</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7">
       <c r="A244" s="1">
         <v>241</v>
       </c>
@@ -9268,7 +9866,7 @@
         <v>小刀废金属</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7">
       <c r="A245" s="1">
         <v>242</v>
       </c>
@@ -9290,7 +9888,7 @@
         <v>干净的小刀废金属</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7">
       <c r="A246" s="1">
         <v>243</v>
       </c>
@@ -9312,7 +9910,7 @@
         <v>伐木营地活动房钥匙</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7">
       <c r="A247" s="1">
         <v>244</v>
       </c>
@@ -9334,7 +9932,7 @@
         <v>灯油</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7">
       <c r="A248" s="1">
         <v>245</v>
       </c>
@@ -9356,7 +9954,7 @@
         <v>灯油</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7">
       <c r="A249" s="1">
         <v>246</v>
       </c>
@@ -9378,7 +9976,7 @@
         <v>皮革</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7">
       <c r="A250" s="1">
         <v>247</v>
       </c>
@@ -9400,7 +9998,7 @@
         <v>已加工的皮革</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7">
       <c r="A251" s="1">
         <v>248</v>
       </c>
@@ -9422,7 +10020,7 @@
         <v>新鲜的鹿皮</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7">
       <c r="A252" s="1">
         <v>249</v>
       </c>
@@ -9444,7 +10042,7 @@
         <v>鞣制的鹿皮</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7">
       <c r="A253" s="1">
         <v>250</v>
       </c>
@@ -9466,7 +10064,7 @@
         <v>皮鞋</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7">
       <c r="A254" s="1">
         <v>251</v>
       </c>
@@ -9488,7 +10086,7 @@
         <v>新鲜的皮革</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7">
       <c r="A255" s="1">
         <v>252</v>
       </c>
@@ -9510,7 +10108,7 @@
         <v>耶利米的信件</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7">
       <c r="A256" s="1">
         <v>253</v>
       </c>
@@ -9532,7 +10130,7 @@
         <v>薄派克大衣</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7">
       <c r="A257" s="1">
         <v>254</v>
       </c>
@@ -9554,7 +10152,7 @@
         <v>线</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7">
       <c r="A258" s="1">
         <v>255</v>
       </c>
@@ -9576,7 +10174,7 @@
         <v>保暖内衣</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7">
       <c r="A259" s="1">
         <v>256</v>
       </c>
@@ -9598,7 +10196,7 @@
         <v>羊毛裤</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7">
       <c r="A260" s="1">
         <v>257</v>
       </c>
@@ -9620,7 +10218,7 @@
         <v>麦基诺呢厚夹克</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7">
       <c r="A261" s="1">
         <v>258</v>
       </c>
@@ -9642,7 +10240,7 @@
         <v>放大镜</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7">
       <c r="A262" s="1">
         <v>259</v>
       </c>
@@ -9664,7 +10262,7 @@
         <v>绿色枫树苗</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7">
       <c r="A263" s="1">
         <v>260</v>
       </c>
@@ -9686,7 +10284,7 @@
         <v>已风干的枫树苗</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7">
       <c r="A264" s="1">
         <v>261</v>
       </c>
@@ -9708,7 +10306,7 @@
         <v>地图片段 Mt</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7">
       <c r="A265" s="1">
         <v>262</v>
       </c>
@@ -9730,7 +10328,7 @@
         <v>映射至 Railyard</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7">
       <c r="A266" s="1">
         <v>263</v>
       </c>
@@ -9752,7 +10350,7 @@
         <v>药品</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7">
       <c r="A267" s="1">
         <v>264</v>
       </c>
@@ -9774,7 +10372,7 @@
         <v>军大衣</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7">
       <c r="A268" s="1">
         <v>265</v>
       </c>
@@ -9796,7 +10394,7 @@
         <v>银行保管箱钥匙 (#7)</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7">
       <c r="A269" s="1">
         <v>266</v>
       </c>
@@ -9818,7 +10416,7 @@
         <v>银行保管箱钥匙 (#13)</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7">
       <c r="A270" s="1">
         <v>267</v>
       </c>
@@ -9840,7 +10438,7 @@
         <v>银行保管箱钥匙 (#20)</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7">
       <c r="A271" s="1">
         <v>268</v>
       </c>
@@ -9862,7 +10460,7 @@
         <v>羊毛连指手套</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7">
       <c r="A272" s="1">
         <v>269</v>
       </c>
@@ -9884,7 +10482,7 @@
         <v>吗啡</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7">
       <c r="A273" s="1">
         <v>270</v>
       </c>
@@ -9906,7 +10504,7 @@
         <v>“天堂草地”农场钥匙</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7">
       <c r="A274" s="1">
         <v>271</v>
       </c>
@@ -9928,7 +10526,7 @@
         <v>山间小镇农场信息</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7">
       <c r="A275" s="1">
         <v>272</v>
       </c>
@@ -9950,7 +10548,7 @@
         <v>山间小镇上锁箱子钥匙</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7">
       <c r="A276" s="1">
         <v>273</v>
       </c>
@@ -9972,7 +10570,7 @@
         <v>山间小镇地图</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7">
       <c r="A277" s="1">
         <v>274</v>
       </c>
@@ -9994,7 +10592,7 @@
         <v>山间小镇商店钥匙</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7">
       <c r="A278" s="1">
         <v>275</v>
       </c>
@@ -10016,7 +10614,7 @@
         <v>军用速食口粮</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7">
       <c r="A279" s="1">
         <v>276</v>
       </c>
@@ -10038,7 +10636,7 @@
         <v>雪地靴</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7">
       <c r="A280" s="1">
         <v>277</v>
       </c>
@@ -10060,7 +10658,7 @@
         <v>报纸</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7">
       <c r="A281" s="1">
         <v>278</v>
       </c>
@@ -10082,7 +10680,7 @@
         <v>一卷报纸</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" ht="28.8" spans="1:7">
       <c r="A282" s="1">
         <v>279</v>
       </c>
@@ -10104,7 +10702,7 @@
         <v>灰色母亲的保险箱</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7">
       <c r="A283" s="1">
         <v>280</v>
       </c>
@@ -10126,7 +10724,7 @@
         <v>老君须 (胡须地衣)</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7">
       <c r="A284" s="1">
         <v>281</v>
       </c>
@@ -10148,7 +10746,7 @@
         <v>老君须伤口敷料 (胡须地衣伤口敷料)</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7">
       <c r="A285" s="1">
         <v>282</v>
       </c>
@@ -10170,7 +10768,7 @@
         <v>通关手册</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7">
       <c r="A286" s="1">
         <v>283</v>
       </c>
@@ -10192,7 +10790,7 @@
         <v>盒装火柴</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7">
       <c r="A287" s="1">
         <v>284</v>
       </c>
@@ -10214,7 +10812,7 @@
         <v>纸堆</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7">
       <c r="A288" s="1">
         <v>285</v>
       </c>
@@ -10236,7 +10834,7 @@
         <v>花生酱</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7">
       <c r="A289" s="1">
         <v>286</v>
       </c>
@@ -10258,7 +10856,7 @@
         <v>极品桃子</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7">
       <c r="A290" s="1">
         <v>287</v>
       </c>
@@ -10280,7 +10878,7 @@
         <v>兔子尸体</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7">
       <c r="A291" s="1">
         <v>288</v>
       </c>
@@ -10302,7 +10900,7 @@
         <v>格子尼衬衫</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7">
       <c r="A292" s="1">
         <v>289</v>
       </c>
@@ -10321,10 +10919,10 @@
       </c>
       <c r="G292" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>优质冬大衣</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+        <v>远征风雪大衣</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293" s="1">
         <v>290</v>
       </c>
@@ -10346,7 +10944,7 @@
         <v>撬棍</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7">
       <c r="A294" s="1">
         <v>291</v>
       </c>
@@ -10368,7 +10966,7 @@
         <v>南瓜派</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7">
       <c r="A295" s="1">
         <v>292</v>
       </c>
@@ -10390,7 +10988,7 @@
         <v>陆战队短羊毛大衣</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7">
       <c r="A296" s="1">
         <v>293</v>
       </c>
@@ -10412,7 +11010,7 @@
         <v>兔子尸骸</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7">
       <c r="A297" s="1">
         <v>294</v>
       </c>
@@ -10434,7 +11032,7 @@
         <v>新鲜的兔皮</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7">
       <c r="A298" s="1">
         <v>295</v>
       </c>
@@ -10456,7 +11054,7 @@
         <v>鞣制的兔皮</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7">
       <c r="A299" s="1">
         <v>296</v>
       </c>
@@ -10478,7 +11076,7 @@
         <v>兔皮手套</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7">
       <c r="A300" s="1">
         <v>297</v>
       </c>
@@ -10500,7 +11098,7 @@
         <v>银鲑鱼 (生)</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7">
       <c r="A301" s="1">
         <v>298</v>
       </c>
@@ -10522,7 +11120,7 @@
         <v>白鲑 (生)</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7">
       <c r="A302" s="1">
         <v>299</v>
       </c>
@@ -10544,7 +11142,7 @@
         <v>熊肉 (生)</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7">
       <c r="A303" s="1">
         <v>300</v>
       </c>
@@ -10566,7 +11164,7 @@
         <v>鹿肉 (生)</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7">
       <c r="A304" s="1">
         <v>301</v>
       </c>
@@ -10588,7 +11186,7 @@
         <v>兔肉 (生)</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7">
       <c r="A305" s="1">
         <v>302</v>
       </c>
@@ -10610,7 +11208,7 @@
         <v>狼肉 (生)</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7">
       <c r="A306" s="1">
         <v>303</v>
       </c>
@@ -10632,7 +11230,7 @@
         <v>虹鳟鱼 (生)</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7">
       <c r="A307" s="1">
         <v>304</v>
       </c>
@@ -10654,7 +11252,7 @@
         <v>小嘴鲈鱼 (生)</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7">
       <c r="A308" s="1">
         <v>305</v>
       </c>
@@ -10676,7 +11274,7 @@
         <v>旧木材</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7">
       <c r="A309" s="1">
         <v>306</v>
       </c>
@@ -10698,7 +11296,7 @@
         <v>灵芝</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7">
       <c r="A310" s="1">
         <v>307</v>
       </c>
@@ -10720,7 +11318,7 @@
         <v>制备好的灵芝</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7">
       <c r="A311" s="1">
         <v>308</v>
       </c>
@@ -10742,7 +11340,7 @@
         <v>灵芝茶</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7">
       <c r="A312" s="1">
         <v>309</v>
       </c>
@@ -10764,7 +11362,7 @@
         <v>瑞克的日志</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7">
       <c r="A313" s="1">
         <v>310</v>
       </c>
@@ -10786,7 +11384,7 @@
         <v>猎枪</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7">
       <c r="A314" s="1">
         <v>311</v>
       </c>
@@ -10808,7 +11406,7 @@
         <v>一盒猎枪弹药</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7">
       <c r="A315" s="1">
         <v>312</v>
       </c>
@@ -10830,7 +11428,7 @@
         <v>猎枪子弹</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7">
       <c r="A316" s="1">
         <v>313</v>
       </c>
@@ -10852,7 +11450,7 @@
         <v>空膛猎枪</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7">
       <c r="A317" s="1">
         <v>314</v>
       </c>
@@ -10874,7 +11472,7 @@
         <v>猎枪子弹</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7">
       <c r="A318" s="1">
         <v>315</v>
       </c>
@@ -10896,7 +11494,7 @@
         <v>猎枪清理套件</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7">
       <c r="A319" s="1">
         <v>316</v>
       </c>
@@ -10918,7 +11516,7 @@
         <v>猎枪</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7">
       <c r="A320" s="1">
         <v>317</v>
       </c>
@@ -10940,7 +11538,7 @@
         <v>攀岩绳</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7">
       <c r="A321" s="1">
         <v>318</v>
       </c>
@@ -10962,7 +11560,7 @@
         <v>玫瑰果</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7">
       <c r="A322" s="1">
         <v>319</v>
       </c>
@@ -10984,7 +11582,7 @@
         <v>制备好的玫瑰果</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7">
       <c r="A323" s="1">
         <v>320</v>
       </c>
@@ -11006,7 +11604,7 @@
         <v>玫瑰果茶</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7">
       <c r="A324" s="1">
         <v>321</v>
       </c>
@@ -11028,7 +11626,7 @@
         <v>废金属</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7">
       <c r="A325" s="1">
         <v>322</v>
       </c>
@@ -11050,7 +11648,7 @@
         <v>针线包</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7">
       <c r="A326" s="1">
         <v>323</v>
       </c>
@@ -11072,7 +11670,7 @@
         <v>磨刀石</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7">
       <c r="A327" s="1">
         <v>324</v>
       </c>
@@ -11094,7 +11692,7 @@
         <v>铲子</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7">
       <c r="A328" s="1">
         <v>325</v>
       </c>
@@ -11116,7 +11714,7 @@
         <v>简易工具箱</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7">
       <c r="A329" s="1">
         <v>326</v>
       </c>
@@ -11138,7 +11736,7 @@
         <v>滑雪靴</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7">
       <c r="A330" s="1">
         <v>327</v>
       </c>
@@ -11160,7 +11758,7 @@
         <v>滑雪手套</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7">
       <c r="A331" s="1">
         <v>328</v>
       </c>
@@ -11182,7 +11780,7 @@
         <v>滑雪衫</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7">
       <c r="A332" s="1">
         <v>329</v>
       </c>
@@ -11204,7 +11802,7 @@
         <v>陷阱</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7">
       <c r="A333" s="1">
         <v>330</v>
       </c>
@@ -11226,7 +11824,7 @@
         <v>尖峰饮料 (苏打汽水)</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7">
       <c r="A334" s="1">
         <v>331</v>
       </c>
@@ -11248,7 +11846,7 @@
         <v>史黛西牌葡萄汽水</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7">
       <c r="A335" s="1">
         <v>332</v>
       </c>
@@ -11270,7 +11868,7 @@
         <v>橘子汽水</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7">
       <c r="A336" s="1">
         <v>333</v>
       </c>
@@ -11292,7 +11890,7 @@
         <v>杉木</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7">
       <c r="A337" s="1">
         <v>334</v>
       </c>
@@ -11314,7 +11912,7 @@
         <v>小块鹿尸</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7">
       <c r="A338" s="1">
         <v>335</v>
       </c>
@@ -11336,7 +11934,7 @@
         <v>小树枝</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7">
       <c r="A339" s="1">
         <v>336</v>
       </c>
@@ -11358,7 +11956,7 @@
         <v>石块</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7">
       <c r="A340" s="1">
         <v>337</v>
       </c>
@@ -11380,7 +11978,7 @@
         <v>T恤</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7">
       <c r="A341" s="1">
         <v>338</v>
       </c>
@@ -11402,7 +12000,7 @@
         <v>火引</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7">
       <c r="A342" s="1">
         <v>339</v>
       </c>
@@ -11424,7 +12022,7 @@
         <v>番茄汤</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7">
       <c r="A343" s="1">
         <v>340</v>
       </c>
@@ -11446,7 +12044,7 @@
         <v>无檐羊毛帽</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7">
       <c r="A344" s="1">
         <v>341</v>
       </c>
@@ -11468,7 +12066,7 @@
         <v>火把</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7">
       <c r="A345" s="1">
         <v>342</v>
       </c>
@@ -11490,7 +12088,7 @@
         <v>森林代言人补给品</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7">
       <c r="A346" s="1">
         <v>343</v>
       </c>
@@ -11512,7 +12110,7 @@
         <v>公共法案</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7">
       <c r="A347" s="1">
         <v>344</v>
       </c>
@@ -11534,7 +12132,7 @@
         <v>水瓶</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7">
       <c r="A348" s="1">
         <v>345</v>
       </c>
@@ -11556,7 +12154,7 @@
         <v>水瓶</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7">
       <c r="A349" s="1">
         <v>346</v>
       </c>
@@ -11578,7 +12176,7 @@
         <v>净水药片</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7">
       <c r="A350" s="1">
         <v>347</v>
       </c>
@@ -11600,7 +12198,7 @@
         <v>脏水</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7">
       <c r="A351" s="1">
         <v>348</v>
       </c>
@@ -11622,7 +12220,7 @@
         <v>净水</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7">
       <c r="A352" s="1">
         <v>349</v>
       </c>
@@ -11644,7 +12242,7 @@
         <v>水塔信息</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7">
       <c r="A353" s="1">
         <v>350</v>
       </c>
@@ -11666,7 +12264,7 @@
         <v>威尔的靴子</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7">
       <c r="A354" s="1">
         <v>351</v>
       </c>
@@ -11688,7 +12286,7 @@
         <v>威尔的裤子</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7">
       <c r="A355" s="1">
         <v>352</v>
       </c>
@@ -11710,7 +12308,7 @@
         <v>威尔的大衣</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7">
       <c r="A356" s="1">
         <v>353</v>
       </c>
@@ -11732,7 +12330,7 @@
         <v>威尔的上衣</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7">
       <c r="A357" s="1">
         <v>354</v>
       </c>
@@ -11754,7 +12352,7 @@
         <v>威尔的毛衣</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7">
       <c r="A358" s="1">
         <v>355</v>
       </c>
@@ -11776,7 +12374,7 @@
         <v>威尔的帽子</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7">
       <c r="A359" s="1">
         <v>356</v>
       </c>
@@ -11798,7 +12396,7 @@
         <v>狼的尸体</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7">
       <c r="A360" s="1">
         <v>357</v>
       </c>
@@ -11820,7 +12418,7 @@
         <v>新鲜的狼皮</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7">
       <c r="A361" s="1">
         <v>358</v>
       </c>
@@ -11842,7 +12440,7 @@
         <v>鞣制的狼皮</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7">
       <c r="A362" s="1">
         <v>359</v>
       </c>
@@ -11864,7 +12462,7 @@
         <v>小块狼尸</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7">
       <c r="A363" s="1">
         <v>360</v>
       </c>
@@ -11886,7 +12484,7 @@
         <v>狼皮大衣</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7">
       <c r="A364" s="1">
         <v>361</v>
       </c>
@@ -11908,7 +12506,7 @@
         <v>木质火柴</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7">
       <c r="A365" s="1">
         <v>362</v>
       </c>
@@ -11930,7 +12528,7 @@
         <v>羊毛衫</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7">
       <c r="A366" s="1">
         <v>363</v>
       </c>
@@ -11952,7 +12550,7 @@
         <v>羊毛袜</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7">
       <c r="A367" s="1">
         <v>364</v>
       </c>
@@ -11974,7 +12572,7 @@
         <v>薄羊毛衫</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7">
       <c r="A368" s="1">
         <v>365</v>
       </c>
@@ -11996,7 +12594,7 @@
         <v>羊毛长围巾</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7">
       <c r="A369" s="1">
         <v>366</v>
       </c>
@@ -12018,7 +12616,7 @@
         <v>羊毛帽</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7">
       <c r="A370" s="1">
         <v>367</v>
       </c>
@@ -12040,7 +12638,7 @@
         <v>工作靴</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7">
       <c r="A371" s="1">
         <v>368</v>
       </c>
@@ -12062,7 +12660,7 @@
         <v>工作手套</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7">
       <c r="A372" s="1">
         <v>369</v>
       </c>
@@ -12073,7 +12671,7 @@
         <v>1057</v>
       </c>
       <c r="D372" s="5" t="s">
-        <v>354</v>
+        <v>1058</v>
       </c>
       <c r="F372" s="4" t="str">
         <f t="shared" si="11"/>
@@ -12084,18 +12682,18 @@
         <v>工作裤</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7">
       <c r="A373" s="1">
         <v>370</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D373" s="5" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="F373" s="4" t="str">
         <f t="shared" si="11"/>
@@ -12106,18 +12704,18 @@
         <v>内脏</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7">
       <c r="A374" s="1">
         <v>371</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D374" s="5" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F374" s="4" t="str">
         <f t="shared" si="11"/>
@@ -12128,18 +12726,18 @@
         <v>健康值</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7">
       <c r="A375" s="1">
         <v>372</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D375" s="5" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="F375" s="4" t="str">
         <f t="shared" si="11"/>
@@ -12150,18 +12748,18 @@
         <v>隐藏</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7">
       <c r="A376" s="1">
         <v>373</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D376" s="5" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="F376" s="4" t="str">
         <f t="shared" si="11"/>
@@ -12172,18 +12770,18 @@
         <v>隐藏量</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7">
       <c r="A377" s="1">
         <v>374</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D377" s="5" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="F377" s="4" t="str">
         <f t="shared" si="11"/>
@@ -12194,18 +12792,18 @@
         <v>损毁的高速公路</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7">
       <c r="A378" s="1">
         <v>375</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D378" s="5" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F378" s="4" t="str">
         <f t="shared" si="11"/>
@@ -12216,18 +12814,18 @@
         <v>冰钓技能点数</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7">
       <c r="A379" s="1">
         <v>376</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D379" s="5" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="F379" s="4" t="str">
         <f t="shared" si="11"/>
@@ -12238,18 +12836,18 @@
         <v>无限负重</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7">
       <c r="A380" s="1">
         <v>377</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D380" s="5" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="F380" s="4" t="str">
         <f t="shared" si="11"/>
@@ -12260,18 +12858,18 @@
         <v>病痛</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7">
       <c r="A381" s="1">
         <v>378</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D381" s="5" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F381" s="4" t="str">
         <f t="shared" si="11"/>
@@ -12282,18 +12880,18 @@
         <v>背包</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7">
       <c r="A382" s="1">
         <v>379</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="F382" s="4" t="str">
         <f t="shared" si="11"/>
@@ -12304,12 +12902,12 @@
         <v>免疫伤害</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7">
       <c r="A383" s="1">
         <v>380</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>86</v>
@@ -12326,12 +12924,12 @@
         <v>技能书</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7">
       <c r="A384" s="1">
         <v>381</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>98</v>
@@ -12348,18 +12946,18 @@
         <v>衣物</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7">
       <c r="A385" s="1">
         <v>382</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D385" s="5" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="F385" s="4" t="str">
         <f t="shared" si="11"/>
@@ -12370,12 +12968,12 @@
         <v>可收藏物品</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7">
       <c r="A386" s="1">
         <v>383</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>169</v>
@@ -12392,12 +12990,12 @@
         <v>医疗急救</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7">
       <c r="A387" s="1">
         <v>384</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>171</v>
@@ -12414,18 +13012,18 @@
         <v>食物</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7">
       <c r="A388" s="1">
         <v>385</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D388" s="5" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="F388" s="4" t="str">
         <f t="shared" si="11"/>
@@ -12436,18 +13034,18 @@
         <v>隐藏物品</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7">
       <c r="A389" s="1">
         <v>386</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D389" s="5" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="F389" s="4" t="str">
         <f t="shared" si="11"/>
@@ -12458,18 +13056,18 @@
         <v>材料</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7">
       <c r="A390" s="1">
         <v>387</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D390" s="5" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="F390" s="4" t="str">
         <f t="shared" si="11"/>
@@ -12480,18 +13078,18 @@
         <v>工具</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7">
       <c r="A391" s="1">
         <v>388</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D391" s="5" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="F391" s="4" t="str">
         <f t="shared" si="11"/>
@@ -12502,18 +13100,18 @@
         <v>未知物品</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7">
       <c r="A392" s="1">
         <v>389</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D392" s="5" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="F392" s="4" t="str">
         <f t="shared" si="11"/>
@@ -12524,18 +13122,18 @@
         <v>神秘湖</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7">
       <c r="A393" s="1">
         <v>390</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D393" s="5" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="F393" s="4" t="str">
         <f t="shared" ref="F393:F422" si="13">B393</f>
@@ -12546,18 +13144,18 @@
         <v>地图</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7">
       <c r="A394" s="1">
         <v>391</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D394" s="5" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="F394" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12568,18 +13166,18 @@
         <v>孤寂沼泽</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7">
       <c r="A395" s="1">
         <v>392</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D395" s="5" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="F395" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12590,18 +13188,18 @@
         <v>材料</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7">
       <c r="A396" s="1">
         <v>393</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D396" s="5" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="F396" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12612,18 +13210,18 @@
         <v>肉（千克）</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7">
       <c r="A397" s="1">
         <v>394</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D397" s="5" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="F397" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12634,18 +13232,18 @@
         <v>永不死亡</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7">
       <c r="A398" s="1">
         <v>395</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D398" s="5" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="F398" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12656,18 +13254,18 @@
         <v>开放地图</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7">
       <c r="A399" s="1">
         <v>396</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D399" s="5" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="F399" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12678,18 +13276,18 @@
         <v>人物</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7">
       <c r="A400" s="1">
         <v>397</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D400" s="5" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="F400" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12700,18 +13298,18 @@
         <v>位置</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7">
       <c r="A401" s="1">
         <v>398</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D401" s="5" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="F401" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12722,18 +13320,18 @@
         <v>徽章</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7">
       <c r="A402" s="1">
         <v>399</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D402" s="5" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="F402" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12744,18 +13342,18 @@
         <v>进度</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7">
       <c r="A403" s="1">
         <v>400</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D403" s="5" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="F403" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12766,18 +13364,18 @@
         <v>深谷</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7">
       <c r="A404" s="1">
         <v>401</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D404" s="5" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="F404" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12788,18 +13386,18 @@
         <v>刷新</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7">
       <c r="A405" s="1">
         <v>402</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D405" s="5" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="F405" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12810,18 +13408,18 @@
         <v>区域</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7">
       <c r="A406" s="1">
         <v>403</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D406" s="5" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="F406" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12832,18 +13430,18 @@
         <v>删除选中物品</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7">
       <c r="A407" s="1">
         <v>404</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D407" s="5" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="F407" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12854,18 +13452,18 @@
         <v>删除所有物品</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7">
       <c r="A408" s="1">
         <v>405</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D408" s="5" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="F408" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12876,18 +13474,18 @@
         <v>恢复所有物品耐久</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7">
       <c r="A409" s="1">
         <v>406</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D409" s="5" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="F409" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12898,18 +13496,18 @@
         <v>枪械技能点数</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7">
       <c r="A410" s="1">
         <v>407</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D410" s="5" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="F410" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12920,18 +13518,18 @@
         <v>Rounds in clip</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7">
       <c r="A411" s="1">
         <v>408</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D411" s="5" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="F411" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12942,18 +13540,18 @@
         <v>怡人山谷</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7">
       <c r="A412" s="1">
         <v>409</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D412" s="5" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="F412" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12964,18 +13562,18 @@
         <v>保存修改</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7">
       <c r="A413" s="1">
         <v>410</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D413" s="5" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="F413" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12986,18 +13584,18 @@
         <v>技能</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7">
       <c r="A414" s="1">
         <v>411</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D414" s="5" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="F414" s="4" t="str">
         <f t="shared" si="13"/>
@@ -13008,18 +13606,18 @@
         <v>雪中漫步者成就进度</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7">
       <c r="A415" s="1">
         <v>412</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D415" s="5" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="F415" s="4" t="str">
         <f t="shared" si="13"/>
@@ -13030,18 +13628,18 @@
         <v>测试开关</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7">
       <c r="A416" s="1">
         <v>413</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D416" s="5" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="F416" s="4" t="str">
         <f t="shared" si="13"/>
@@ -13052,18 +13650,18 @@
         <v>口渴度</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7">
       <c r="A417" s="1">
         <v>414</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D417" s="5" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="F417" s="4" t="str">
         <f t="shared" si="13"/>
@@ -13074,18 +13672,18 @@
         <v>已加工时间 (小时)</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" ht="28.8" spans="1:7">
       <c r="A418" s="1">
         <v>415</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D418" s="5" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="F418" s="4" t="str">
         <f t="shared" si="13"/>
@@ -13096,18 +13694,18 @@
         <v>The Long Dark 漫漫长夜 (v.1.17) 存档编辑器中文版 汉化：Chasel 怼狼怼熊 版本</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7">
       <c r="A419" s="1">
         <v>416</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D419" s="5" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="F419" s="4" t="str">
         <f t="shared" si="13"/>
@@ -13118,18 +13716,18 @@
         <v>工具</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7">
       <c r="A420" s="1">
         <v>417</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D420" s="5" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="F420" s="4" t="str">
         <f t="shared" si="13"/>
@@ -13140,18 +13738,18 @@
         <v>徽章成就完成进度</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7">
       <c r="A421" s="1">
         <v>418</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D421" s="5" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="F421" s="4" t="str">
         <f t="shared" si="13"/>
@@ -13162,18 +13760,18 @@
         <v>未知</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7">
       <c r="A422" s="1">
         <v>419</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D422" s="5" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="F422" s="4" t="str">
         <f t="shared" si="13"/>
@@ -13185,8 +13783,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>